--- a/result/all.xlsx
+++ b/result/all.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W334"/>
+  <dimension ref="A1:W426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20584,7 +20584,6 @@
       <c r="D334" t="n">
         <v>25000</v>
       </c>
-      <c r="E334" t="inlineStr"/>
       <c r="F334" t="inlineStr">
         <is>
           <t>https://www.avito.ru//moskva/kommercheskaya_nedvizhimost/ofis_25_m_3902432976?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJVbzVZYkF1em0weEdEWkpaIjt9IA1_kz8AAAA</t>
@@ -20610,7 +20609,6 @@
           <t>i78500608</t>
         </is>
       </c>
-      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>Скотопрогонная ул., 29/1</t>
@@ -20621,12 +20619,6 @@
           <t>Москва</t>
         </is>
       </c>
-      <c r="M334" t="inlineStr"/>
-      <c r="N334" t="inlineStr"/>
-      <c r="O334" t="inlineStr"/>
-      <c r="P334" t="inlineStr"/>
-      <c r="Q334" t="inlineStr"/>
-      <c r="R334" t="inlineStr"/>
       <c r="S334" t="inlineStr">
         <is>
           <t>55.73052597;37.69543839</t>
@@ -20642,8 +20634,6819 @@
           <t>Да</t>
         </is>
       </c>
-      <c r="V334" t="inlineStr"/>
-      <c r="W334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>7808167131</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Свободного назначения, 40 м²</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>35000</v>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/svobodnogo_naznacheniya_40_m_7808167131?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJoemMxcjF2QmhlWlpPUW1WIjt9jTN8yT8AAAA</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>Приглашаем арендаторов. ЖК Онегин. Новое помещение, ремонт выполнен. Два входа с улицы и в общее пространство. Туалет. Высота потолков 4.0м.</t>
+        </is>
+      </c>
+      <c r="H335" s="1" t="n">
+        <v>46054.9515625</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>ул. Шмидта, 4</t>
+        </is>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="S335" t="inlineStr">
+        <is>
+          <t>52.27650833;104.2589417</t>
+        </is>
+      </c>
+      <c r="T335" t="inlineStr">
+        <is>
+          <t>https://60.img.avito.st/image/1/1.5Tim-ra-SdHQVIve4IGSOutbS9cUTU3RFCoo2xiZRhMdWUs.D6ocIqsHP0RT3pGplWhKcfDysvBRQf2bPHYwc2mwfpU;https://10.img.avito.st/image/1/1.dTgNira-2dF7JBvea8spO0Ar29e_Pd3Rv1q427Pp1hO2Kds.JepjZRYNl7RA5PxSkW7UJURkbfQNgwL6bpqrfCP0VkA?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://80.img.avito.st/image/1/1.qdQRvra-BT1nEMcyT9C011wfBzujCQE9o25kN6_dCv-qHQc.WCux9mUBkm0kE7bz0LjhH0wjYSUDvKtm-WVpYcnD7_E;https://10.img.avito.st/image/1/1.BThMcra-qdE63GveSk4YOwHTq9f-xa3R_qLI2_IRphP30as.VH8Q-c_9P0Ne1WFfnSrCQSFpTW5yZMrcwB6aie1rarg?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://00.img.avito.st/image/1/1.y6fLpLa-Z069CqVB0dOzpYYFZUh5E2NOeXQGRHXHaIxwB2U.C89L_Z6bk-q0LDsM6vUp-2JdFpmeTA9Q9JwvoiERRJ4?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://00.img.avito.st/image/1/1.DQJlvba-oesTE2Pkc510ACgco-3XCqXr123A4dverineHqM.tdUZO0-rRXiKmfYvF2OwQCWl6aqDpe0LRi12Yf34uT8?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://00.img.avito.st/image/1/1.TU7PcLa-4ae53iOo2RkPTYLR46F9x-WnfaCArXET7mV00-M.yXBjJTFUrM8N8l3fFbAN-Jdxvtvt5NvQZyne3qaN_VQ?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://70.img.avito.st/image/1/1.TZoF3ra-4XNzcCN8E9NbxEJ_43W3aeVztw6Aebu97rG-feM.uYZnNyBUZMZY-T7_s7m_PQ3gzD8xqM-vIpiRd1QUj98;https://30.img.avito.st/image/1/1.qAmGuLa-BODwFsbv2u6JVcEZBuY0DwDgNGhl6jjbCyI9GwY.JzA9UQVM8kGXLhZCsPHRsLVb8nOH8_lYlTwGCh-i2Uo?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://10.img.avito.st/image/1/1.7AoIj7a-QON-IYLsXLjSVk8uQuW6OETjul8h6bbsTyGzLEI.YzOU9HrJMpDtlAvtoXGGGmLxvxmj6gqKLYa8dlN8jiI?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U335" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>7708347326</v>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Стильный офис, 14 м²</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>18200</v>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/stilnyy_ofis_14_m_7708347326?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJoemMxcjF2QmhlWlpPUW1WIjt9jTN8yT8AAAA</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>Стильный офис в центре.
+- площадь 14 м².
+- аренда 18 200 ₽/меc. | комм. Плaтeжи фиксированные.
+- новый peмoнт в cтилe Lоfт.
+- свeтлый офис c бoльшим oкном.
+- 3й этаж.
+Локация.
+Лофт-пространство S. Центр города, подъездные пути с ул. Советская и ул. Декабрьских Событий.</t>
+        </is>
+      </c>
+      <c r="H336" s="1" t="n">
+        <v>46055.37523148148</v>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>i122696319</t>
+        </is>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>ул. Софьи Перовской, 30</t>
+        </is>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="S336" t="inlineStr">
+        <is>
+          <t>52.281368;104.301178</t>
+        </is>
+      </c>
+      <c r="T336" t="inlineStr">
+        <is>
+          <t>https://00.img.avito.st/image/1/1.WlUjeba-9rxV1zSzG1h3T3zY9LqRzvK8kamXtp0a-X6Y2vQ.DuGTyYx-r2PpWU6grwHN6OhKKoE5-jhaVTpwQyE8dnw?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://50.img.avito.st/image/1/1.pjmFE7a-CtDzvcjfxQnQENmyCNY3pA7QN8Nr2jtwBRI-sAg.PLuIJN_J8QYHA3hMK8X5Hsb_W63hfX6o4eEvGZJ2ACU;https://90.img.avito.st/image/1/1.5kBIJ7a-Sqk-iYimCGD1WxeGSK_6kE6p-vcro_ZERWvzhEg.FIiBugOF5POZ0VgA_7VXohlRvyd2iYX-n-KTnYFOGGE;https://80.img.avito.st/image/1/1.QIeCOLa-7G70li5hjlk0rt6Z7mgwj-huMOiNZDxb46w5m-4.BTFmbSy3uYqwO8jqBPUd9mrXlO34kxSb9I6CVqKcNl0;https://30.img.avito.st/image/1/1.Eb63fba-vVfB039YmVlruujcv1EFyrlXBa3cXQkespUM3r8.VWhovUOFdz0PjFHQJfefoaBdda2UutDzQ2WpDFj9aJo?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://20.img.avito.st/image/1/1.WlXQuba-9rymFzSz6OgOT48Y9LpiDvK8YmmXtm7a-X5rGvQ.EEp3g-l5cSn1otDtpiIBl8KRMOKgVwqVap-wxs-Ip3Y?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://80.img.avito.st/image/1/1.IEE2lra-jKhAOE6neppBRWk3jq6EIYiohEbtooj1g2qNNY4.8NNMReQYL1mj0ctZFWztAbl7PaquPUql6ebAryN_N34</t>
+        </is>
+      </c>
+      <c r="U336" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>7876187231</v>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Кабинет для бьюти мастера</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
+        <v>14000</v>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//angarsk/kommercheskaya_nedvizhimost/kabinet_dlya_byuti_mastera_7876187231?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJoemMxcjF2QmhlWlpPUW1WIjt9jTN8yT8AAAA</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>Сдам кабинет в студии красоты, есть мокрая точка.</t>
+        </is>
+      </c>
+      <c r="H337" s="1" t="n">
+        <v>46055.40565972222</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>ул. Ворошилова, 18</t>
+        </is>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>Ангарск</t>
+        </is>
+      </c>
+      <c r="S337" t="inlineStr">
+        <is>
+          <t>52.53285414825627;103.88129148583468</t>
+        </is>
+      </c>
+      <c r="T337" t="inlineStr">
+        <is>
+          <t>https://80.img.avito.st/image/1/1.tTu1ara-GdLDxNvd01jRP_jLG9QH3R3SB7p42AsJFhAOyRs.Uc7sU2tTva_EclurF8oVi7Ga1rkrdBzb3AwT8sBIsD0;https://90.img.avito.st/image/1/1.btG2pLa-wjjACgA35u0J1fsFwD4EE8Y4BHSjMgjHzfoNB8A.0oRMmkPMpMgwPSh8jy4pz4n5FF95irGf4pXc577flyI;https://80.img.avito.st/image/1/1.PtBOnra-kjk4MFA2Pr4YywM_kD_8KZY5_E7zM_D9nfv1PZA.AUMcxNytG2IGM1YO_w4jY210bFdL-Wfa75kZHnVlQEU;https://90.img.avito.st/image/1/1.KZArqba-hXldB0d2daFplWYIh3-ZHoF5mXnkc5XKiruQCoc.zMstKsnjCYLlL-Qp2GHecis6ZYgyVXaveavZbie-458;https://50.img.avito.st/image/1/1.8mgJKLa-XoF_hpyOYR_Qc0SJXIe7n1qBu_g_i7dLUUOyi1w.QxE27sUINkpofvmu71OH5JeN9hoWniz5pNGw8BrvRUk;https://00.img.avito.st/image/1/1.STQrr7a-5d1dASfSNYZjMWYO59uZGOHdmX-E15XM6h-QDOc.0EoxFMC7fN3yV6pUNGUUzZPNb9wbzh0jI4xq6bIRwD0?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U337" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>7872439674</v>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Офис, 20 м²</t>
+        </is>
+      </c>
+      <c r="D338" t="n">
+        <v>38000</v>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//moskva/kommercheskaya_nedvizhimost/ofis_20_m_7872439674?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJWdTN6RWRBSXRVMkdtS0c1Ijt9kxwLyz8AAAA</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>Срочно!
+Сдам просторный уютный теплый и очень светлый офис-кабинет. Снимали сами год, сейчас ищем нового арендатора.
+Адрес:
+Москва, ул. Профсоюзная, 57.
+— м. Калужская / Новые Черёмушки — около 10 минут.
+— м. Зюзино (Бкл) — удобно общественным транспортом.
+— спокойный деловой район.
+Офис:
+— тихое, светлое помещение.
+— два больших окна.
+— кондиционер.
+— два рабочих стола, стулья.
+— диван.
+— кофемашина, чайник, заварник.
+— музыкальные колонки.
+— подходит для работы, созвонов и встреч.
+*вся мебель и техника остается по договоренности.
+Здание и доступ:
+— охрана, пропускная система.
+— клиентов приглашать можно, не потоково.
+Пишите, обсудим! Реально заинтересованным — оперативный показ.</t>
+        </is>
+      </c>
+      <c r="H338" s="1" t="n">
+        <v>46054.93701388889</v>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>i4341347</t>
+        </is>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>Профсоюзная ул., 57</t>
+        </is>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="S338" t="inlineStr">
+        <is>
+          <t>55.66186142;37.54656219</t>
+        </is>
+      </c>
+      <c r="T338" t="inlineStr">
+        <is>
+          <t>https://10.img.avito.st/image/1/1.ojRj9La-Dt0VWszSK9aqRyNVDNvRQwrd0SRv192XAR_YVww.Z4GsARYhVAulFNnO__PbZov6YMsr2XXPH_5kk5nzOfk?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://20.img.avito.st/image/1/1.caC1Pba-3UnDkx9G23Qmzfic308HitlJB-28Qwte0osOnt8.Y6SsLFszse9v-oDUZu5eFTabg9EwN_JZj8cUmJ5NVjM?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://20.img.avito.st/image/1/1.9gKKNba-Wuv8m5jk6kamb8eUWO04gl7rOOU74TRWVSkxllg.XOiQYz14ikMSmmtUTXtu-7tlF69HMKkwQbX9RMkWbrA?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://00.img.avito.st/image/1/1.GN75gra-tDePLHY4xYJZsrQjtjFLNbA3S1LVPUfhu_VCIbY.KIBijL0kRO42ovg8LQFs_XTDGl4vxQL2nDSfJ2xd9ns?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U338" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>7887432119</v>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Свободного назначения, 40 м²</t>
+        </is>
+      </c>
+      <c r="D339" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//moskva/kommercheskaya_nedvizhimost/svobodnogo_naznacheniya_40_m_7887432119?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJWdTN6RWRBSXRVMkdtS0c1Ijt9kxwLyz8AAAA</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>Круглосуточный доступ.
+Сдается в аренду помещение под офис, швейный цех на втором этаже здания (грузовой лифт).
+Прямая аренда от собственника.
+Охраняемая, огороженная территория, круглосуточная охрана, видеонаблюдение.
+На территории расположены: кофейные и снековые аппараты.
+Имеется парковка на прилегающей территории:
+- 5000 руб. В месяц за одно нефиксированное место.
+- 7000 руб. В месяц за одно фиксированное, круглосуточное место.</t>
+        </is>
+      </c>
+      <c r="H339" s="1" t="n">
+        <v>46055.07041666667</v>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>i107282354</t>
+        </is>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>Угрешская ул., 12с1</t>
+        </is>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="S339" t="inlineStr">
+        <is>
+          <t>55.713892;37.695816</t>
+        </is>
+      </c>
+      <c r="T339" t="inlineStr">
+        <is>
+          <t>https://30.img.avito.st/image/1/1.veoOtba-EQN4G9MMeOPMvkIUEwW8AhUDvGVwCbDWHsG1FhM.c7g7FY7Mh1-hrtzOa0x_eieD9hW5zlyJCX9lzia9kkQ?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://70.img.avito.st/image/1/1.TGyWf7a-4IXg0SKKggolOtre4oMkyOSFJK-Bjygc70ct3OI.5JsFHFG0k4pueevddKrGgz0uGrqjgzT5FgH21TuhHfk;https://80.img.avito.st/image/1/1.3YIPNLa-cWt5mrNkOVet1UOVc229g3VrveQQYbFXfqm0l3M.L9bONqoZpHbN11MFlvANbPI8SzpUxiKHY81nBrJnu5U;https://10.img.avito.st/image/1/1.RxfY4ra-6_6uTCnx2s8nQZRD6fhqVe_-ajKK9GaB5DxjQek.aey0kfi1Sl5AGrJTigVyjep1FXw3WfUUClTi_SWIoVI?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U339" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>7526097726</v>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Офисное помещение, 22.1 кв.м</t>
+        </is>
+      </c>
+      <c r="D340" t="n">
+        <v>22100</v>
+      </c>
+      <c r="E340" t="inlineStr"/>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/ofisnoe_pomeschenie_22.1_kv.m_7526097726?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJ4MlU5czZrcW43UW1ERllFIjt9Mt5NhD8AAAA</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>От Собственника Без Комиссии.
+Сдаются офисы в центре города на ул. Свердлова 36.
+— Расположены в торгово-офисном центре Сезон.
+— Предлагаем офисы на 4-м и 5-м этажах, в здании лифт.
+— Площадь кабинетов от 20кв. М до 100кв. М. Цена 1000руб/кв. М.
+— Приятный вид на город, панорамные окна, есть кабинеты с мокрой точкой.
+— Подходят под любой вид деятельности: офис, услуги, бьюти, фото и арт студия, хранение и т. Д.
+— Доступ 7.00-22.00 ежедневно.
+Вся Коммерческая Недвижимость От Собственника Без Комиссии.
+Федеральная сеть профессиональных консультантов по коммерческой недвижимости.
+30 городов присутствия в РФ.
+Есть Помещение, НО Нет Арендатора/Покупателя?
+Есть Бизнес, НО Нет Помещения?
+Звоните — Решим!</t>
+        </is>
+      </c>
+      <c r="H340" s="1" t="n">
+        <v>46055.42126157408</v>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>i6675529</t>
+        </is>
+      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>ул. Свердлова, 36</t>
+        </is>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M340" t="inlineStr"/>
+      <c r="N340" t="inlineStr"/>
+      <c r="O340" t="inlineStr"/>
+      <c r="P340" t="inlineStr"/>
+      <c r="Q340" t="inlineStr"/>
+      <c r="R340" t="inlineStr"/>
+      <c r="S340" t="inlineStr">
+        <is>
+          <t>52.28636;104.288269</t>
+        </is>
+      </c>
+      <c r="T340" t="inlineStr">
+        <is>
+          <t>https://10.img.avito.st/image/1/1.22E9lba-d4hLO7WHB5LxAH00dY6PInOIj0UWgoP2eEqGNnU.BX_pfYZMzn3JNHgxHylheuuHGQGFLa3qF3uXqXxgWhQ?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://20.img.avito.st/image/1/1.qYJSiba-BWskJ8dkDP_Q6xIoB23gPgFr4FlkYezqCqnpKgc.tL0RNCEr_SnX0dsRFM5qgUTMGmb0Prrw2EmEWmtWvew?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://80.img.avito.st/image/1/1.sdjDCba-HTG1p98-rXPhuoOoHzdxvhkxcdl8O31qEvN4qh8.nqC7KKFrczJxx-gurf4qsFckA-W0KkPL7Kf-PQTIx4s;https://20.img.avito.st/image/1/1.X0IRP7a-86tnkTGkI1ImK1Ge8a2jiPero--Soa9c_GmqnPE.eaJDoajwLA2qm1MpRVP5u2ng1fJ0VdMx_2g6jLGeAsk?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://70.img.avito.st/image/1/1.StSD7ra-5j31QCQym_cyvcNP5DsxWeI9MT6HNz2N6f84TeQ.8hzlESoZgj2COefIr3TphZbY8xOU9LWh76iQx-CV1WM;https://40.img.avito.st/image/1/1.2ZE25ra-dXhASLd3CJm65WJHd36EUXF4hDYUcoiFerqNRXc.G70J3YlH_zsz9Kgo1DazGyFoZqWrshufJzE0bjzdciY;https://10.img.avito.st/image/1/1.cHTm3ra-3J2QcB6Sio99N7J_3ptUadidVA69l1i9019dfd4.Le_09_OoufU8oUBv3mjuZCbWFU28LegovOJDP9uEr3g?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://70.img.avito.st/image/1/1.E6iiwba-v0HUb31OiN1shstgvUcQdrtBEBHeSxyisIMZYr0.FzFlwgWy6jE_KmQ2iJjnexS37yeYdnXSLIg1eClfByw;https://90.img.avito.st/image/1/1.-jajt7a-Vt_VGZTQ26TzBsMWVNkRAFLfEWc31R3UWR0YFFQ.aITC41u05G1w59Rb8Xg_1FvsGQY_4skZXkK2AYnqlE4;https://10.img.avito.st/image/1/1.oxP8ira-D_qKJM31ttS6I5wrDfxOPQv6Tlpu8ELpADhHKQ0._ahN47RIp1G9rpAQHexKxPUG6drE93wG3hlV7LyjYDQ?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://10.img.avito.st/image/1/1.Troy8ra-4lNEXCBcIrcli1JT4FWAReZTgCKDWYyR7ZGJUeA.yaVO6THI8dW_EhU0prWl_9PvBFDdGbmrp-Rn2oPB1TU?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://00.img.avito.st/image/1/1._0haAba-U6Esr5GuKA6XeTqgUafotleh6NEyq-RiXGPholE.Ua6SbRUBIKG4L1UXRhc_krrfMUhJZVd6xNjoQ4jokkQ?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://30.img.avito.st/image/1/1.68GfRba-Ryjp64UnxVb18f_kRS4t8kMoLZUmIiEmSOok5kU.Ab7q0er7vbJucLKFxStswin5PrZolOHj_wSm8n79BCU?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U340" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V340" t="inlineStr"/>
+      <c r="W340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>4575648295</v>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Офис, 12 м²</t>
+        </is>
+      </c>
+      <c r="D341" t="n">
+        <v>24000</v>
+      </c>
+      <c r="E341" t="inlineStr"/>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/ofis_12_m_4575648295?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJ4MlU5czZrcW43UW1ERllFIjt9Mt5NhD8AAAA</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>Эксклюзивное предложение от собственника на арендные площади! Последнее помещение с Мокрой Точки площадью 12 м2 в уникальном объекте коммерческой аренды: помещение расположено на 1-й линии ул. К. Либкнехта, первый этаж, отдельный вход, круглосуточный доступ, охрана, система контроля доступа, парковка, Помещение с дизайнерской отделкой, приточно-вытяжная вентиляцией и кондиционером. На этаже 2 отдельных санузла. Теплое, светлое и уютное помещение ждет своего арендатора. Звоните и записывайтесь на просмотр.</t>
+        </is>
+      </c>
+      <c r="H341" s="1" t="n">
+        <v>46044.04702546296</v>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>i303860002</t>
+        </is>
+      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>Ямская ул., 20</t>
+        </is>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M341" t="inlineStr"/>
+      <c r="N341" t="inlineStr"/>
+      <c r="O341" t="inlineStr"/>
+      <c r="P341" t="inlineStr"/>
+      <c r="Q341" t="inlineStr"/>
+      <c r="R341" t="inlineStr"/>
+      <c r="S341" t="inlineStr">
+        <is>
+          <t>52.281150313538056;104.30783993774114</t>
+        </is>
+      </c>
+      <c r="T341" t="inlineStr">
+        <is>
+          <t>https://70.img.avito.st/image/1/1.UWGsz7a-_YjaYT-Hgsp-COBu_44eePmIHh-cghKs8koXbP8.uVm2xMrKgOzkaHh9AeDepaRPuJV1kx93rR-BhjBMbv8;https://50.img.avito.st/image/1/1.niGfvLa-MsjpEvDHr5axJ-wdMM4tCzbILWxTwiHfPQokHzA.bnpGmhvRDpbf_MAMc-MZ2TlhCTC-xRCTmdKnQLPG5WI;https://90.img.avito.st/image/1/1.-psl7ra-VnJTQJR9XZ2l8mlPVHSXWVJylz43eJuNWbCeTVQ.3hpolKulZUKieJOdfZnVQJ8cH4zwyZPIokZ475Qikgg;https://70.img.avito.st/image/1/1.I80u4ra-jyRYTE0rZJJUpWJDjSKcVYsknDLuLpCBgOaVQY0.SYUfmfMvAhrBoQe7MphSTwkz0JY7LBbkjCRHt7SqKy4;https://20.img.avito.st/image/1/1.DUoQaba-oaNmx2OsBm0gI1zIo6Wi3qWjornAqa4KrmGryqM.G1QdAJTuz1cYH5gIV9P1MTTho39DHfX3GjJnN5ndQOA?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://70.img.avito.st/image/1/1.xIpecLa-aGMo3qpsWk_g4xLRamXsx2xj7KAJaeATZ6Hl02o.8w4R0BFQN5Bth5ETk3gJoY8JqphRgn_hJt2reFoCCWM;https://90.img.avito.st/image/1/1.VtCVaba--jnjxzg2tTBo1-bI-D8n3v45J7mbMysK9fsuyvg.0ssAb0bhmVAsJpCWdaYji1IWl-ec5EriqBcEH6yol0g;https://30.img.avito.st/image/1/1.T1lUyra-47AiZCG_RttjMBhr4bbmfeew5hqCuuqp7HLvaeE.AxM-ATCEfcH1GGGRJQRTZAE7xNgXiLEPHLXbJZSf9Bw?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://80.img.avito.st/image/1/1.oemsz7a-DQDaYc8P4omGgOBuDwYeeAkAHh9sChKsAsIXbA8.7tF3bOAqbFWUB1t1lxiWddr3RxEemF7xjKtadJP5-ro;https://80.img.avito.st/image/1/1.HyrAyra-s8O2ZHHM8vJ9QIxrscVyfbfDchrSyX6pvAF7abE.izJsAB6Ad2A9SWrRbu6UKVNnYdTpk9UyaVqMOdBr4vA</t>
+        </is>
+      </c>
+      <c r="U341" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V341" t="inlineStr"/>
+      <c r="W341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>7706010834</v>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Офис, 18 кв.м</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>25000</v>
+      </c>
+      <c r="E342" t="inlineStr"/>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/ofis_18_kv.m_7706010834?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJMelNmR0t6TG5SMDY4d3FVIjt9o_893T8AAAA</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>Сдам в аренду офисное помещение в центре Октябрьского района на первой линии по адресу: Байкальская, 216А, ориентир — Нижняя Лисиха. Сдаётся Только, Как Офисное Помещение с мебелью. Большой пешеходный и автомобильный трафик. Окно и вход в здание выходят непосредственно на улицу 30-й Дивизии, которая соединяет Байкальскую с Верхней Набережной. Офисное помещение со свежим ремонтом и мебелью. Все, как на фото.
+Ориентиры: Верхняя Набережная, улица Дальневосточная, улица Волжская, ЖК Лазурный.
+Поможем Продать вашу недвижимость по максимальной рыночной цене. При необходимости подбираем альтернативный вариант объекта недвижимости.
+Также осуществляем выкуп недвижимости (квартира, дом, дача, земельный участок) в срок 2-3 дня за наличный расчет. Звоните работаем 7 дней в неделю!</t>
+        </is>
+      </c>
+      <c r="H342" s="1" t="n">
+        <v>46034.51465277778</v>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>i64993117</t>
+        </is>
+      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>Байкальская ул., 216А/3</t>
+        </is>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M342" t="inlineStr"/>
+      <c r="N342" t="inlineStr"/>
+      <c r="O342" t="inlineStr"/>
+      <c r="P342" t="inlineStr"/>
+      <c r="Q342" t="inlineStr"/>
+      <c r="R342" t="inlineStr"/>
+      <c r="S342" t="inlineStr">
+        <is>
+          <t>52.25439453;104.3246765</t>
+        </is>
+      </c>
+      <c r="T342" t="inlineStr">
+        <is>
+          <t>https://60.img.avito.st/image/1/1.qIldiLa-BGArJsZvAe6S9QIpBmbvPwBg71hlauPrC6LmKwY.cd13zZ946HNmwLOooWOdO_y7j7_cudiZRNC4EXRkBL4;https://00.img.avito.st/image/1/1.RfbdOLa-6R-rlisQ22E5hYKZ6xlvj-0fb-iIFWNb5t1mm-s.y4ynJxfVBs6fME1nbNgeY-ZjjiafLmkogSHG7TQ7UIY?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://10.img.avito.st/image/1/1.OSkgdba-lcBW21fPXhV3VX_Ul8aSwpHAkqX0yp4WmgKb1pc.coaex2R-L7EP5c6MFFPpY18T7-3f1-_t9U2akTGIVuQ?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U342" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V342" t="inlineStr"/>
+      <c r="W342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>4486960746</v>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Офисное помещение, 52.6 кв.м</t>
+        </is>
+      </c>
+      <c r="D343" t="n">
+        <v>42080</v>
+      </c>
+      <c r="E343" t="inlineStr"/>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/ofisnoe_pomeschenie_52.6_kv.m_4486960746?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJMelNmR0t6TG5SMDY4d3FVIjt9o_893T8AAAA</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>От Собственника Без Комиссии.
+— Адрес Ширямова 38/8.
+— Этаж 1.
+— Предлагаем Вашему вниманию помещение общей площадью 52,6.
+— 52,6 м2 нужна косметика, предоставим арендные каникулы!
+— мебель есть, но обсуждается отдельно;.
+— На Длительный Срок.
+— Бесплатная парковка, всегда есть где припарковаться;
+— Обеспечительный платёж;
+— Рассмотрим все Ваши предложения!
+Вся Коммерческая Недвижимость От Собственника Без Комиссии.
+Федеральная сеть профессиональных консультантов по коммерческой недвижимости.
+50 городов присутствия в РФ.
+Большая, полная база объектов на нашем сайте.
+Есть Помещение, НО Нет Арендатора/Покупателя?
+Есть Бизнес, НО Нет Помещения?
+Звоните — Решим!_.
+Вся Коммерческая Недвижимость От Собственника Без Комиссии.
+Федеральная сеть профессиональных консультантов по коммерческой недвижимости.
+30 городов присутствия в РФ.
+Есть Помещение, НО Нет Арендатора/Покупателя?
+Есть Бизнес, НО Нет Помещения?
+Звоните — Решим!</t>
+        </is>
+      </c>
+      <c r="H343" s="1" t="n">
+        <v>46055.42119212963</v>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>i6675529</t>
+        </is>
+      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>ул. Ширямова, 38</t>
+        </is>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M343" t="inlineStr"/>
+      <c r="N343" t="inlineStr"/>
+      <c r="O343" t="inlineStr"/>
+      <c r="P343" t="inlineStr"/>
+      <c r="Q343" t="inlineStr"/>
+      <c r="R343" t="inlineStr"/>
+      <c r="S343" t="inlineStr">
+        <is>
+          <t>52.264472;104.347639</t>
+        </is>
+      </c>
+      <c r="T343" t="inlineStr">
+        <is>
+          <t>https://20.img.avito.st/image/1/1.dlJm0ba-2rsQfxi0BswSa3tw2L3UZt671AG7sdiy1Xndctg.2b4sobuotRXhszsIcK2WXHhEH1fPxmtip7Ul5zpXSkM?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://20.img.avito.st/image/1/1.9RxaiLa-WfUsJpv6PKe5YE8pW_PoP1316Fg4_-TrVjfhK1s.zGiquNbsu5TPrxMORXWPixqBhp-78hOhwObLQ43K3XM?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://80.img.avito.st/image/1/1.k0EpE7a-P6hfvf2nAxXePTyyPa6bpDuom8NeopdwMGqSsD0.HT2Uf0bZDVXDR8zbTQRSdBcEWaNMuyAsUvFpGCkGYCM;https://10.img.avito.st/image/1/1.4cIGbra-TStwwI8kSD2dwx_PTy202UkrtL4sIbgNQum9zU8.xv9sOYgziHVhGNdQ1YPoHyM9t41s9FM4hEEjcj2fQb4?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://90.img.avito.st/image/1/1.6rixbba-RlHHw4Re6S7qm73MRFcD2kJRA70nWw8OSZMKzkQ.HyOsPEvQjJtyuIh63_pUWNf5GPLy-Xxpq75Qm54eHUs;https://80.img.avito.st/image/1/1.RHN0g7a-6JoCLSqVcM5iX3gi6pzGNOyaxlOJkMrg51jPIOo.pdCJ86dgtys_fsjdRJ-xM1wdDiY0c18faKDOVlJSRpU;https://70.img.avito.st/image/1/1.qMgsb7a-BCFawcYucBW85CDOBiee2AAhnr9lK5IMC-OXzAY.8XFlJMLvTzESWIFMq9Vw-2H0CpN0SUnnWguEtmIzZjw;https://20.img.avito.st/image/1/1.XAz2Gba-8OWAtzLqwnQ6Neu48uNErvTlRMmR70h6_ydNuvI.K6kYPNfu0lMhFOoVc4-aLdsrNfam0X_6GatwWLzLLGE?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://30.img.avito.st/image/1/1.Ona96La-lp_LRlSQxexYT6BJlJkPX5KfDzj3lQOLmV0GS5Q.NCaVT9AYCjykCalttQQT_SAX15aQIeFWFwWt8YMQQDI?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://00.img.avito.st/image/1/1.Nm-CXra-mob08FiJ4lpwE5f_mIAw6Z6GMI77jDw9lUQ5_Zg.aGRgtPM06254BMJD3KQtO_Q2N6a01QV4grqLHNB9FAA?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://70.img.avito.st/image/1/1.zUlx6ra-YaAHRKOvZ5ntKH1LY6bDXWWgwzoAqs-JbmLKSWM.V_VC8k8h9pWY5OtOqUtQtusMMFm7Og_A8oiELq2w5sw;https://50.img.avito.st/image/1/1.H_h2wra-sxEAbHEeRJY31HpjsRfEdbcRxBLSG8ihvNPNYbE.SeTkuPqiI8d7TI7RZXu20Y10_Zvud7a4VBWb84QSFMk;https://00.img.avito.st/image/1/1.-JR6vLa-VH0MEpZyBpfwt3YdVnvIC1B9yGw1d8TfW7_BH1Y.lQWOajmT--F5TCXzQ_qFyHHSEBP1RjtNentXDbbpqlE?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://60.img.avito.st/image/1/1.vbrf4La-EVOpTtNcqZ6ZzLBBE1VtVxVTbTBwWWGDHpFkQxM.68CqrAwX_imJBBhgmBRLRxA9zWzXvENyx8HwMTrsQ-E</t>
+        </is>
+      </c>
+      <c r="U343" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V343" t="inlineStr"/>
+      <c r="W343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>7791648492</v>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Офис</t>
+        </is>
+      </c>
+      <c r="D344" t="n">
+        <v>48000</v>
+      </c>
+      <c r="E344" t="inlineStr"/>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/ofis_7791648492?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJCTnpnYkZzVzlCQkoyVVQ1Ijt9PsRFqT8AAAA</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>Сдаю в аренду помещение от собственника, без посредников.
+120 кв. М. 4 кабинета, общий холл, санузел.
+Мебель на фото не входит в аренду (это имущество предыдущего арендатора).
+Помещение находится в подвальном этаже жилого дома.
+Над помещением расположены офисы.
+Шумных соседей нет!
+Сделана очень хорошая вентиляция: есть приточные и вытяжные регулируемые клапаны.
+Летом — хорошо даже без кондиционера.
+Зимой — очень тепло за счет труб, которые идут по стенам помещения.
+Дополнительное отопление и обогреватели не требуются даже в минус 40!
+Круглосуточный доступ в помещение!
+Отдельный вход.
+Полы ровные, плитка.
+Подойдет для: интернет-деятельности, WB, Ozon, йога-зал, массаж, кабинет психолога, склад, ремонт бытовой техники, любой офис.
+Точно не подойдет под:
+- общепит или что-то с запахами.
+- танцевальную студию и что-то связанное с громкой музыкой.
+-майнинг (допуск 15квт).
+- магазин разливных напитков.
+Если планируете делать ремонт, легко договоримся на арендные каникулы.
+Звоните в любой день,
+без выходных,
+в любое время с 8:00 до 23:00.
+Коммунальные платежи не входят в арендную плату. Дополнительно 4000р. Оплачиваю сама, вы никакие договоры ни с кем не заключаете.
+Пишите — в любое время, но на сообщения отвечаю не всегда сразу.
+Евгения (я — собственник помещения, отвечу на все вопросы).</t>
+        </is>
+      </c>
+      <c r="H344" s="1" t="n">
+        <v>46053.67649305556</v>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>i75289010</t>
+        </is>
+      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>ул. Декабрьских Событий, 109</t>
+        </is>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M344" t="inlineStr"/>
+      <c r="N344" t="inlineStr"/>
+      <c r="O344" t="inlineStr"/>
+      <c r="P344" t="inlineStr"/>
+      <c r="Q344" t="inlineStr"/>
+      <c r="R344" t="inlineStr"/>
+      <c r="S344" t="inlineStr">
+        <is>
+          <t>52.28128433;104.3149109</t>
+        </is>
+      </c>
+      <c r="T344" t="inlineStr">
+        <is>
+          <t>https://80.img.avito.st/image/1/1.ugwZGra-FuVvtNTqYTSBB1y7FOOrrRLlq8p376d5GSeiuRQ.HmEhhsUhLNH4PIxmUtymHb0dgOInVl-PPDFRSWO5Oxg;https://50.img.avito.st/image/1/1.lucG2ra-Og5wdPgBJsyU00N7OAi0bT4OtApbBLi5Ncy9eTg.6djUXDc_ZI8J1ifyW7kDGMtjKOnXA8Qj0ayz7EcU3Os;https://20.img.avito.st/image/1/1.0nt8ZLa-fpIKyrydVAPQTznFfJTO03qSzrQfmMIHcVDHx3w.dKyFt_0nWD6lCITC3LZIozHgfWmZiKLKHVrWP7foxRw?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://20.img.avito.st/image/1/1.HTHddLa-sdir2nPX6xQgOpjVs95vw7XYb6TQ0mMXvhpm17M.zIP8UPSE8MRXaHkcvBaSomL2nU59iekhi4bJ-0IIFbY?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://50.img.avito.st/image/1/1.2ySVZra-d83jyLXCrwnNEdDHdcsn0XPNJ7YWxysFeA8uxXU.c3VC9fmvvmrusIo9Rfbxb9BQH5hZ0un4ruHpe2XgcNE;https://00.img.avito.st/image/1/1.YWwKK7a-zYV8hQ-KREIOWU-Kz4O4nMmFuPusj7RIwkexiM8.vom1ILQ3Sk6WdSSOwaW0br1YOVBosduEHbtD8aSoqdg?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://60.img.avito.st/image/1/1.NGXrR7a-mIyd6VqDj09PU67mmopZ8JyMWZf5hlUkl05Q5Jo.v4ZIidW605YKNXip-Tu-zj7EvN4uX0NbI_GG_FRT-po;https://50.img.avito.st/image/1/1.NufT2ra-mg6ldFgBs5oy05Z7mAhhbZ4OYQr7BG25lcxoeZg.sIu_wY9yZwnzKt-SwlSuUcXahufU0IxL3jPe5M_qv9o;https://60.img.avito.st/image/1/1.OFVlfba-lLwT01azGRUFXiDclrrXypC81631ttsem37e3pY.Db2WxlaBLS4UJYYUDFkLROQAWwHzVMOE1aGSmBAmNZY</t>
+        </is>
+      </c>
+      <c r="U344" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V344" t="inlineStr"/>
+      <c r="W344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>7855185900</v>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Свободного назначения, 31.1 м²</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
+        <v>25000</v>
+      </c>
+      <c r="E345" t="inlineStr"/>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//bratsk/kommercheskaya_nedvizhimost/svobodnogo_naznacheniya_31.1_m_7855185900?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJCTnpnYkZzVzlCQkoyVVQ1Ijt9PsRFqT8AAAA</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>Коммерческое помещение расположено в жилом доме на первом этаже, зал- 18.5 кв. М, вторая комната — 6 кв. М., коридор 3 кв. М. Крыльцо со стороны двора, доступ в помещение:24/7, есть место для внешней рекламы. Удобные подъездные пути, рядом парковка. Помещение подходит под различные бизнесы: торговля, офис, бьюти услуги, любые учебные курсы. Дом расположен в отличном районе. Стоимость в месяц 25 тысяч+ коммунальные платежи.</t>
+        </is>
+      </c>
+      <c r="H345" s="1" t="n">
+        <v>46042.6527199074</v>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>i34902322</t>
+        </is>
+      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>жилой район Энергетик, ул. Наймушина, 4А</t>
+        </is>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>Братск</t>
+        </is>
+      </c>
+      <c r="M345" t="inlineStr"/>
+      <c r="N345" t="inlineStr"/>
+      <c r="O345" t="inlineStr"/>
+      <c r="P345" t="inlineStr"/>
+      <c r="Q345" t="inlineStr"/>
+      <c r="R345" t="inlineStr"/>
+      <c r="S345" t="inlineStr">
+        <is>
+          <t>56.309479;101.74928</t>
+        </is>
+      </c>
+      <c r="T345" t="inlineStr">
+        <is>
+          <t>https://70.img.avito.st/image/1/1.T4gY8La-42FuXiFuCvkmt1dR4WeqR-dhqiCCa6aT7KOjU-E.-NS1iYGhI-SiQqg2yzG8vXATVLcIagIOtt4UHu_yPG8;https://50.img.avito.st/image/1/1.2jkqgra-dtBcLLTfEqGtAWUjdNaYNXLQmFIX2pTheRKRIXQ.P6ZtepqdJ64z1XejgCRsm_rEJ5S2PuF2I4ZrDF_0e7w;https://90.img.avito.st/image/1/1.FyHllra-u8iTOHnHx9YnHKo3uc5XIb_IV0bawlv1tApeNbk.B1BNXxhm_rMYTwD7jwi8_C2bEKhHPIjGOE-apHAK_YM;https://20.img.avito.st/image/1/1.u26E7ra-F4fyQNWI_ojPU8tPFYE2WROHNj52jTqNGEU_TRU.FoZUXWMgA3X_O-Uy3291c9DPvWlF-D_4vTw0bVult-M?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://10.img.avito.st/image/1/1.6nktqLa-RpBbBoSfdZuIRmIJRJafH0KQn3gnmpPLSVKWC0Q.8Fud0OunDNRNyvZdH_3PuTyHuUu7WJxUzo9qQz6zNlU?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://60.img.avito.st/image/1/1.UBo8xba-_PNKaz78EIhpJ3Nk_vWOcvjzjhWd-YKm8zGHZv4.BZkPJUrcZVzXs9WA71lor6KRd6xzFPkue279lOFAJtA;https://90.img.avito.st/image/1/1.BE13Y7a-qKQBzWqrc3dgcjjCqqLF1KykxbPJrskAp2bMwKo.1Pj-uUXUkQl4vW2Svm4oq2ILINE7ntAmY37bvMfIl0s;https://30.img.avito.st/image/1/1.95_ll7a-W3aTOZl5h6jBoqo2WXBXIF92V0c6fFv0VLReNFk.2ujZArNlGkaU9AIkum77EygRuQFIOiOaP5M8NZEu5b0?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://90.img.avito.st/image/1/1.M32zmba-n5TFN12b2Y1xRPw4nZIBLpuUAUn-ng36kFYIOp0.GLUMv2Tq7_gc69OjO1maYT6iBG8VT7zZZGApblbIaTE;https://60.img.avito.st/image/1/1.snfjIba-Hp6Vj9yRixf_T6yAHJhRlhqeUfF_lF1CEVxYghw.tVT68WSZOEyGBiFt3Ctzdi6C8dN5cWgqW8wxNrLKLhc;https://90.img.avito.st/image/1/1.FKMRq7a-uEpnBXpFNbdjm14KukyjHLxKo3vZQK_It4iqCLo.TvHPTBEhiS9mB1X8DRysz8c0Rs3j1kawsWsXQ1d9Y34;https://60.img.avito.st/image/1/1.zE3j97a-YKSVWaKr9_SBcKxWYqJRQGSkUScBrl2Ub2ZYVGI.ySvAdcjPqerDhbhvkhVW1stTpWv4UdDIRZIDm78YwQY</t>
+        </is>
+      </c>
+      <c r="U345" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V345" t="inlineStr"/>
+      <c r="W345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>7864667905</v>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Офис с ремонтом, 40.25 м²</t>
+        </is>
+      </c>
+      <c r="D346" t="n">
+        <v>60400</v>
+      </c>
+      <c r="E346" t="inlineStr"/>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/ofis_s_remontom_40.25_m_7864667905?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJCTnpnYkZzVzlCQkoyVVQ1Ijt9PsRFqT8AAAA</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>В аренду торговое помещение / офис с Отделкой 40,25 кв. М. На 1 этаже Престижного ЖК Бизнес-класса «Сибиряков».
+- В офисе сделан косметический ремонт, санузел общий со смежным арендатором «Ozon». От него будет установлена перегородка и дверь для изоляции помещения — идеальный вариант заехать в готовое помещение без затрат на ремонт и начать работу.
+- Густонаселённый район (+-25.000 человек в радиусе 500 метров).
+- Напротив объекта будет строиться Самая большая школа в октябрьском районе, Премиум Бизнес-Центр на 15 этажей и Торговый центр в 5 этажей.
+- Торговое соседство: Множество офисов Престижных компаний (Юристы, Адвокаты, Судостроительные компании и т. Д.), а так же: Ozon, Студией массажа «Touch Me», Пиццерией, Цветочным магазином Sweet Roses, В домах слева и напротив: WB, Квартет Вкусов, Кофейня «Птичка», Пекарня от Новой Дачи, Частный детский сад «Космо Кидс», Кафе кондитерская Kade, Зоомагазин, Танцевальная школа, Кухни kit, Салон декоративных штукатурок, дизайна и ремонта; Салон красоты Intalla, а так же множеством других локальных и федеральных бизнесов на стадии согласования.
+- Остановка «ЖК Приморье» в 150 метрах и в 1 минуте езды от Байкальского кольца.
+- Свободная большая парковка со стороны улицы, современное видеонаблюдение и система контроля доступа на территорию ЖК.
+Помещение имеет 1 вход со стороны двора, 1 витражное проветриваемое окно, подходит под Аптеку, зоомагазин, офис компании, или проекты, не конкурирующие с торговыми соседями.
+Другие помещения доступны для просмотра в этом доме: 157,3 кв. М ; 76,94, 98 кв. М.
+Коммунальные платежи оплачиваются отдельно.</t>
+        </is>
+      </c>
+      <c r="H346" s="1" t="n">
+        <v>46043.57736111111</v>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>i374591515</t>
+        </is>
+      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>ул. Юрия Левитанского, 12/1</t>
+        </is>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M346" t="inlineStr"/>
+      <c r="N346" t="inlineStr"/>
+      <c r="O346" t="inlineStr"/>
+      <c r="P346" t="inlineStr"/>
+      <c r="Q346" t="inlineStr"/>
+      <c r="R346" t="inlineStr"/>
+      <c r="S346" t="inlineStr">
+        <is>
+          <t>52.251716;104.335206</t>
+        </is>
+      </c>
+      <c r="T346" t="inlineStr">
+        <is>
+          <t>https://50.img.avito.st/image/1/1.7__is7a-QxaUHYEZsMzI-60SQRBQBEcWUGMiHFzQTNRZEEE.9sbrSqbwLMaLDlSn-87pfNe25vZz241UFm2vspOjp7g;https://90.img.avito.st/image/1/1.wOB8Ira-bAkKjK4GcEmG5DODbg_OlWgJzvINA8JBY8vHgW4.wl-YUVDHnpZOYwwTA_TljVUS8bOaz21mxaQUJ2aGlBw;https://90.img.avito.st/image/1/1.hD8es7a-KNZoHerZGrHCO1ESKtCsBCzWrGNJ3KDQJxSlECo.k0JJmhJoOJmxOzIP1YFo_ya5jQh3Z5PUCR7dUP8WWsM;https://20.img.avito.st/image/1/1.eX5Pc7a-1Zc53ReYMSIDZQDS15H9xNGX_aO0nfEQ2lX00Nc.5HdEdTF0gxKunpqseabXGpS7bzaCSHQxEiR9kJHj8vs?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://40.img.avito.st/image/1/1.ykv10ba-ZqKDf6St7dqMT7pwZKRHZmKiRwEHqEuyaWBOcmQ.Nkcjxn8aCtJJwUZkm8KetdIs8QRxZfcpDOaXMR6owTA;https://90.img.avito.st/image/1/1.Iw73gba-j-eBL03ovYkMCrggjeFFNovnRVHu7UnigCVMIo0.MjP23FWwDBr4ycxgzhv-lWMn8sH-4xn64vXxxEKSK8E;https://60.img.avito.st/image/1/1.rEOlN7a-AKrTmcKl8XXsR-qWAqwXgASqF-dhoBtUD2gelAI.vqbXnHtQjihJCupOxK1cANsb7ZuL-5VpJRtfkBX8Qio;https://00.img.avito.st/image/1/1.Akv2Eba-rqKAv2yt_mlFT7mwrKREpqqiRMHPqEhyoWBNsqw.zcjUxvwBg1INCRoD5V8VBRoiczAmiflyUxSOaIyXiwI?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://60.img.avito.st/image/1/1.dbU9gra-2VxLLBtTW8cZrHIj21qPNd1cj1K4VoPh1p6GIds.G4a3hoxY4PMNIYFLCa8hdzp6zbgF2PtpaAEsIqmFlRY</t>
+        </is>
+      </c>
+      <c r="U346" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V346" t="inlineStr"/>
+      <c r="W346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>7814968221</v>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Офис, 10 м²</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E347" t="inlineStr"/>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/ofis_10_m_7814968221?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJCTnpnYkZzVzlCQkoyVVQ1Ijt9PsRFqT8AAAA</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>Кабинет для психолога в Центре семейной психологии.
+На длительный срок.
+Aкaдeмгopoдок (19 школа). Кабинет полностью обустроен. Чисто, уютно, нa вxодe eсть пpивeтливый администратоp, котoрый соpиентиpуeт вaшиx клиeнтов и подскажет, куда проходить.
+Наши плюсы:
+— Кабинет находится в Центре семейной психологии.
+— Ежедневно работает администратор.
+— Есть зона ожидания клиентов.
+Подойдет для:
+- Психолога.
+- Сексолога.
+- Профессии связанные с психологией.</t>
+        </is>
+      </c>
+      <c r="H347" s="1" t="n">
+        <v>46040.46881944445</v>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>bd93db141cc800f440dcb9d5e26cc636</t>
+        </is>
+      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>ул. Лермонтова, 281/3</t>
+        </is>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M347" t="inlineStr"/>
+      <c r="N347" t="inlineStr"/>
+      <c r="O347" t="inlineStr"/>
+      <c r="P347" t="inlineStr"/>
+      <c r="Q347" t="inlineStr"/>
+      <c r="R347" t="inlineStr"/>
+      <c r="S347" t="inlineStr">
+        <is>
+          <t>52.247096;104.271138</t>
+        </is>
+      </c>
+      <c r="T347" t="inlineStr">
+        <is>
+          <t>https://90.img.avito.st/image/1/1.LNiKGba-gDH8t0I-3nEtlMW4gjc4roQxOMnhOzR6j_MxuoI.rxUOA2RzUi-0_2PeIaTzkXNv5BbCkHfS6DLuU-nhw-4</t>
+        </is>
+      </c>
+      <c r="U347" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V347" t="inlineStr"/>
+      <c r="W347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>7306197054</v>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Офис, 33 м², офис 22,2, офис 42,8</t>
+        </is>
+      </c>
+      <c r="D348" t="n">
+        <v>39600</v>
+      </c>
+      <c r="E348" t="inlineStr"/>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/ofis_33_m_ofis_222_ofis_428_7306197054?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJCTnpnYkZzVzlCQkoyVVQ1Ijt9PsRFqT8AAAA</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>Сдам офисные помещения в центре города в БЦ Ирбис на Дзержинского, 9.
+1. Кабинет находится на 3 этаже 33 кВ. М.-1200 за кВ. М.
+2. Кабинет находится на 3 этаже 22,2 кв. М -1200 за кВ. М.
+3. Кабинет находится на 3 этаже 42,8 кВ. М -1200 за. М.</t>
+        </is>
+      </c>
+      <c r="H348" s="1" t="n">
+        <v>46043.35630787037</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>ул. Дзержинского, 9</t>
+        </is>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M348" t="inlineStr"/>
+      <c r="N348" t="inlineStr"/>
+      <c r="O348" t="inlineStr"/>
+      <c r="P348" t="inlineStr"/>
+      <c r="Q348" t="inlineStr"/>
+      <c r="R348" t="inlineStr"/>
+      <c r="S348" t="inlineStr">
+        <is>
+          <t>52.27923203;104.2871094</t>
+        </is>
+      </c>
+      <c r="T348" t="inlineStr">
+        <is>
+          <t>https://70.img.avito.st/image/1/1.gta2Ora-Lj_AlOwwviCp8sabLDkEjSo_BOpPNQhZIf0NmSw.QSQcwf-Wx2mV4wkZj2xYADHvfh2oh2EZ4LDYvrBF2dw;https://70.img.avito.st/image/1/1.29G23La-dzjAcrU3jO-j9cZ9dT4Ea3M4BAwWMgi_ePoNf3U.IGN0e1DhxbVZb6-iiialYIn88TSH6KlPN3HRydaSqyw;https://60.img.avito.st/image/1/1.kSOPxLa-Pcr5av_FodKKK8tlP8w9cznKPRRcwDGnMgg0Zz8.wJGQRfmYWtmX6PAdGxYqPpeaheC7RMDtgsvSggJRwj0;https://00.img.avito.st/image/1/1.jBfraba-IP6dx-Lx_2OTGK_IIvhZ3iT-WblB9FUKLzxQyiI.eOOVg5L1e3nWrlQAKLKTZJxJ90hG99bKqT-acwFptWk?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://40.img.avito.st/image/1/1.ysa1BLa-Zi_DqqQgrTusz_GlZCkHs2IvB9QHJQtnae0Op2Q.lQ9Uat0r8xvtjJVvNvi6vU8JeiPIgo78pYrChODCLJY;https://60.img.avito.st/image/1/1.FbAjMba-uVlVn3tWBUlgv2eQu1-Rhr1ZkeHYU51StpuYkrs.1xswvvb76kge-3dEBppXjYod3MQFe0e6nmqHjS7U8dI;https://00.img.avito.st/image/1/1.wCs8M7a-bMJKna7NMGy_K3OSbsSOhGjCjuMNyIJQYwCHkG4.4xplFw2phn9OsSklL6-wNeIdSVyHKG7JOOQCEVQsDBg?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://30.img.avito.st/image/1/1.EikXE7a-vsBhvXzPP3ctLFiyvMalpLrApcPfyqlwsQKssLw.3r3njCysbARW82bSzLuwvZmsGa4KDjV5kHfT0KW-Zbk?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://10.img.avito.st/image/1/1.627xS7a-R4eH5YWIqwz2ab7qRYFD_EOHQ5smjU8oSEVK6EU.9nVGTnoehUg7j4m-WAdeEKjA4aU5tpAzbCi-vR0dykg?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://50.img.avito.st/image/1/1.zbt0kra-YVICPKNdYt3ovjszY1TGJWVSxkIAWMrxbpDPMWM.jkiahUGTcrClyCWBDy9TBDXzvjbo4OuTtR3KqbtcmnA;https://40.img.avito.st/image/1/1.57_Lvba-S1a9E4lZidb0uIQcSVB5Ck9WeW0qXHXeRJRwHkk.VUubugEK2fl61ySgzMKTAmpsjwyYmBoCbozusk3VzuE;https://10.img.avito.st/image/1/1.ceYlNra-3Q9TmB8AS39P42qX3wmXgdkPl-a8BZtV0s2eld8.BtCkwWko-BDA2uE5a9Es-vmpVQUQJCy4XNvvPxX1DQw?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://40.img.avito.st/image/1/1.6X66mLa-RZfMNoeY5JPNe_U5R5EIL0GXCEgknQT7SlUBO0c.jM2U1R2T-xG96ElGS-GHXDBSYu9EVRYjkHgA09YLsgE;https://10.img.avito.st/image/1/1.4ko34ba-TqNBT4ysf-bFT3hATKWFVkqjhTEvqYmCQWGMQkw.chN7FlMRj-VEdMnB8ZvegCxz2pgN5ci1_P4xKx4xXrE?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://80.img.avito.st/image/1/1.U9CT67a-_znlRT02udo60NxK_T8hXPs5ITueMy2I8PsoSP0.HbiGG2eK8-3Skn-6jYVTlPVOvuAMtwvZO4i8LzxItNk;https://50.img.avito.st/image/1/1.46iy5ra-T0HESI1O-LnFrf1HTUcAUUtBADYuSwyFQIMJRU0.UbVLjqTLuJf7c0mc9_QI02CwPoWuDUEw3B-eY2u1Xt0;https://70.img.avito.st/image/1/1.j83a97a-IySsWeEryPnxyJVWISJoQCckaCdCLmSULOZhVCE.SOwJAf8YhOH8XKoSwLIGSg5hmrrwzMzc72dawTQAbJI;https://00.img.avito.st/image/1/1.-9ZT4ba-Vz8lT5UwKYqT0xxAVTnhVlM_4TE2Ne2CWP3oQlU.iOLO71ap3N1nNGH0BIGJNGjkbo5eZ40zkik47UwdYJI?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U348" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V348" t="inlineStr"/>
+      <c r="W348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>7958631238</v>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Свободного назначения</t>
+        </is>
+      </c>
+      <c r="D349" t="n">
+        <v>80000</v>
+      </c>
+      <c r="E349" t="inlineStr"/>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutskaya_oblast_homutovo/kommercheskaya_nedvizhimost/svobodnogo_naznacheniya_7958631238?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJCTnpnYkZzVzlCQkoyVVQ1Ijt9PsRFqT8AAAA</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>Предлагаю помещение, расположенное по адресу: с. Хомутово, ул. Колхозная, 192/2.
+Общая площадь 72 кв. М.
+Чистовая отделка.
+Краткие характеристики: отопление теплый пол, на полу керамогранит, потолок армстронг, свой санузел, освещение достостойное, шикарная дорогая входная группа, выполнена под бронзу.
+Удобные подъездные и парковочные пути, а также места.
+Отличное место для ведения бизнеса.
+Все обсуждаемо и вариативно.</t>
+        </is>
+      </c>
+      <c r="H349" s="1" t="n">
+        <v>46047.918125</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>Колхозная ул., 192/2</t>
+        </is>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>Хомутово</t>
+        </is>
+      </c>
+      <c r="M349" t="inlineStr"/>
+      <c r="N349" t="inlineStr"/>
+      <c r="O349" t="inlineStr"/>
+      <c r="P349" t="inlineStr"/>
+      <c r="Q349" t="inlineStr"/>
+      <c r="R349" t="inlineStr"/>
+      <c r="S349" t="inlineStr">
+        <is>
+          <t>52.46504211;104.3563614</t>
+        </is>
+      </c>
+      <c r="T349" t="inlineStr">
+        <is>
+          <t>https://70.img.avito.st/image/1/1.NuXCkra-mgy0PFgDopYi0Y4zmApwJZ4McEL7Bnzxlc55MZg.OQmMM0o4xxuxGobjS_G5_M4S_n8-1l4IcH187eoJGSI;https://50.img.avito.st/image/1/1.Sh5Fs7a-5vczHST4XZpXKgkS5PH3BOL392OH_fvQ6TX-EOQ.saz2_TiPboRGGLcBLeBwKLT3D_BGL-eGrSan6sOP5DI;https://70.img.avito.st/image/1/1.NhYqkba-mv9cP1jwSrU9HWYwmPmYJp7_mEH79ZTylT2RMpg.bS_S94hqADBvcQMnRUSz7yTF6qktVX0q62xjvFT6JjM;https://50.img.avito.st/image/1/1.t45lO7a-G2cTldloB12ehCmaGWHXjB9n1-t6bdtYFKXemBk.P4zuoixmHFzcJKIZAku8oLqTE3iO7i-xPkQ0hxMDfOs;https://30.img.avito.st/image/1/1.6timVra-RjHQ-IQ-_k337Or3RDcU4UIxFIYnOxg1SfMd9UQ.w503tbnnTRp9VvlqqN2lbK2KMMCRJTNY8RKqA-4YAkk?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://60.img.avito.st/image/1/1.Fx_TV7a-u_al-Xn58WsjFJ_2ufBh4L_2YYfa_G00tDRo9Lk.cuAW9Ws0L5HLpCPT-oa-vP90sdfBwHuUY6gmJ8MUWdQ</t>
+        </is>
+      </c>
+      <c r="U349" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V349" t="inlineStr"/>
+      <c r="W349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>7835689550</v>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Свободного назначения, 62.5 м²</t>
+        </is>
+      </c>
+      <c r="D350" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E350" t="inlineStr"/>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//kuytun/kommercheskaya_nedvizhimost/svobodnogo_naznacheniya_62.5_m_7835689550?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJCTnpnYkZzVzlCQkoyVVQ1Ijt9PsRFqT8AAAA</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>Сдам нежилое помещение в аренду.</t>
+        </is>
+      </c>
+      <c r="H350" s="1" t="n">
+        <v>46047.83005787037</v>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>i35612030</t>
+        </is>
+      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>ул. Карла Маркса, 20</t>
+        </is>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>Куйтун</t>
+        </is>
+      </c>
+      <c r="M350" t="inlineStr"/>
+      <c r="N350" t="inlineStr"/>
+      <c r="O350" t="inlineStr"/>
+      <c r="P350" t="inlineStr"/>
+      <c r="Q350" t="inlineStr"/>
+      <c r="R350" t="inlineStr"/>
+      <c r="S350" t="inlineStr">
+        <is>
+          <t>54.34876251;101.5174179</t>
+        </is>
+      </c>
+      <c r="T350" t="inlineStr">
+        <is>
+          <t>https://80.img.avito.st/image/1/1.t3zwWba-G5WG99maknvLYrP4GZNC7h-VQol6n046FFdL-hk.T6HX1tDHzhPoY7kHojjZi2uopyZeTaSAOezmH2NE7jI;https://60.img.avito.st/image/1/1.JfHyaba-iRiEx0sXtDEI3LHIix5A3o0YQLnoEkwKhtpJyos.f5CFOOgHt0J_4dvvgo_UJwlccZyk--IaTqldkCPnQnA;https://30.img.avito.st/image/1/1.Uzkdiba-_9BrJz3fN4gACFwo_davPvvQr1me2qPq8BKmKv0.6lIkcj2uCP2VvUX9-f_kL_pClX32ZR50OyLBH5h_nXw?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://00.img.avito.st/image/1/1.AL49dba-rFdL225YMR1Wj3zUrlGPwqhXj6XNXYMWo5WG1q4.XWGxk5sCO7AClUj__Nz9kts2nhVp2UghzrsC9swnhVU?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U350" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V350" t="inlineStr"/>
+      <c r="W350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>3543807396</v>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Помещение,цоколь, 49.2 м²</t>
+        </is>
+      </c>
+      <c r="D351" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E351" t="inlineStr"/>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//angarsk/kommercheskaya_nedvizhimost/pomeschenietsokol_49.2_m_3543807396?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJCTnpnYkZzVzlCQkoyVVQ1Ijt9PsRFqT8AAAA</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>Сдается помещение площадью 49,2 кв. М.
+Помещение расположено в цоколе жилого дома 93 квартала.
+Ремонт: полы — керамогранит, стены и потолок окрашены.
+Коммуникации: электроэнергия, имеется горячая вода и санузел.
+Первые три месяца арендная плата 15000, далее 20000.</t>
+        </is>
+      </c>
+      <c r="H351" s="1" t="n">
+        <v>46048.38527777778</v>
+      </c>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>i193933146</t>
+        </is>
+      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>93-й квартал, 5</t>
+        </is>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>Ангарск</t>
+        </is>
+      </c>
+      <c r="M351" t="inlineStr"/>
+      <c r="N351" t="inlineStr"/>
+      <c r="O351" t="inlineStr"/>
+      <c r="P351" t="inlineStr"/>
+      <c r="Q351" t="inlineStr"/>
+      <c r="R351" t="inlineStr"/>
+      <c r="S351" t="inlineStr">
+        <is>
+          <t>52.532582;103.895472</t>
+        </is>
+      </c>
+      <c r="T351" t="inlineStr">
+        <is>
+          <t>https://30.img.avito.st/image/1/1.kk7mXLa-PqeQ8vyozl6nFc39PKFU6zqnVIxfrVg_MWVd_zw.dM0PDSY6rhkzuBALbRmDJu6jsAyKzMStsbhKXqfWGps?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://10.img.avito.st/image/1/1.-aEPXba-VUh585dHcV76umv_V0696lFIvY00QrE-Woq0_lc.90GtrRhGvrw2NtDYn1Lqxoo-2_4BDTqAg2eUuXHV8jA?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://70.img.avito.st/image/1/1.9Lp5Uba-WFMP_5pcHVb3oR3zWlXL5lxTy4E5WccyV5HC8lo.NZ9ZyiBMFC7BdKsLJH7e1yb8nYxWocjM8qUhBxvSbs0;https://00.img.avito.st/image/1/1.xhcj0La-av5VfqjxI9PFDEdyaPiRZ27-kQAL9J2zZTyYc2g.Gf9fsz7biXhwhMQs_koc1URElSl_7QZmzVBMyAvB33E?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://30.img.avito.st/image/1/1.stR_BLa-Hj0JqtwyFzqxzxumHDvNsxo9zdR_N8FnEf_Epxw.cTiCObBNNDElMcj7YyIVMdSnC-IJPAF7u_kU1CqEVxU?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://50.img.avito.st/image/1/1.0tR_5La-fj0JSrwyV-PRzxtGfDvNU3o9zTQfN8GHcf_ER3w.pyiGJMZg_9S9IPtyN7TM-ib_-jiMTX7hHpZX4DZd5Pw;https://00.img.avito.st/image/1/1.atR_BLa-xj0JqgQyJzlpzxumxDvNs8I9zdSnN8Fnyf_Ep8Q.mpJUc3_xW9cuBwzg1tNH4vtNTq3aslTKoQv41U_jUUM?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://00.img.avito.st/image/1/1.EHdJhLa-vJ4_Kn6RZagTbC0mvpj7M7ie-1TdlPfns1zyJ74.IHgW0_FmP2TAlt2e0N9GAj8vbOlSHwfc8GpkpaFY6lE?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://80.img.avito.st/image/1/1.uryJara-FlX_xNRa8Wi5p-3IFFM73RJVO7p3XzcJGZcyyRQ.RSrB27TMjppEpRuWYiJeeYvk4CV013LpsEZdmdNIjc4;https://60.img.avito.st/image/1/1.wM6qXLa-bCfc8q4oplvD1c7-biEY62gnGIwNLRQ_Y-UR_24.W9yf8offY-tMNnURkg46O7fuAY-bP8jZIkEGubGkWEA;https://40.img.avito.st/image/1/1.HWkb_7a-sYBtUXOPLf94dARds4apSLWAqS_QiqWcvkKgXLM.W67_mJ01Z51GavhuI6zEopTcMzMOhHaRkkynXBU5Ey8;https://10.img.avito.st/image/1/1.fr4dM7a-0ldrnRBYbTIbowKR0FGvhNZXr-OzXaNQ3ZWmkNA.Ia6L636_MgwgI1q2mEluq8VktuKnVqMZgPG8OQq8AKs?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://20.img.avito.st/image/1/1.b7yWCLa-w1XgpgFaxAkKoYmqwVMkv8dVJNiiXyhrzJctq8E.KhlZaE8urQ8BEnnhEs3_dq51jStxYCJJDFnuyZg7GGI?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://30.img.avito.st/image/1/1.Yu7sGra-zgeatAwIpBsH8_O4zAFercoHXsqvDVJ5wcVXucw.WKaFRNDUD_DQ6naIOVzoVRyJIfhdnVlsrixKNFnyDdg?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U351" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V351" t="inlineStr"/>
+      <c r="W351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>3664587887</v>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Офис, 36.6 м²</t>
+        </is>
+      </c>
+      <c r="D352" t="n">
+        <v>29000</v>
+      </c>
+      <c r="E352" t="inlineStr"/>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/ofis_36.6_m_3664587887?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJCTnpnYkZzVzlCQkoyVVQ1Ijt9PsRFqT8AAAA</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>Сдаем просторный теплый, светлый офис с кондиционером на 3 этаже с парковкой в центре города, отличное месторасположение.</t>
+        </is>
+      </c>
+      <c r="H352" s="1" t="n">
+        <v>46048.34087962963</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>Култукская ул., 13</t>
+        </is>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M352" t="inlineStr"/>
+      <c r="N352" t="inlineStr"/>
+      <c r="O352" t="inlineStr"/>
+      <c r="P352" t="inlineStr"/>
+      <c r="Q352" t="inlineStr"/>
+      <c r="R352" t="inlineStr"/>
+      <c r="S352" t="inlineStr">
+        <is>
+          <t>52.283748;104.322091</t>
+        </is>
+      </c>
+      <c r="T352" t="inlineStr">
+        <is>
+          <t>https://90.img.avito.st/image/1/1.P6D5KLa-k0mPhlFGi2hm3oeJkU9Ln5dJS_jyQ0dLnItCi5E.P0lrB0IoBGgc89_RcgrMUbE5mtyugatyMCaxR74n-_8;https://30.img.avito.st/image/1/1.ITllo7a-jdATDU_fK_N2RxsCj9bXFInQ13Ps2tvAghLeAI8.02_Ga7XD_h3RzOHOQ7Y32n6olK_RFdUbIqaU9qxipHE?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://60.img.avito.st/image/1/1.q19EN7a-B7YymcW5HjHwITqWBbD2gAO29udmvPpUCHT_lAU.dxAZUSRTAlNv8LqQRd11smPidxAvtqUwfr6ZcCUyo6E;https://90.img.avito.st/image/1/1.Mpms-ba-nnDaV1x_xKls59JYnHYeTppwHin_ehKakbIXWpw.YBtxem7_iRyTcqSkWq15Q7vH6dHr2jxpS8SGVGjP4ig;https://00.img.avito.st/image/1/1.y1kcd7a-Z7Bq2aW_BniGJGLWZbauwGOwrqcGuqIUaHKn1GU.wY87fPgQ4wlTLJxDfZvXorN27cIOirRUHmUPaauom-U?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U352" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V352" t="inlineStr"/>
+      <c r="W352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>7656621862</v>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Свободного назначения, 121.5 м²</t>
+        </is>
+      </c>
+      <c r="D353" t="n">
+        <v>73000</v>
+      </c>
+      <c r="E353" t="inlineStr"/>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//angarsk/kommercheskaya_nedvizhimost/svobodnogo_naznacheniya_121.5_m_7656621862?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJCTnpnYkZzVzlCQkoyVVQ1Ijt9PsRFqT8AAAA</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>Приглашаем стать арендатором нежилого помещения в новом здании.
+Адрес: г. Ангарск, мкр 33, стр 21.
+Конструктив:
+материал стен — кирпич.
+Этаж — 2.
+Площадь — 121,5 кв. М.
+Планировка — свободная.
+Инсоляции — 8 оконных проемов.
+Хвс (водоснабжение) — центральное городское.
+Отопление — электрокотёл (тёплый пол).
+Состояние — без отделки.
+Высота потолка: 3,40 м.
+3,20 м до металлических балок.
+Предоставляются арендные каникулы периодом 1 месяц.
+Наиболее вероятное целевое использование:
+общественное питание (кафе, столовая, бар).
+Магазин спортивного питания и специализированного снаряжения, спорт-бар.
+Зал бокса.
+Магазин смешанных товаров.
+Пвз — Wildberries, Ozon, Boxberry и др.
+Пункт службы экспрес-курьерской доставки — Сдэк, Dhl, Ponyexpress, Яндекс Маркет и др.
+Школа танцев.
+Представительство (офис организации).
+Показ помещения осуществляется строго в заранее договоренное время.</t>
+        </is>
+      </c>
+      <c r="H353" s="1" t="n">
+        <v>46048.32127314815</v>
+      </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>i9965899</t>
+        </is>
+      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>33-й мкр-н, 21</t>
+        </is>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>Ангарск</t>
+        </is>
+      </c>
+      <c r="M353" t="inlineStr"/>
+      <c r="N353" t="inlineStr"/>
+      <c r="O353" t="inlineStr"/>
+      <c r="P353" t="inlineStr"/>
+      <c r="Q353" t="inlineStr"/>
+      <c r="R353" t="inlineStr"/>
+      <c r="S353" t="inlineStr">
+        <is>
+          <t>52.51165;103.842615</t>
+        </is>
+      </c>
+      <c r="T353" t="inlineStr">
+        <is>
+          <t>https://70.img.avito.st/image/1/1.BEdpZba-qK4fy2qhbXVcUDbEqqjb0qyu27XJpNcGp2zSxqo.tHBgnLSM4LIjtQa4vc_ZQK0arPq74qCcXUFv7HtlOus;https://80.img.avito.st/image/1/1.NDY8D7a-mN9KoVrQWFNoIWOumtmOuJzfjt_51YJslx2HrJo.t2sh_uTwAR4orxpTEyaq77BqKnTHlrFTq4QyA-4tgl0;https://40.img.avito.st/image/1/1.4_woFba-TxVeu40aYhbj03S0TROaoksVmsUuH5Z2QNeTtk0.qdwuPXRPSurAbTZ6V1IpNQfdlNotm5VC97lZKoHvglI;https://00.img.avito.st/image/1/1.5W5QFra-SYcmuIuIFhnkQQy3S4HioU2H4sYoje51RkXrtUs.ed_dq0xNcSI_ThmbUidaD5PkZvu_wnPSdvyP-GkFy_c?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://70.img.avito.st/image/1/1.F_Tgyra-ux2WZHkSwqJU479ruRtSfb8dUhraF16ptN9babk.BEQw_vu3aMS-0Xh_k3xddGargzySLbIAaiEsjbYdMMs;https://00.img.avito.st/image/1/1.WlpM6ba-9rM6RzS8dKxATxNI9LX-XvKz_jmXufKK-XH3SvQ.N6vEu74kMkfzMr4yWCwUy2u-ms2fvmUWVyuvJOyAq-k?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://20.img.avito.st/image/1/1.KQHjOLa-heiVlkfnvTxwFryZh-5Rj4HoUejk4l1biipYm4c.tfcfsNO8gkmkvdevgINSleQjPjiVJ_i7OibXccdYsgU?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://80.img.avito.st/image/1/1.MXljJba-nZAVi1-fDWU_bTyEn5bRkpmQ0fX8mt1GklLYhp8.uiFFDX4-HRj_F70n-xXlyegYcfhA6VQy-IfqIDHWAgU;https://80.img.avito.st/image/1/1.0W3mdra-fYSQ2L-LyCXTebnXf4JUwXmEVKYcjlgVckZd1X8.ASQ-4ynOrgOFxOtxo9yYe1a0ATuy0o_533MGKjs8TSI;https://00.img.avito.st/image/1/1.8b45aba-XVdPx59YV27qq2bIX1GL3llXi7k8XYcKUpWCyl8.nXLsJyvAThuFBXHthuvFBoV05X6DssVOnfhJTAF3iYY?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://10.img.avito.st/image/1/1.egEF37a-1uhzcRTnfbIjFlp-1O63aNLotw-34ru82Sq-fNQ.4_FNANu9nzlL5nQvsDvIYoUsSGFGVHX94szVYiaIolQ?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://40.img.avito.st/image/1/1.RYGsh7a-6WjaKStnquYGke4m624eMO1oHleIYhLk5qoXJOs.8BVvAd2QJ_ro1Vb_abMMDrhSZiVxBgKxk76FHPDyzCI;https://50.img.avito.st/image/1/1.oxuDwLa-D_L1bs39yZK4DtxhDfQxdwvyMRBu-D2jADA4Yw0.q0iJ1p4eT5wMtSpRc_cl8djcLrYrRNrlwyUMY9jCMUI;https://00.img.avito.st/image/1/1.-VljOLa-VbAVlpe_HXulTjyZV7bRj1Gw0eg0ut1bWnLYm1c.wRTFWVq0cguDZqCp4d70vQ2ahpgWN79zyzuph0C6Qgg?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://10.img.avito.st/image/1/1.zbIQxra-YVtmaKNUBqGMpU9nY12icWVbohYAUa6lbpmrZWM.3giFEJNygejH0dcrV3sXSrrlDihtJ7-9TFoUy0dxiq0?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://60.img.avito.st/image/1/1.vkIdh7a-EqtrKdCkbfX8VEImEK2vMBarr1dzoaPkHWmmJBA.gy00dUhtrqx-E6zLg0mW8g9ppBXtF4XaxX4AFcfom-4</t>
+        </is>
+      </c>
+      <c r="U353" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V353" t="inlineStr"/>
+      <c r="W353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>509030342</v>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Помещение под офис, банк, магазин 16 м2, 97м2, 112</t>
+        </is>
+      </c>
+      <c r="D354" t="n">
+        <v>77600</v>
+      </c>
+      <c r="E354" t="inlineStr"/>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//bratsk/kommercheskaya_nedvizhimost/pomeschenie_pod_ofis_bank_magazin_16_m2_97m2_112_509030342?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJCTnpnYkZzVzlCQkoyVVQ1Ijt9PsRFqT8AAAA</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>Сдам в Аренду кабинеты 16м2, 2 этаж, цена 12800 в месяц, а также помещения 33м2, 40м2. 1 этаж, под офис, вход со двора.
+Помещение 97м2 (подходят под банк, офис, магазин) в г. Братск по ул. Комсомольская, 12, парковка. Видеонаблюдение. Цена 800 руб за м2., Электричество оплачивается отдельно по счетчику для помещения 97м2.</t>
+        </is>
+      </c>
+      <c r="H354" s="1" t="n">
+        <v>46048.31594907407</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>Комсомольская ул., 12</t>
+        </is>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>Братск</t>
+        </is>
+      </c>
+      <c r="M354" t="inlineStr"/>
+      <c r="N354" t="inlineStr"/>
+      <c r="O354" t="inlineStr"/>
+      <c r="P354" t="inlineStr"/>
+      <c r="Q354" t="inlineStr"/>
+      <c r="R354" t="inlineStr"/>
+      <c r="S354" t="inlineStr">
+        <is>
+          <t>56.152129;101.608828</t>
+        </is>
+      </c>
+      <c r="T354" t="inlineStr">
+        <is>
+          <t>https://00.img.avito.st/image/1/1.NZzwr7a-mXWGAVt6ltsloOIOm3NCGJ11Qn_4f07MlrdLDJs.677Ltb-X990VWQXvremuGnyu5biptekTojgHYl-KxNE?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://90.img.avito.st/image/1/1.odFJXra_DTg_8M83B1yVitz9Cz7r-w0-jJ4HMj_wzzf__Q.DlwZrA6YXd-zgBfDGRHROTat4ZyCjy9BllUiOFjsyjM;https://70.img.avito.st/image/1/1.urRJBLa_Fl0_qtRSMQaO79ynEFvroRZbjMQcVz-q1FL_pw.YXZedeyakGXfj7c9mi7lm2cLWZp8-Zb-qZKHVijvwnA;https://10.img.avito.st/image/1/1.ThHDXLa_4vi18iD30116Slb_5P5h-eL-Bpzo8rXyIPd1_w.Pa_UI-qfwmj_qok_gLBh1U89_Hz1CwpBNAwtReyl6cA?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://80.img.avito.st/image/1/1.rBRfdLa_AP0p2sLyC3aYT8rXBvv90QD7mrQK9ynawvLp1w.BxjKVltr8qdIsqOtljUY6ocRpJyl69ijK3M3vfUfK_w;https://80.img.avito.st/image/1/1.Gp-lsra-tnbTHHR5neJHqokTtHAXBbJ2F2LXfBvRubQeEbQ.-rvfv5PbRAr2I1TXaUccPM3LJwj9XoyWTHTSAPAC_mg;https://00.img.avito.st/image/1/1.GG_GwLa-tIawbnaJ-tAPU9RhtoB0d7CGdBDVjHiju0R9Y7Y.AARNkQv7qZ2s14upR9q8YyEuVuHMYDd-JskHdS6w2w4?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://00.img.avito.st/image/1/1.yIv9U7a-ZGKL_aZt4Timt-_yZmRP5GBiT4MFaEMwa6BG8GY.NU4IqfiJC5HRlJnMYgBYAcR8AmgWtAYqnG6Gik8m8_I?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://50.img.avito.st/image/1/1.2pin3ba-dnHRc7R-n5aCrYt8dHcVanJxFQ0Xexm-ebMcfnQ.ke972CJfzztMO-t2ARxZI94L0Xfd555grH0aVy270Dc;https://10.img.avito.st/image/1/1.defDfba-2Q610xsBpURn29Hc2whxyt0Oca24BH0e1sx43ts.FbLtJEF9hzmMphpwXbhIZLnSxoOa1j7H7DKm00bsH2s?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://70.img.avito.st/image/1/1.l_afILa-Ox_pjvkQvSaEyo2BORktlz8fLfBaFSFDNN0kgzk.2cD_u_20J_Xll2Nv2c_IJXjQUP2OwNb011B949jygDM;https://20.img.avito.st/image/1/1.fCiwm7a-0MHGNRLOxI5qFKI60scCLNTBAkuxyw743wMLONI.bQz7s1EiHMnJjgV1MgwJJcumbFhD7pQK_cdt4BNhBjA?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://70.img.avito.st/image/1/1.QfM9S7a-7RpL5S8VM14YxhHq7xyP_Okaj5uMEIMo4tiG6O8.OJLiFFjtbVOAKuyUps1yEDmXwRId2giW9C7nbywLVWk;https://60.img.avito.st/image/1/1._ZXm77a-UXyQQZNzkJDkqe1OU3pUWFV8VD8wdliMXr5dTFM.lfDu1jgtUxAL5cxh7m0UyyOZtLW1RYG6touBcg-BCes;https://60.img.avito.st/image/1/1.sSg2J7a-HcFAid_OWHXuFD2GH8eEkBnBhPd8y4hEEgONhB8.MzPFuS9rxrNnQjGEK_OjTPiME9E15k2Upp8U3Xf2meg;https://50.img.avito.st/image/1/1.Foi_JLa-umHJinhun3xKtLSFuGcNk75hDfTbawFHtaMEh7g._DwJFeVPP8SGy8bZEL97t5-NT4MYvEKNsuipBP7j9gg;https://00.img.avito.st/image/1/1.DkC_1ra-oqnJeGCmr65Ec7R3oK8NYaapDQbDowG1rWsEdaA.31rmPwJcPn7-60zxuXfU4hh-cVp-gNERZ-6d-tL94x4?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://50.img.avito.st/image/1/1.0nzlg7a-fpWTLbyazZycT-4ifJNXNHqVV1Mfn1vgcVdeIHw.QVblhuHsosWCaL4Or-xDfVG7D8i6UmjdH5YV7wqx954;https://50.img.avito.st/image/1/1.hLeTaLa-KF7lxupRl2L1hJjJKlgh3yxeIbhJVC0LJ5woyyo.Lt0h2Tpz1Y4BCQHw5emCTcu8wTM1SgypTqCpNVEZPzA;https://70.img.avito.st/image/1/1.aIpg4ba-xGMWTwZsPNA1tmtAxmXSVsBj0jGlad6Cy6HbQsY.JqgSwnIwZR6rQjKpYnGHjSW-fLVSDm7EYWLmZB9J8t8;https://40.img.avito.st/image/1/1.QeedfLa-7Q7r0i8Bk1EbxvTd7wgvy-kOL6yMBCMf4swm3-8.9Zs7G2-5QxHpVCqe-DjL1zRt0t3E37YqmDBxxyW_yhk</t>
+        </is>
+      </c>
+      <c r="U354" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V354" t="inlineStr"/>
+      <c r="W354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>7780672197</v>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Свободного назначения</t>
+        </is>
+      </c>
+      <c r="D355" t="n">
+        <v>17000</v>
+      </c>
+      <c r="E355" t="inlineStr"/>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//bratsk/kommercheskaya_nedvizhimost/svobodnogo_naznacheniya_7780672197?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJCTnpnYkZzVzlCQkoyVVQ1Ijt9PsRFqT8AAAA</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>Отдельное помещение в мини рынке.
+Имеется мокрая точка.
+Режим работы с 9 до 21.
+Размер 2.65 на 3.80.
+Есть места в торговом зале.</t>
+        </is>
+      </c>
+      <c r="H355" s="1" t="n">
+        <v>46047.92076388889</v>
+      </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>i15048967</t>
+        </is>
+      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>жилой район Энергетик, ул. Наймушина, 40А</t>
+        </is>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>Братск</t>
+        </is>
+      </c>
+      <c r="M355" t="inlineStr"/>
+      <c r="N355" t="inlineStr"/>
+      <c r="O355" t="inlineStr"/>
+      <c r="P355" t="inlineStr"/>
+      <c r="Q355" t="inlineStr"/>
+      <c r="R355" t="inlineStr"/>
+      <c r="S355" t="inlineStr">
+        <is>
+          <t>56.30023956;101.7633438</t>
+        </is>
+      </c>
+      <c r="T355" t="inlineStr">
+        <is>
+          <t>https://60.img.avito.st/image/1/1.o9v4ALa-DzKOrs09sl6IrryhDTRKtwsyStBuOEZjAPBDow0.DOHSQVWEeDuOTRZRhuRg4kAyjOBMDocnxABPXMfs5yA;https://70.img.avito.st/image/1/1.h6Fckba-K0gqP-lHXtOp1BgwKU7uJi9I7kFKQuLyJIrnMik.ly8DXPL57TASdUrt8vx8odB1Y8qMtCFsbc2cEEs7Rz4;https://80.img.avito.st/image/1/1.xsDE1ra-aimyeKgmxMn6toB3aC92YW4pdgYLI3q1Zet_dWg.jeqK-YQBGG_nsT_ROkApvIvJfwI_2_GKZaNWgiHkuUY;https://00.img.avito.st/image/1/1.rwHg7ba-A-iWQ8HnsqeRd6RMAe5SWgfoUj1i4l6ODCpbTgE.ktyUb5293sRbjFgogmETbAntcR9oeMLpDG7uxnWdPZg?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://30.img.avito.st/image/1/1.UUaMK7a-_a_6hT-gohY8M8iK_6k-nPmvPvucpTJI8m03iP8.0BXTKxvIvIuYKxl40Q6mGdhy0aO5TkNo-6aLbciNx-8?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U355" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V355" t="inlineStr"/>
+      <c r="W355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>3484973516</v>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Офис, 15 м²</t>
+        </is>
+      </c>
+      <c r="D356" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E356" t="inlineStr"/>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//cheremhovo/kommercheskaya_nedvizhimost/ofis_15_m_3484973516?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJCTnpnYkZzVzlCQkoyVVQ1Ijt9PsRFqT8AAAA</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>Сдаётся кабинет на 3 этаже ТЦ «Айсберг» подойдёт под любой вид деятельности. Место удобное, проходное. Все коммунальные расходы включены.</t>
+        </is>
+      </c>
+      <c r="H356" s="1" t="n">
+        <v>46047.88802083334</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>Первомайская ул., 172</t>
+        </is>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>Черемхово</t>
+        </is>
+      </c>
+      <c r="M356" t="inlineStr"/>
+      <c r="N356" t="inlineStr"/>
+      <c r="O356" t="inlineStr"/>
+      <c r="P356" t="inlineStr"/>
+      <c r="Q356" t="inlineStr"/>
+      <c r="R356" t="inlineStr"/>
+      <c r="S356" t="inlineStr">
+        <is>
+          <t>53.147325;103.066785</t>
+        </is>
+      </c>
+      <c r="T356" t="inlineStr">
+        <is>
+          <t>https://20.img.avito.st/image/1/1.7eBf2ba-QQkpd4MGCYrwllp7Qw_tbkUJ7QkgA-G6TsvkekM.5Pn7_Ze8s7Ime_DCdsw1--NreBQU0sdGXxvST4rI5Q8?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://30.img.avito.st/image/1/1.feBf2ba-0QkpdxMGKYhgllp70w_tbtUJ7QmwA-G63svketM.Lc8V1jubtST4MKRGcDJukT13cgEV6b6zH79Y3V2FjQw?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://70.img.avito.st/image/1/1.Q-Fae7a-7wgs1S0HUC4Ssxra7Q7ozOsI6KuOAuQY4Mrh2O0.UDx-meepTd8wFRcP58lhJE0T-GJCY0CJG5khFcs3xfQ;https://10.img.avito.st/image/1/1.Ao8Ddra-rmZ12GxpC1Y_z0PXrGCxwapmsabPbL0VoaS41aw.f_r6okRhk-FQYBLuTs8KoCM89IJLJmzNzUrTHh9m79o?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://70.img.avito.st/image/1/1.82FEk7a-X4gyPZ2HLtSYPAQyXY72JFuI9kM-gvrwUEr_MF0.zcWrvjOM5pq12mC382bcvwyoKNQXvt7ANGm4hLlWGsc;https://50.img.avito.st/image/1/1.QUBxLra-7akHgC-mfxdeHDGP76_Dmempw_6Mo89N4mvKje8.YLghg2EGIYhoD9gzxMJr0zf5wJ0XQ707PZdMXH7dHUc;https://80.img.avito.st/image/1/1.3k7h3ra-cqeXcLCo0Z3UHaF_cKFTaXanUw4TrV-9fWVafXA.5pBaqq-0njB371CyEt5peiIpTbgsK8W2UjjGCeLr3Gg</t>
+        </is>
+      </c>
+      <c r="U356" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V356" t="inlineStr"/>
+      <c r="W356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>7795681026</v>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Торговая площадь, 29 м²</t>
+        </is>
+      </c>
+      <c r="D357" t="n">
+        <v>29000</v>
+      </c>
+      <c r="E357" t="inlineStr"/>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//markova/kommercheskaya_nedvizhimost/torgovaya_ploschad_29_m_7795681026?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJCTnpnYkZzVzlCQkoyVVQ1Ijt9PsRFqT8AAAA</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>Торговое помещение на Центральном проезде в РП Маркова на подъезде к поселку «Хрустальный»!
+Первый этаж на 1-й линии — отличная видимость, высокий автомобильный трафик.
+Раскрученное место рядом с супермаркетом «Светофор».
+Преимущества:
+29 м² рядом со входом в торговую галерею — набираем пул арендаторов на новую площадь.
+Высокие потолки 4,2 м.
+Панорамное окно.
+Санузел + возможность организации дополнительной мокрой точки.
+Зона разгрузки со двора со второго входа в помещение.
+Помещение находится в центре Марковского МО на ключевой транспортной артерии, которая соединяет м-он Березовый, Николов посад с крупным жилым массивом в пос Энергетиков и Юбилейном. В непосредственной близости расположен поселок Хрустальный и Мельничный тракт.
+Цена: 29 000 р (1000 ₽/м²) + коммунальные услуги.
+Арендные каникулы, лояльные условия, безналичный расчет.
+Звоните прямо сейчас — организуем просмотр и согласуем комфортные условия аренды!</t>
+        </is>
+      </c>
+      <c r="H357" s="1" t="n">
+        <v>46047.79293981481</v>
+      </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>i3078614</t>
+        </is>
+      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>Светлогорская ул., 1</t>
+        </is>
+      </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>Маркова</t>
+        </is>
+      </c>
+      <c r="M357" t="inlineStr"/>
+      <c r="N357" t="inlineStr"/>
+      <c r="O357" t="inlineStr"/>
+      <c r="P357" t="inlineStr"/>
+      <c r="Q357" t="inlineStr"/>
+      <c r="R357" t="inlineStr"/>
+      <c r="S357" t="inlineStr">
+        <is>
+          <t>52.21800334682539;104.27088141798588</t>
+        </is>
+      </c>
+      <c r="T357" t="inlineStr">
+        <is>
+          <t>https://30.img.avito.st/image/1/1.SUh_hra-5aEJKCeuYc90SCcn56fNMeGhzVaEq8Hl6mPEJec.y89doX4Nvv8Bz3cAF7oovsi6Fc0GP1x8R5SzHxhRzlI?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://40.img.avito.st/image/1/1.1XktP7a-eZBbkbufCySpeHWee5afiH2Qn-8YmpNcdlKWnHs.e3KvLddX5sBzZ9VbRHsER3GfYa8SPholNd0l8RlnEYM;https://00.img.avito.st/image/1/1.cHYFx7a-3J9zaR6QaaYhdV1m3pm3cNiftxe9lbuk012-ZN4.Fq4QuW5irbfDqZI3TX9TGrCNyAzowa1M9YdzORwsIWg?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://30.img.avito.st/image/1/1.N0zrh7a-m6WdKVmqietNTbMmmaNZMJ-lWVf6r1XklGdQJJk.4PCXp8h9SLmZ5_3BcjYp_6Ua2XNpJc6f8xh1YtmaOZg?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://10.img.avito.st/image/1/1.LHzM6ra-gJW6REKamMZlfpRLgpN-XYSVfjrhn3KJj1d3SYI.y_v--Tnrba9NFaOWVvrA-HbGWcKq6bPktQWByb14bIc?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://50.img.avito.st/image/1/1.s6H3Mba-H0iBn91HnVfEoK-QHU5FhhtIReF-QklSEIpMkh0.SNlVtNLDA667GNCO_eGWymD_oJT0L7PQkRenJWlXAyo;https://40.img.avito.st/image/1/1.rKIg-ba-AEtWV8JEdPfnoHhYAk2STgRLkilhQZ6aD4mbWgI.gbYG3Gf4LLwPUKSlm42WFGfATAT8wJyU1-tnoNl1DM4;https://10.img.avito.st/image/1/1.zKJo7ba-YEseQ6JEfPaXoTBMYk3aWmRL2j0BQdaOb4nTTmI.DkN06DJMYrx7U4eTK4hKqHFwEAB1Q9R-_UQkxtrIbw8?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://00.img.avito.st/image/1/1.jH_M6ra-IJa6ROKZ2MTDfZRLIpB-XSSWfjpBnHKJL1R3SSI.oYIPAiuBva7oZ8nO6YODYoDcnqA2W5xfHwbKs21KvkY?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://20.img.avito.st/image/1/1.ijDvi7a-JtmZJeTW94mAPLcqJN9dPCLZXVtH01HoKRtUKCQ.TkyiNEW2wMP3GfbTNkjJlQ9GEsw7rAzcK3dapNrIGYo?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://00.img.avito.st/image/1/1.XXnqV7a-8ZCc-TOf3HpmebL285ZY4PWQWIeQmlQ0_lJR9PM.dvFXDUK4uJb2AJJpk7gejn_OR-ccEt9-V1L-XKbbCi0?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U357" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V357" t="inlineStr"/>
+      <c r="W357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>7903435279</v>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Свободного назначения, 90 м²</t>
+        </is>
+      </c>
+      <c r="D358" t="n">
+        <v>81000</v>
+      </c>
+      <c r="E358" t="inlineStr"/>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/svobodnogo_naznacheniya_90_m_7903435279?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJCTnpnYkZzVzlCQkoyVVQ1Ijt9PsRFqT8AAAA</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>Сдается помещение в цокольном этаже, на полу плитка, стены голые из гипсокартона, есть окно, закрывается жалюзями (электро).
+Подойдет под офис, магазин, склад или для других целей.</t>
+        </is>
+      </c>
+      <c r="H358" s="1" t="n">
+        <v>46047.61663194445</v>
+      </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>i136326498</t>
+        </is>
+      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>Депутатская ул., 63/1</t>
+        </is>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M358" t="inlineStr"/>
+      <c r="N358" t="inlineStr"/>
+      <c r="O358" t="inlineStr"/>
+      <c r="P358" t="inlineStr"/>
+      <c r="Q358" t="inlineStr"/>
+      <c r="R358" t="inlineStr"/>
+      <c r="S358" t="inlineStr">
+        <is>
+          <t>52.266442265950175;104.32703922949909</t>
+        </is>
+      </c>
+      <c r="T358" t="inlineStr">
+        <is>
+          <t>https://60.img.avito.st/image/1/1.tLJFXra-GFsz8NpUIXS08QX_Gl336Rxb9455Ufs9F5n-_Ro.Ri47WQV8EJ2AZTsFG1wR9sxEcaI0tCh9a6vSSYujsEY;https://00.img.avito.st/image/1/1.iOljNba-JAAVm-YPf0-vqCOUJgbRgiAA0eVFCt1WK8LYliY.IY32D1qsH5SzxtpFMF5aL5ETIavj0oedPU_Vo-OKcOg?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://60.img.avito.st/image/1/1.gP78y7a-LBeKZe4Y8J2qiLxqLhFOfCgXThtNHUKoI9VHaC4.NUStKiXZ5Wbb80p8JqQSUiLGwNRczLTJg_eODikwJiQ;https://70.img.avito.st/image/1/1.ht7g-La-KjeWVug44Pq4n6BZKDFSTy43UihLPV6bJfVbWyg.HfOHbu6cVTvmGvHz18qmXr541I_jJHpZpMQA2kV73Uk;https://00.img.avito.st/image/1/1.9n3njra-WpSRIJibh4H9S6cvWJJVOV6UVV47nlntVVZcLVg.mpZbN85ZcP79tEjsggPfkgkfhmYprsjqhCL_BWliels?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U358" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V358" t="inlineStr"/>
+      <c r="W358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>7819917290</v>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Офис (кабинет) 24м2 в центре города. 2-й этаж</t>
+        </is>
+      </c>
+      <c r="D359" t="n">
+        <v>24000</v>
+      </c>
+      <c r="E359" t="inlineStr"/>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/ofis_kabinet_24m2_v_tsentre_goroda._2-y_etazh_7819917290?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJCTnpnYkZzVzlCQkoyVVQ1Ijt9PsRFqT8AAAA</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>Уникальная локация в центре города!
+Офис 24м2, в самой деловой части г. Иркутска (БЦ Зеркальный), рядом Центральный рынок, ТЦ Карамель.
+2-й этаж, возможность подняться без лифта.
+Своя парковка, что не мало важно для центра города, где очень ограничено количество мест для парковки (вы экономите свое время и время клиентов, а также не надо забывать о вашем комфорте и комфорте клиентов).
+Удобные подъездные и пешеходные пути.
+Рядом остановки общественного транспорта: ост. К. Либкнехта, ост. Горная, все в шаговой доступности.
+Выполнен ремонт, следы эксплуатации отсутствуют. Вы будете первым арендатором после ремонта.
+Окна выходят на ул. К. Либкнехта, восточная сторона, летом нежарко.
+Можно использовать под офис, бьюти-кабинет и др. Назначения.
+Коммунальные платежи, содержание оплачиваются арендатором по счетчикам (по фактическому потреблению), счет выставляет управляющая компания.
+Мы готовы рассмотреть для Вас индивидуальные условия (рассрочку по внесению залога, арендные каникулы на переезд и т. П.).
+Будем рады долгосрочному сотрудничеству!</t>
+        </is>
+      </c>
+      <c r="H359" s="1" t="n">
+        <v>46034.46016203704</v>
+      </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>36efce56943718ba211b1d75cd70f91c</t>
+        </is>
+      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>Горная ул., 24</t>
+        </is>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M359" t="inlineStr"/>
+      <c r="N359" t="inlineStr"/>
+      <c r="O359" t="inlineStr"/>
+      <c r="P359" t="inlineStr"/>
+      <c r="Q359" t="inlineStr"/>
+      <c r="R359" t="inlineStr"/>
+      <c r="S359" t="inlineStr">
+        <is>
+          <t>52.28152847;104.305069</t>
+        </is>
+      </c>
+      <c r="T359" t="inlineStr">
+        <is>
+          <t>https://70.img.avito.st/image/1/1.G69whra-t0YGKHVJSsotmTwntUDCMbNGwlbWTM7luITLJbU.rBl-duux_9LXiVgYroPI9xkdNstLpL-qfRvynMH8h2M;https://40.img.avito.st/image/1/1.gjike7a-LtHS1ezerBmJDujaLNcWzCrRFqtP2xoYIRMf2Cw.pP5WzJlVWiRsEkIkUJ3CAUczOrfYsM1NOCbz-uj198Y;https://60.img.avito.st/image/1/1.Vqtxkra--kIHPDhNUds3mz0z-ETDJf5Cw0KbSM_x9YDKMfg.gr-NqIrcTYCoATpaBEQD6ikrb_bO3K8x4Nxpgnot8IY;https://20.img.avito.st/image/1/1.bWLZAra-wYuvrAOEjwdlVJWjw41rtcWLa9KggWdhzkliocM.Ny5SCrF7h1Icr83JiyCsqLYEDj84wBtXU8MEDlYLYkg?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://40.img.avito.st/image/1/1.o_rQi7a-DxOmJc0cmvHAypwqDRViPAsTYltuGW7oANFrKA0.Ng_07993dC3cRJChcfZwhjNCA-rMucKH2JSpA3WgMUU;https://60.img.avito.st/image/1/1.sLvGr7a-HFKwAd5dqvnZi4oOHlR0GBhSdH99WHjME5B9DB4.bbhY1mF7L3hxuIFNxgUVYBjYgSv7H1YMEIZ4gy5IAK4;https://60.img.avito.st/image/1/1.0X6gO7a-fZfWlb-YjljnSOyaf5ESjHmXEuscnR5YclUbmH8.0-mKPUaOOz4P0UGn9G4MuheE86I3I4qSsws4TJYca04;https://00.img.avito.st/image/1/1.gPQ74La-LB1NTu4SN4bPs35BLhuJVygdiTBNF4WDI9-AQy4.jr6xhQyOR4y0vKJE8i6M6-f9sHQLa-oA7gKM3lrJVmo?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://80.img.avito.st/image/1/1.vXhHPLa-EZExktOeMSLFPwKdE5f1ixWR9exwm_lfHlP8nxM.xsrbPIglgRvfBC1yUsq86jttu8_7M1-ZkIHJkN6M5og;https://90.img.avito.st/image/1/1.7QhHp7a-QeExCYPuEYCOTgIGQ-f1EEXh9Xcg6_nETiP8BEM.iUYRzL_JEL3eHA-H0LGMuYbxGHFC6M3izpXmt52h-MY</t>
+        </is>
+      </c>
+      <c r="U359" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V359" t="inlineStr"/>
+      <c r="W359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>7905926386</v>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Офис</t>
+        </is>
+      </c>
+      <c r="D360" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E360" t="inlineStr"/>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//sayansk/kommercheskaya_nedvizhimost/ofis_7905926386?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJCTnpnYkZzVzlCQkoyVVQ1Ijt9PsRFqT8AAAA</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>Свободное помещение.
+1 этаж.
+Отдельный вход.
+Санузел.
+Парковка.</t>
+        </is>
+      </c>
+      <c r="H360" s="1" t="n">
+        <v>46047.38333333333</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>мкр-н Юбилейный, 38</t>
+        </is>
+      </c>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>Саянск</t>
+        </is>
+      </c>
+      <c r="M360" t="inlineStr"/>
+      <c r="N360" t="inlineStr"/>
+      <c r="O360" t="inlineStr"/>
+      <c r="P360" t="inlineStr"/>
+      <c r="Q360" t="inlineStr"/>
+      <c r="R360" t="inlineStr"/>
+      <c r="S360" t="inlineStr">
+        <is>
+          <t>54.107700037050485;102.16435639537698</t>
+        </is>
+      </c>
+      <c r="T360" t="inlineStr">
+        <is>
+          <t>https://70.img.avito.st/image/1/1.v0vspra-E6KaCNGtnrDOP6MHEaReEReiXnZyqFLFHGBXBRE.2tQtWUG7WbHU4-zjDmPsXl5veZw9bjd-WWghgftwci8;https://30.img.avito.st/image/1/1.dF-gm7a-2LbWNRq5xPY_K-862rASLNy2Eku5vB7413QbONo.-ighaBjIRepKl3WjiZ9LLC2vydJgHSjQTEG9TflL4B0?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U360" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V360" t="inlineStr"/>
+      <c r="W360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>7891202158</v>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Офис</t>
+        </is>
+      </c>
+      <c r="D361" t="n">
+        <v>16000</v>
+      </c>
+      <c r="E361" t="inlineStr"/>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//bratsk/kommercheskaya_nedvizhimost/ofis_7891202158?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJCTnpnYkZzVzlCQkoyVVQ1Ijt9PsRFqT8AAAA</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>Сдам кабинет. 15 м2 собственный сан узел. Окно смотрит на проспект. Доступ в здание по индивидуальному ключу. Гости по домофону. Рабочее время с 8 до 22-30. Остальные вопросы по тел.</t>
+        </is>
+      </c>
+      <c r="H361" s="1" t="n">
+        <v>46046.83259259259</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>пр-т Ленина, 7</t>
+        </is>
+      </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>Братск</t>
+        </is>
+      </c>
+      <c r="M361" t="inlineStr"/>
+      <c r="N361" t="inlineStr"/>
+      <c r="O361" t="inlineStr"/>
+      <c r="P361" t="inlineStr"/>
+      <c r="Q361" t="inlineStr"/>
+      <c r="R361" t="inlineStr"/>
+      <c r="S361" t="inlineStr">
+        <is>
+          <t>56.14537048;101.6269455</t>
+        </is>
+      </c>
+      <c r="T361" t="inlineStr">
+        <is>
+          <t>https://20.img.avito.st/image/1/1.JqD7kba-ikmNP0hGu-lT17gwiE9JJo5JSUHrQ0XyhYtAMog.87OXm5F61QukjhETaml_iR3ZCfUTvB-6UaR_DDY_Y14?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://20.img.avito.st/image/1/1.iF1l1La-JLQTeua7ee6ZJCZ1JrLXYyC01wRFvtu3K3bedyY.GyzRyRpoKAIQb8daJchprgEuNNqJOtSH5J32F58b5-Q?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://50.img.avito.st/image/1/1._Jpbl7a-UHMtOZJ8L6z47xg2UnXpIFRz6UcxeeX0X7HgNFI.I1wZ9oyHSN_BGzSAM7RHbQzzQx7r78FxeFT9HQhQTig;https://20.img.avito.st/image/1/1.tYGPaba-GWj5x9tn6Vvr8czIG2493h1oPbl4YjEKFqo0yhs.svumKBThbFZ6KfaA5Uy6-lMHoslBqlN4KHryZsXG1jk?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://40.img.avito.st/image/1/1.YoLlpra-zmuTCAxkracxo6kHzG1XEcprV3avYVvFwaleBcw.6LVBISkgmPHrsKld0u69LPOy3Sd0g6XbOVUzxJHW4cw;https://10.img.avito.st/image/1/1.r4vrm7a-A2KdNcFtub28rac6AWRZLAdiWUtiaFX4DKBQOAE.lCXGy_jL2TsdlwXxYOt2BVxY0g0qAScmyPiNf4f2wRk?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://20.img.avito.st/image/1/1.Wu43YLa-9gdBzjQID0V9z3vB9AGF1_IHhbCXDYkD-cWMw_Q.LhUL-FeLxAj1Xic3_UfDqjkqNyANBM0Q_9G-6gxczdg?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U361" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V361" t="inlineStr"/>
+      <c r="W361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>3501028078</v>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Офис, от 8,9 м²</t>
+        </is>
+      </c>
+      <c r="D362" t="n">
+        <v>19140</v>
+      </c>
+      <c r="E362" t="inlineStr"/>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/ofis_ot_89_m_3501028078?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJCTnpnYkZzVzlCQkoyVVQ1Ijt9PsRFqT8AAAA</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>На тepритории административно-пpоизвoдствeнногo комплекса пo aдpecу: г. Иpкутск, р-н Свeрдловcкий, ул. Гoгoля, д. 53 сдaютcя в аренду:
+Помещения от 8,9 м. Кв. На 3,4 этаже (9-11 фото), а также:
+— помещение площадью 34,8 м. Кв. На 4 этаже — 1 -4 фото.
+— Два Смежных офиcных помещeния на 4 этаже общей площадью 57,1 м. Кв. 5-8 фото.
+Пepвaя линия! Доступ в кабинеты через проходную с 08-00 до 20-00.
+Цена 550 руб. Зa 1 кв. М.
+Коммунальные услуги оплачиваются дополнительно по фактическому расходу.
+Район Свердловского рынка.
+Удобное месторасположение.
+Близкая доступность парковой зоны (Парк инициативной молодежи) — 5 мин.
+Остановка «Роща Звездочка» — 3 мин.
+Гарантийные письма для Ифнс не предоставляем.
+Коридорно-кабинетная планировка.
+Интернет, телефонная связь, охранно-пожарная сигнализация, парковка.
+Дополнительную информацию Вы можете получить, обратившись по указанным контактным данным.</t>
+        </is>
+      </c>
+      <c r="H362" s="1" t="n">
+        <v>46045.75061342592</v>
+      </c>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>i72984239</t>
+        </is>
+      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>ул. Гоголя, 53</t>
+        </is>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M362" t="inlineStr"/>
+      <c r="N362" t="inlineStr"/>
+      <c r="O362" t="inlineStr"/>
+      <c r="P362" t="inlineStr"/>
+      <c r="Q362" t="inlineStr"/>
+      <c r="R362" t="inlineStr"/>
+      <c r="S362" t="inlineStr">
+        <is>
+          <t>52.276486;104.255472</t>
+        </is>
+      </c>
+      <c r="T362" t="inlineStr">
+        <is>
+          <t>https://20.img.avito.st/image/1/1.QvIGXLa-7htw8iwUDk1a5l_97B206-obtIyPEbg_4dm9_-w.ebDamDTFjJy5MdKeowerOBSmYazE-TF-JrxikWjxZaA?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://90.img.avito.st/image/1/1.AbTyELa-rV2Evm9S_GAS-7Sxr1tAp6ldQMDMV0xzop9Js68.sixsccaXQ0UoO3scZxwp_6KXUsSHnMF3_KQ9KNAF7yw;https://80.img.avito.st/image/1/1.WoeGhba-9m7wKzRhvtglz8Ak9Gg0MvJuNFWXZDjm-aw9JvQ.E4TsBWtQFrGewSlWbePFs-Al15Z67IdUERLog-CgBk0;https://40.img.avito.st/image/1/1.e4dsdba-124a2xVhFmwpzirU1WjewtNu3qW2ZNIW2KzX1tU.dcVACfOS6S_Fuv0rGt5SlW5LkZB3FFZI7W5Xa0D6bCQ;https://40.img.avito.st/image/1/1.TTa-ILa-4d_IjiPQqHF3FdaC49kMl-XfDPCA1QBD7h0Fg-M.q84mTq3Vk2G6jj9OeLZJCxTtmzPY3wYY5iU_i6w_jWU;https://70.img.avito.st/image/1/1.X8tB77a-8yI3QTEtc6Jl6ClN8STzWPci8z-SKP-M_OD6TPE.DgvB6Q3xpTVRzRCbUI6VmhH9ipPbklfqxNcMTLxRMoc;https://50.img.avito.st/image/1/1.rKpYO7a-AEMulcJMDHWWiTCZAkXqjARD6uthSeZYD4HjmAI.vjezYLdp5vWEHd88u_k-b9jsXXWYrbLBtiKIG9yJMeQ;https://80.img.avito.st/image/1/1.SAIyvba-5OtEEybkLvByIVof5u2ACuDrgG2F4Yze6ymJHuY.gYnNR85fDW34FOoGoFJbsuKcFqsUSKFM_uQFcbFt4oM;https://10.img.avito.st/image/1/1.0MACd7a-fCl02b4mLmzB7gLWfi-wwHgpsKcdI7wUc-u51H4.4SKQ5OpwyWmUaf686Pqa1HekLnb5c37EPQMSrQVU2Ng?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://10.img.avito.st/image/1/1.Yfye97a-zRXoWQ8a0JpH0p5WzxMsQMkVLCesHyCUwtclVM8.PH8q741wZ6WFl6U5lz7_5faC1IYjYoH3Eltl0QmmMbM?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://20.img.avito.st/image/1/1.AMy0d7a-rCXC2W4quA8H4bTWriMGwKglBqfNLwoUo-cP1K4.e8RlzPJ3-C3JR53CmXzSuN_t3ezj5Fob4VPh4w6mFb0?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U362" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V362" t="inlineStr"/>
+      <c r="W362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>1993433545</v>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Торговая площадь, 35 м²</t>
+        </is>
+      </c>
+      <c r="D363" t="n">
+        <v>40500</v>
+      </c>
+      <c r="E363" t="inlineStr"/>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/torgovaya_ploschad_35_m_1993433545?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJCTnpnYkZzVzlCQkoyVVQ1Ijt9PsRFqT8AAAA</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>На самом оживленном перекрестке, сместом под вывеску, торговый зал 35 м. Кв, в цоколе вход с улицы. Под номером 3. Без окон, вентиляция, мокрые точки. Торг.</t>
+        </is>
+      </c>
+      <c r="H363" s="1" t="n">
+        <v>46046.68690972222</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>Советская ул., 45/3</t>
+        </is>
+      </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M363" t="inlineStr"/>
+      <c r="N363" t="inlineStr"/>
+      <c r="O363" t="inlineStr"/>
+      <c r="P363" t="inlineStr"/>
+      <c r="Q363" t="inlineStr"/>
+      <c r="R363" t="inlineStr"/>
+      <c r="S363" t="inlineStr">
+        <is>
+          <t>52.278167;104.312263</t>
+        </is>
+      </c>
+      <c r="T363" t="inlineStr">
+        <is>
+          <t>https://40.img.avito.st/image/1/1.ARzLYra-rfW9zG_6xVoRBpHDr_N51an1ebLM_3UBojdwwa8.dXs9LbdzxoQBKk70rLaElDqlQu1nnebKmg204wUzvlg;https://50.img.avito.st/image/1/1.zLGJYba_YFj_z6JXnXbU_VHCZl4rxGBeTKFqUv_Polc_wg.iB9gwgtYiT_dWvh8O3wDcbi-l2j-nis3Nqzu5ohIXTo;https://70.img.avito.st/image/1/1.HhjGILa-svGwjnD-9jRiA5yBsPd0l7bxdPDT-3hDvTN9g7A.IhEddxhh4EKpkO0SXtgGCrUOcL6l51SbfNdKjcco-70;https://80.img.avito.st/image/1/1.A2ilAba-r4HTr22OryEgDa2grYcXtquBF9HOixtioEMeoq0.R0H8ERSwiqHXPxrhoc1llc77jH_x5dk87eIs-M2VRGE</t>
+        </is>
+      </c>
+      <c r="U363" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V363" t="inlineStr"/>
+      <c r="W363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>7635230098</v>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Свободного назначения</t>
+        </is>
+      </c>
+      <c r="D364" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E364" t="inlineStr"/>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/svobodnogo_naznacheniya_7635230098?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJCTnpnYkZzVzlCQkoyVVQ1Ijt9PsRFqT8AAAA</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>Сдаётся помещение. Помещение находится на территории Баного комплекса. Есть отдельный сан узел интернет телевидение. Большая бесплатная парковка. Доступ в любое время. Отдельный вход.</t>
+        </is>
+      </c>
+      <c r="H364" s="1" t="n">
+        <v>46046.373125</v>
+      </c>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>i213192630</t>
+        </is>
+      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>Ключевая ул., 27</t>
+        </is>
+      </c>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M364" t="inlineStr"/>
+      <c r="N364" t="inlineStr"/>
+      <c r="O364" t="inlineStr"/>
+      <c r="P364" t="inlineStr"/>
+      <c r="Q364" t="inlineStr"/>
+      <c r="R364" t="inlineStr"/>
+      <c r="S364" t="inlineStr">
+        <is>
+          <t>52.33906174;104.1617661</t>
+        </is>
+      </c>
+      <c r="T364" t="inlineStr">
+        <is>
+          <t>https://20.img.avito.st/image/1/1.I0ONOra-j6r7lE2lx1oies-bjaw_jYuqP-ruoDNZgGg2mY0.otMS9rwSLJW6G5yYadGEulFi0EekVMBhpOwcLnSJB7A?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://30.img.avito.st/image/1/1.TFfFTLa-4L6z4iKx0WlTTZDt4rh3--S-d5yBtHsv73x-7-I.MW-Ioqj_13PFh6FijflM1EyhHmX13EHEB3uXgTt3CfI?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://60.img.avito.st/image/1/1.dx-5TLa-2_bP4hn520UvG-zt2fAL-9_2C5y6_Acv1DQC79k.O94dtL0HntmysTBUl2MFyDGjdiFXNC-Y7jJhh04nPFA;https://80.img.avito.st/image/1/1.NzItVLa-m9tb-lnUTzQ2KHj1md2f45_bn4T60ZM3lBmW95k.4xi1zPqxCajbeeTAOWuTUBO1C84DnklSp81z0Ubj23k;https://00.img.avito.st/image/1/1.8RZOcLa-Xf843p_wIDubDRvRX_n8x1n__KA89fATUj31018.hJNcIye1TftF-bPdQsngNk0O6LQK9YUt4damJ-wMGZ8?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://00.img.avito.st/image/1/1.kSPLVLa-Pcq9-v_F5UKKOZ71P8x54znKeYRcwHU3Mghw9z8._AZBFsqfHoDn1ZcVmQvVGhufzTgkHBaH_BFjgncAQVc?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://20.img.avito.st/image/1/1.IFU3JLa-jLxBik6zewh3UWKFjrqFk4i8hfTttolHg36Mh44.el4YOjMndjLgWwUu2nQ3SvKglpdL4wUwjQ8O1xSfbKQ?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://90.img.avito.st/image/1/1.ylRYPLa-Zr0ukqSyQE_aTw2dZLvqi2K96uwHt-ZfaX_jn2Q.TiZSxvgYer92CUeFinnQC6-Umha_lgo65XUqlucgBP4;https://00.img.avito.st/image/1/1.TWQ5fLa-4Y1P0iOCL20lf2zd44uLy-WNi6yAh4cf7k-C3-M.U32sfMZ56ir7YKcAe3wE-HezlniCnfDA9iJvHRFz3t4?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U364" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V364" t="inlineStr"/>
+      <c r="W364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>7827668828</v>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Свободного назначения</t>
+        </is>
+      </c>
+      <c r="D365" t="n">
+        <v>75000</v>
+      </c>
+      <c r="E365" t="inlineStr"/>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//angarsk/kommercheskaya_nedvizhimost/svobodnogo_naznacheniya_7827668828?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJCTnpnYkZzVzlCQkoyVVQ1Ijt9PsRFqT8AAAA</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>Сдаётся нежилое помещение 150м2 по улице Карла Маркса в центре города рядом с администрацией города.
+Имеется два входа, один с улицы, второй со двора. На полу плитка керамогранит. Свободная планировка.
+Можно использовать под офис, магазин, пункт выдачи.</t>
+        </is>
+      </c>
+      <c r="H365" s="1" t="n">
+        <v>46045.86126157407</v>
+      </c>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>i85653814</t>
+        </is>
+      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>59-й квартал, 2</t>
+        </is>
+      </c>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>Ангарск</t>
+        </is>
+      </c>
+      <c r="M365" t="inlineStr"/>
+      <c r="N365" t="inlineStr"/>
+      <c r="O365" t="inlineStr"/>
+      <c r="P365" t="inlineStr"/>
+      <c r="Q365" t="inlineStr"/>
+      <c r="R365" t="inlineStr"/>
+      <c r="S365" t="inlineStr">
+        <is>
+          <t>52.545818622443335;103.88763040095924</t>
+        </is>
+      </c>
+      <c r="T365" t="inlineStr">
+        <is>
+          <t>https://10.img.avito.st/image/1/1.IPP3Kra-jBqBhE4Vu252x7GLjhxFnYgaRfrtEElJg9hMiY4.vUo-gtLb9H1CD5P5fQ8ASWJXZ4GYi6Aj0IO-L5aYpmo?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://10.img.avito.st/image/1/1.k136_ba-P7SMU_270OPZVrxcPbJISju0SC1evkSeMHZBXj0.Duo5vByuij9jy9yjPvD_W4T9qTgvFU4DYDB3YdiWU6Y?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://60.img.avito.st/image/1/1.R410sra-62QCHClrdqtluTIT6WLGBe9kxmKKbsrR5KbPEek.sWfe-SBg_ug65i18WuXpEYE9iCJohuBagmEl0ZyXGGc;https://80.img.avito.st/image/1/1.6HP00La-RJqCfoaVqL_BR7JxRpxGZ0CaRgAlkEqzS1hPc0Y.Juv2mbEh8okohssZOcVujM75P3ZZviovmrzwzQCCbVw;https://40.img.avito.st/image/1/1.N_qCYba-mxP0z1kc4F0UzsTAmRUw1p8TMLH6GTwClNE5wpk.nSLxJ_nzidt-HwfBlF8Qk_wHdQrcD1QWdnFlHa5b6KE;https://70.img.avito.st/image/1/1.Kyuag7a-h8LsLUXNwNN8H9wihcQoNIPCKFPmyCTgiAAhIIU.6UgsGnZvv9ShI6Ch9CLeAzl3Q1K6-LNmJfVGfVxtaL4;https://00.img.avito.st/image/1/1.rfwW-La-ARVgVsMaQILq91BZAxOkTwUVpChgH6ibDtetWwM.rztvFCjx0XwtjN0TT1B04KMz2f04SPuSEy1tubPRUzo?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://00.img.avito.st/image/1/1.pu3kwra-CgSSbMgLpNzz2aJjCAJWdQ4EVhJrDlqhBcZfYQg.iCqcFlz0owsh9qbzn2VqKuhxjtMqcK7hsWsdiJZyYqc?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://70.img.avito.st/image/1/1.YmDAs7a-zom2HQyGiLpAVIYSzI9yBMqJcmOvg37QwUt7EMw.Eyz4ZYolBk8yPXIEhRDNnDexOF8ehfbDgvwnOfY1Hnc;https://10.img.avito.st/image/1/1.kIcuHra-PG5YsP5hAgDajGi_PmicqThunM5dZJB9M6yVvT4.guLr1EacOHPm7HYu8iOgy9wianTZllz7YkbZEc23cMA?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://00.img.avito.st/image/1/1.BfzlaLa-qRWTxmsa41gx9qPJqxNX360VV7jIH1sLptdey6s.uxAlBaSwaWLK-G3lPtLjOFTInUOp6jS18fQn6e69kvA?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://40.img.avito.st/image/1/1.QdrMuLa-7TO6Fi88wrUH0YoZ7zV-D-kzfmiMOXLb4vF3G-8.shMv-JY2fomiVnFVHwTPY8ZsdzqqPf8mGY1_Ae9sG2Q;https://90.img.avito.st/image/1/1.7Co9dra-QMNL2ILMaWGgIXvXQsWPwUTDj6YhyYMVTwGG1UI._d94kDNlCbZCXvyZtu6eye_w-8Vg4sljqFEsWIm-itA</t>
+        </is>
+      </c>
+      <c r="U365" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V365" t="inlineStr"/>
+      <c r="W365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>7572949200</v>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Свободного назначения, 89.7 м²</t>
+        </is>
+      </c>
+      <c r="D366" t="n">
+        <v>60000</v>
+      </c>
+      <c r="E366" t="inlineStr"/>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//angarsk/kommercheskaya_nedvizhimost/svobodnogo_naznacheniya_89.7_m_7572949200?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJCTnpnYkZzVzlCQkoyVVQ1Ijt9PsRFqT8AAAA</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>Сдается помещение общей площадью 89,7 кв. М. По улице Алешина на первой линии с отдельным входом. Находится на первом этаже многоэтажного ЖК «Победа ». Рядом со зданием есть парковка. Помещение готово к эксплуатации, есть санузел. Арендная плата 60000 рублей в месяц плюс коммунальные платежи.</t>
+        </is>
+      </c>
+      <c r="H366" s="1" t="n">
+        <v>46045.78254629629</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>31-й мкр-н, 1</t>
+        </is>
+      </c>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>Ангарск</t>
+        </is>
+      </c>
+      <c r="M366" t="inlineStr"/>
+      <c r="N366" t="inlineStr"/>
+      <c r="O366" t="inlineStr"/>
+      <c r="P366" t="inlineStr"/>
+      <c r="Q366" t="inlineStr"/>
+      <c r="R366" t="inlineStr"/>
+      <c r="S366" t="inlineStr">
+        <is>
+          <t>52.523312;103.847052</t>
+        </is>
+      </c>
+      <c r="T366" t="inlineStr">
+        <is>
+          <t>https://50.img.avito.st/image/1/1.J8fIoba-iy6-D0khiq1Ik6UAiSh6Fo8uenHqJHbChOxzAok.e3WugEuS5riE9usg_S9jr2zyev3EHc5HH0_zrukbo-M;https://20.img.avito.st/image/1/1.v73Ii7a-E1S-JdFbuvH56KUqEVJ6PBdUeltyXnboHJZzKBE.7ALzP5fzxVcoKDP0eumZ7VXyL9lJ8pTTcrGfvUXVnJU?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://20.img.avito.st/image/1/1.n5Wdh7a-M3zrKfFzr5nUwPAmMXovMDd8L1dSdiPkPL4mJDE.rYV2DYMuoxifA7PdJftk0H0FH1fw26H60n_gP5heryw?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://40.img.avito.st/image/1/1.k0GxQba-P6jH7_2nm1feFNzgPa4D9juoA5Feog8iMGoK4j0.UVfacuzMJP-5jxuzf8r3zVcG-ZXjW5kBMfnhvLX35PE;https://40.img.avito.st/image/1/1.wisVUba-bsJj_6zNHS7FfXjwbMSn5mrCp4EPyKsyYQCu8mw.GgNYpzZaLIJSMGUIwDzQjcO0Yg7nARZX2UawXGzqVCY;https://70.img.avito.st/image/1/1.aWLsvLa-xYuaEgeEsrkbN4Edx41eC8GLXmykgVLfyklXH8c.iLIJ4PNb-kF_TalzXG7FqvPFnwMp94SUiBIu5bIyKeU;https://50.img.avito.st/image/1/1.1Bezr7a-eP7FAbrxl_S5Q94OevgBGHz-AX8Z9A3MdzwIDHo.-LQm_8oKU4-qLQkVX3tdwnvWpwz0lYXlFOq-UaoRgLc</t>
+        </is>
+      </c>
+      <c r="U366" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V366" t="inlineStr"/>
+      <c r="W366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>3619392128</v>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Офис, 16-63 м²</t>
+        </is>
+      </c>
+      <c r="D367" t="n">
+        <v>10533</v>
+      </c>
+      <c r="E367" t="inlineStr"/>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//zheleznogorsk-ilimskiy/kommercheskaya_nedvizhimost/ofis_16-63_m_3619392128?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJCTnpnYkZzVzlCQkoyVVQ1Ijt9PsRFqT8AAAA</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>Cдаютcя oфисные помeщения в администрaтивном здaнии на ул. Янгeля, д. 6.
+B нaличии cледующие пoмeщeния:
+1 этaж:
+- 9 кв. М (oкнo в кoридор).
+- 44 кв. М (в дaнный момeнт бeз paдиаторoв oтoплeния и ocветитeльных пpибоpов).
+5 этaж:
+- 16,1 кв. М.
+- 63,9 кв. М.
+- 16,4 кв. М.
+C/у на этaже.
+Apeнднaя плата включaет Ндc и коммунaльныe платежи.
+Готовы ответить на ваши вопросы по будним дням с 14 до 23 часов.</t>
+        </is>
+      </c>
+      <c r="H367" s="1" t="n">
+        <v>46045.59881944444</v>
+      </c>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>i365691077</t>
+        </is>
+      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>ул. Янгеля, 6</t>
+        </is>
+      </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>Железногорск-Илимский</t>
+        </is>
+      </c>
+      <c r="M367" t="inlineStr"/>
+      <c r="N367" t="inlineStr"/>
+      <c r="O367" t="inlineStr"/>
+      <c r="P367" t="inlineStr"/>
+      <c r="Q367" t="inlineStr"/>
+      <c r="R367" t="inlineStr"/>
+      <c r="S367" t="inlineStr">
+        <is>
+          <t>56.590038;104.116996</t>
+        </is>
+      </c>
+      <c r="T367" t="inlineStr">
+        <is>
+          <t>https://60.img.avito.st/image/1/1.4NcVcra-TD5j3I4xWRmTvBfQTjinxUg-p6ItNKsRQ_yu0U4.7C702eEkOX_ZUye3oHnJgWu-eZLNunX0MNWeRQrj0ZA;https://00.img.avito.st/image/1/1.62Mo8ra-R4peXIWFcpWYCCpQRYyaRUOKmiImgJaRSEiTUUU.XESbo4UULs_9vUQDTZ_sKl067JuzP7k__nRrb63c9HI?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://30.img.avito.st/image/1/1.k7p-Pba-P1MIk_1cVFPg0XyfPVXMijtTzO1eWcBeMJHFnj0.huT9CP3FsONDX96AGscJQRinkgnE8IozJB-mIUor6qk?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://80.img.avito.st/image/1/1.5cwhsba-SSVXH4sqZ-6VpyMTSyOTBk0lk2EoL5_SRueaEks.wLtkF3Gc-3jlAHy-xfaIt-UybontRajDgEtBGNPqfkA;https://20.img.avito.st/image/1/1.yNcVcra-ZD5j3KYxCRm7vBfQZjinxWA-p6IFNKsRa_yu0WY.RkoSD9iVTWmAuIjwfkMnCm8oGKVxM_Y3r13EAJZ0oj0?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://40.img.avito.st/image/1/1.UsNC7La-_io0QjwlaoUhqEBO_CzwW_oq8DyfIPyP8ej5T_w.6gLh_YeXrDe5D0dVs3GMyi2m6Jih_KCC6CL3vFP5Gz0;https://90.img.avito.st/image/1/1.sqSeB7a-Hk3oqdxC9nnBz5ylHEsssBpNLNd_RyBkEY8lpBw.X9h7hi_Ic-U-6lN27Kd8RIM927GLkl7k45_mHxbuAVg;https://80.img.avito.st/image/1/1._3sNnra-U5J7MJGdf73aM1Q_UZS_KVeSv04ymLP9XFC2PVE.XcH5UluNyp1zblGz3HLzMcsEWVHnWPWO9RlxxvijbFQ;https://80.img.avito.st/image/1/1.0EQaBLa-fK1sqr6iNhvCC0Olfquos3itqNQdp6Rnc2-hp34.0Uexvy6s7xE2TxfMwPkr9IqiYrMxJPx6bR-YaDoUSms;https://30.img.avito.st/image/1/1.wTR5_La-bd0PUq_Sd9fbeyBdb9vLS2ndyywM18efYh_CX28.omuQMejMuWSwQTlAG__M5cFwJQG11Boib7-yOVzgQQs?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://20.img.avito.st/image/1/1.TC842ba-4MZOdyLJLIAiYGF44sCKbuTGigmBzIa67wSDeuI.gReNOubj-QZiB_cCJO2bbJXujjspqOqfLQ5W1gMOwrU?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://60.img.avito.st/image/1/1.Nw6gKra-m-fWhFnowlJEZaKImeESnZ_nEvr67R5JlCUbiZk.UworXn9uBS7jlEwzlT4x07yVAshWatcegLb5CeZsH9Q;https://70.img.avito.st/image/1/1.lX_MhLa-OZa6KvuZ6u7mFM4mO5B-Mz2WflRYnHLnNlR3Jzs.qkTU9wlcA6xot1ECaL8I1T8QrxjQsvVO76-dTNoOBlQ;https://70.img.avito.st/image/1/1.gcnP5ra-LSC5SO8vwZjyos1ELyZ9USkgfTZMKnGFIuJ0RS8.aaPzO3ZieiW4zaDfAIZfX1bBF3iW9Ze2bOGoAXutsBI;https://00.img.avito.st/image/1/1.YJJRFLa-zHsnug50HV1o2wi1zn3jo8h748Stce93w7nqt84.BGYbxRHum-LBvFU8s1MWIBIJFLKleeiKhUu9jUvO5Eg?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://20.img.avito.st/image/1/1.KA7oOra-hOeelEbotDpzDK2bhuFajYDnWurl7VZZiyVTmYY.-V-jo0QFrvmRVpMqzP-2UYcUEU6yPqkW4uMMB-gYlbs?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://50.img.avito.st/image/1/1.PJF2sba-kHgAH1J3AvVb3i8Qkn7EBpR4xGHxcsjSn7rNEpI.CpJc1YKka-hNf3soh5Zf-WvLY5WaVhJ-xSc55oJKqkA;https://40.img.avito.st/image/1/1.3gy7P7a-cuXNkbDqi3TecZCecOMJiHblCe8T7wVcfScAnHA.bIz77C2Nt8XzVr2I2FrHjdQUqiGXIsWBKl8ZCL8CXAI;https://00.img.avito.st/image/1/1.FQ8ufLa-ueZY0nvpCFgtGnbdu-Ccy73mnKzY7JAftiSV37s.RuVAokXwFym_Qzmsg63Mt-nT4BO086E_sUbV_Y5Q3iA?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://90.img.avito.st/image/1/1.j31Fnra-I5QzMOGbV6yzNRw_IZL3KSeU905Cnvv9LFb-PSE.d-i8pXbCfyaML4a9EchS1sJLeZPhcGGDytwJuZOl-ME</t>
+        </is>
+      </c>
+      <c r="U367" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V367" t="inlineStr"/>
+      <c r="W367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>7867441232</v>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Свободного назначения</t>
+        </is>
+      </c>
+      <c r="D368" t="n">
+        <v>80000</v>
+      </c>
+      <c r="E368" t="inlineStr"/>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/svobodnogo_naznacheniya_7867441232?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJCTnpnYkZzVzlCQkoyVVQ1Ijt9PsRFqT8AAAA</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>Сдам часть нежилого помещения в аренду — около 70 м2 (на схеме выделена зеленым цветом), часть помещения занимает Ozon (на схеме выделена синим цветом).
+Помещение с отдельным входом, расположено на первой линии ул. Красного Восстания. Очень светлое с высокими потолками 3,5м и большими окнами (установлены защитные жалюзи).
+Подойдет под магазин, аптеку, Пвз.
+Коммуникации:
+Централизованное отопление, водоснабжение (горячая/холодная вода) и канализация входит в стоимость аренды. Санузел общий на двух арендаторов.
+Установлена пожарная и охранная сигнализация, входит в стоимость аренды (группа быстрого реагирования оплачивается отдельно при необходимости);
+Интернет-провайдер Ростелеком оплачивается отдельно при необходимости;
+Эл. Мощность ограничена — 8 квт (оплачивается по счетчикам);
+Установлен кондиционер.
+Место положения:
+Помещение расположено на середине пути между двумя туристическими локациями: 130 кварталом и Верхней набережной, что позволит привлечь прохожих и гостей города в летнее и осеннее время (в 5ти минутах ходьбы).
+В непосредственной близости находится Медицинский университет, принимающий около 5-6 тыс. Человек (студентов и аспирантов, преподавателей).
+Через дорогу находится офисное здание с автошколой и стоматологией.
+В переулке Сударева находится психоневрологический диспансер, который посещает сотни человек в день для получения справок (водители), а также в шаговой доступности расположено множество частных клиник.
+На Бульваре Гагарина в 5-х минутах ходьбы расположено офисное здание «Сервико» и административное здание.
+Рядом расположены стадион труд и драматический театр.</t>
+        </is>
+      </c>
+      <c r="H368" s="1" t="n">
+        <v>46045.48304398148</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>ул. Красного Восстания, 6А</t>
+        </is>
+      </c>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M368" t="inlineStr"/>
+      <c r="N368" t="inlineStr"/>
+      <c r="O368" t="inlineStr"/>
+      <c r="P368" t="inlineStr"/>
+      <c r="Q368" t="inlineStr"/>
+      <c r="R368" t="inlineStr"/>
+      <c r="S368" t="inlineStr">
+        <is>
+          <t>52.27494224121599;104.28405475626845</t>
+        </is>
+      </c>
+      <c r="T368" t="inlineStr">
+        <is>
+          <t>https://80.img.avito.st/image/1/1.D6XaJra-o0ysiGFDyG595ZaHoUpokadMaPbCRmRFrI5hhaE.d8kaXCvxYb73zXoWlhMeDO3vK43PkSnNEg_WK18m6n4;https://40.img.avito.st/image/1/1.LRD3ELa-gfmBvkP2oWQxU7uxg_9Fp4X5RcDg80lzjjtMs4M.wROl-m3Hml2XXoeTLzVCjAllbYbpQNU3J5BSR45s-AA;https://00.img.avito.st/image/1/1.QqjTEra-7kGlvCxO2xd96Z-z7EdhpepBYcKPS21x4YNosew.XEz0nVs4Tf6bZBev2g_CKD-U0omdo3z4DGCivMEpmYE?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://70.img.avito.st/image/1/1.j1sez7a-I7JoYeG9DMmqGlJuIbSseCeyrB9CuKCsLHClbCE.ZgVLCbZPwnXsjLwFDBdgiwZGgASSq6FKnyKQNLSZLp8;https://00.img.avito.st/image/1/1.bDKjG7a-wNvVtQLU93Ygcu-6wt0RrMTbEcuh0R14zxkYuMI.o_VI0PL1YHfiVCtxv7GOtJEtnfx83qq2Fz2ALcAdh64?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://60.img.avito.st/image/1/1.ayDRxba-x8mnawXGi_xVYZ1kxc9jcsPJYxWmw2-myAtqZsU.uiZb0N7dNAT5RXs2x6WfImL7dxq883-MNA4C48w9Yyo;https://90.img.avito.st/image/1/1.g-19sba-LwQLH-0Ld6egrDEQLQLPBisEz2FODsPSIMbGEi0.5CheDKS-9dhK75XAZScIFVnECVGLXDOza7P55sf_5y0;https://40.img.avito.st/image/1/1.7vGA-7a-Qhj2VYAX0MTJsMxaQB4yTEYYMisjEj6YTdo7WEA.7VGkp6XnsVXKcCXd5t2DP8UkY8VP4TgCBT6hNoTfrZg;https://10.img.avito.st/image/1/1.cHDarra-3JmsAB6Wtrt6MpYP3p9oGdiZaH69k2TN01thDd4.gsDb4jgS2nYmBTWzwIUE4iA0zuZrHWqwkftHGT7ghcI?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://40.img.avito.st/image/1/1.4crDuLa-TSO1Fo8sjceRio8ZTyVxD0kjcWgsKX3bQuF4G08.6C6cjjxdpL6ue9fVgyFVTPFoI8AsqM0UukSDOxXa_gY</t>
+        </is>
+      </c>
+      <c r="U368" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V368" t="inlineStr"/>
+      <c r="W368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>4256778960</v>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Офис, 30 м²</t>
+        </is>
+      </c>
+      <c r="D369" t="n">
+        <v>18000</v>
+      </c>
+      <c r="E369" t="inlineStr"/>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/ofis_30_m_4256778960?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJCTnpnYkZzVzlCQkoyVVQ1Ijt9PsRFqT8AAAA</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>Сдам на длительный срок офисное помещение БЦ На Поленова, 1/1.
+Помещения на 4м этаже: 30 М2, 41 м2 состоит из трёх кабинетов, 50 м2, 57 м2 — 600р\м2 в месяц, офис с кабинетной системой, ремонт, мебель, без лифта, с\у на этаже. В шаговой доступности столовая, Куми, Досааф, ПФ РФ, Загс, нотариус, магазины, банки, почта, остановки и прочее…
+Просмотры по предварительной договоренности).
+Коммунальные включены, без комиссии.</t>
+        </is>
+      </c>
+      <c r="H369" s="1" t="n">
+        <v>46045.48299768518</v>
+      </c>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>i41439363</t>
+        </is>
+      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>ул. Поленова, 1/1</t>
+        </is>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M369" t="inlineStr"/>
+      <c r="N369" t="inlineStr"/>
+      <c r="O369" t="inlineStr"/>
+      <c r="P369" t="inlineStr"/>
+      <c r="Q369" t="inlineStr"/>
+      <c r="R369" t="inlineStr"/>
+      <c r="S369" t="inlineStr">
+        <is>
+          <t>52.28377;104.316746</t>
+        </is>
+      </c>
+      <c r="T369" t="inlineStr">
+        <is>
+          <t>https://40.img.avito.st/image/1/1.I0ZsiLa-j68aJk2gJqhOD0spjaneP4uv3ljupdLrgG3XK40.kWgT6xsRNAfGCqpm9Q5aVJ-HcqrxDrs27HlOzbM9raY;https://00.img.avito.st/image/1/1.3OV20ra-cAwAfLIDQonZwGpzcgrEZXQMxAIRBsixf87NcXI.ptLT46bqkwaZYhhUQtzPpc952Gabnhbz4iukEVUQDWM?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://40.img.avito.st/image/1/1.sP5v8La-HBcZXt4YA7LsnyxRHhHdRxgX3SB9HdGTE9XUUx4.HoI1ZSF_QCPSk58l0wiANzRdaDQGqmIgZH9BZ4FVCF0;https://70.img.avito.st/image/1/1.yk08p7a-ZqRKCaSrJPDoT38GZKKOEGKkjncHroLEaWaHBGQ.xYCPSW3NrlRRs14sizFAFYmg_yzMiAmM4-gloiZoPro;https://00.img.avito.st/image/1/1.AIS-MLa-rG3Inm5ismwG-_2RrmsMh6htDODNZwBTo68Fk64.dJnOOz-YeFXsy7nEwTLb0sC0rupu9FfeKbLf4Snfrlw?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://60.img.avito.st/image/1/1.0cDnhba-fSmRK78mydqDoaQkfy9VMnkpVVUcI1nmcutcJn8.N3gBav2LVWzzBw7HIVjSYSzxcdxLvoimRrqnY7zj5Us;https://00.img.avito.st/image/1/1.iqDIuba-Jkm-F-RG0LPInt4YJE96DiJJemlHQ3baKYtzGiQ.MC9x-Q7oYAgw8S_E5QPqRQgR8RpFq25G-4KC5OjaI38?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://40.img.avito.st/image/1/1.KTR_7La-hd0JQkfSIcQzOWdNh9vNW4HdzTzk18GPih_ET4c.hSy3mQ0wf7mPAQ9g4UrZci9OzIB_J5AEZks2sSkgvRg;https://60.img.avito.st/image/1/1.39STn7a-cz3lMbEyobTI2Ys-cTshKHc9IU8SNy38fP8oPHE.wcZ1b5UWI0oeQ4JX428ONVY4NgVsamEkpH-XHrcsD5M;https://40.img.avito.st/image/1/1.p9Qvhra-Cz1ZKMkybeC-2TcnCTudMQ89nVZqN5HlBP-UJQk.Hox8su5otXKd79NuI9okr-Ck8ToUSHo-2rJJzuj6DHY;https://20.img.avito.st/image/1/1._JRs6ba-UH0aR5JyGObkmXRIUnveXlR93jkxd9KKX7_XSlI.zrrEDz68Bzx0OLPIWfyhgVf1A_vHzKlqkIVZ2LAJ6eU?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://50.img.avito.st/image/1/1.LRNrI7a-gfodjUP1PRsyNneCg_zZlIX62fPg8NVAjjjQgIM.0p46qDG4JFMbFL-ZN94GDmDWg4MCGoVjRTQaQ7-jrjM;https://70.img.avito.st/image/1/1.-iDdora-VsmrDJTGpa34BcEDVM9vFVLJb3I3w2PBWQtmAVQ.TwQTmDEg9UKiRkU2g5KrvWSTCw83Y4p0QZuaC26A1KM;https://40.img.avito.st/image/1/1.elC3Yra-1rnBzBS2z1t9davD1L8F1dK5BbK3swkB2XsMwdQ.-UuXD4StoUVfmyokSl0DP5kIDn3vMOYWEYOrK-etQUs;https://60.img.avito.st/image/1/1.K7_e0ra-h1aofEVZhIoZo7xzhVBsZYNWbALmXGCxiJRlcYU._2iVRB9vu6Gw4QxjiC2ImScwUGDxvrn5Yw5zd1Gby90;https://50.img.avito.st/image/1/1.PfcpIba-kR5fj1MRXzVF6kuAkxiblpUem_HwFJdCntySgpM.h8j5GmsSSAuOKUieqhtCr_bLXDC2nwi01u1uotpGPPo;https://80.img.avito.st/image/1/1.1qfh27a-ek6XdbhBweyKxqJ6eEhTbH5OUwsbRF-4dYxaeHg.ZNrz5xPY-cRJO_uS3MvPWx3m6a9tMOF8AmuVCIEkVTc;https://00.img.avito.st/image/1/1.m2Fnyra-N4gRZPWHXbDIACRrNY7VfTOI1RpWgtmpOErcaTU.9EagAcWnhtTdI3DbYqoaixWqEpFzhRMbTja2CHqXmAY?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://00.img.avito.st/image/1/1.oyFfKba-D8gph83HFSP2QByIDc7tngvI7fluwuFKAArkig0.mxZxyZr7zALpGjhUGUNWGl7tfGPq-Y7WVFvKU_5TMjs?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://00.img.avito.st/image/1/1.dbjsqba-2VGaBxteivhIuq8I21deHt1RXnm4W1LK1pNXCts.QZ-y_g3GCoPNLOUn8gi4uuiJlJweq9rY2btZc6vDWvg?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://00.img.avito.st/image/1/1.6U6Ch7a-Raf0KYeo3PTMTMEmR6EwMEGnMFckrTzkSmU5JEc.j0M2Ts3A9IZBK8pVLVQzKXtPnzm1TYT78R8mkiQU0gs?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://40.img.avito.st/image/1/1.VlS07ra--r3CQDiylLNJK_dP-LsGWf69Bj6btwqN9X8PTfg.8wM-jcDiev_GS680DkQ2d3GixN3m8XmCOa6d5_bl5S0;https://70.img.avito.st/image/1/1.DC6H_ra-oMfxUGLIk-5QT8RfosE1SaTHNS7BzTmdrwU8XaI.inGRXVrSElbq96ZBYiYeX2Ot7N4Kh0cW4EVRNTJVF90;https://10.img.avito.st/image/1/1.gLjZuLa-LFGvFu5e1dqEx5oZLldrDyhRa2hNW2fbI5NiGy4.lI24XmYn8P1PNSJWzxt1dYAPZ7JnNr7bStzG8HFAWKo?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://70.img.avito.st/image/1/1.yjE7p7a-ZthNCaTXI7DrT3gGZN6JEGLYiXcH0oXEaRqABGQ._IM4QLNYmdWCTtCEiPsaywxacDXEwadYsK9q-kc9ONU;https://20.img.avito.st/image/1/1.8c6DLra-XSf1gJ8o7RHOzMCPXyExmVknMf48LT1NUuU4jV8.c_HoTheh_ioZG5y5QvEZ0V-7fu0TyvM8BPYkfxVO7ek?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U369" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V369" t="inlineStr"/>
+      <c r="W369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>7769912009</v>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Офис, 10 м²</t>
+        </is>
+      </c>
+      <c r="D370" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E370" t="inlineStr"/>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/ofis_10_m_7769912009?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJCTnpnYkZzVzlCQkoyVVQ1Ijt9PsRFqT8AAAA</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>Сдается помещение под офис на первом этаже 2 этажного особняка с мебелью. Имеется ремонт, охрана и парковка. Доступ круглосуточный. Центр. Район театра кукол.150 м от остановки общественного транспорта, 200 м от рынка «Новый», рядом магазины, кафе, центральный рынок, гостиница «Европа», 130 квартал. Не подходит для парикмахерских, химчисток, маникюрных салонов.</t>
+        </is>
+      </c>
+      <c r="H370" s="1" t="n">
+        <v>46045.4441087963</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>пер. Щетинкина, 6</t>
+        </is>
+      </c>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M370" t="inlineStr"/>
+      <c r="N370" t="inlineStr"/>
+      <c r="O370" t="inlineStr"/>
+      <c r="P370" t="inlineStr"/>
+      <c r="Q370" t="inlineStr"/>
+      <c r="R370" t="inlineStr"/>
+      <c r="S370" t="inlineStr">
+        <is>
+          <t>52.27453613;104.3025818</t>
+        </is>
+      </c>
+      <c r="T370" t="inlineStr">
+        <is>
+          <t>https://90.img.avito.st/image/1/1.ESFUdba-vcgi23_HehVbWQzUv87mwrnI5qXcwuoWsgrv1r8.lii2-mqv0mWFvFvMYD7hjAk1E7o5HYj--haShwk1frQ;https://60.img.avito.st/image/1/1.2nLth7a-dpubKbSU1fSvDbUmdJ1fMHKbX1cXkVPkeVlWJHQ.zRaRYnztnsw8MsmiDU1_HBW24G66Hq4xameADXCU2rw;https://80.img.avito.st/image/1/1.n8ADlLa-Myl1OvEmMa6suVs1MS-xIzcpsURSI733POu4NzE.WVpddD_ck3juF2nDeChRQVvbVmFLFhG1XC-oRLDhvBU;https://10.img.avito.st/image/1/1.Oj-p1ba-ltbfe1TZ0d1ST-50lNAbYpLWGwX33Be2mRQSdpQ.zmKD5rTdQJQMcvF6zkjtdAPdge7wd25-LtKpbdG4sN0?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U370" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V370" t="inlineStr"/>
+      <c r="W370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>7804886894</v>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Офис, 26.2 м²</t>
+        </is>
+      </c>
+      <c r="D371" t="n">
+        <v>22000</v>
+      </c>
+      <c r="E371" t="inlineStr"/>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//bratsk/kommercheskaya_nedvizhimost/ofis_26.2_m_7804886894?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJCTnpnYkZzVzlCQkoyVVQ1Ijt9PsRFqT8AAAA</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>Сдается в аренду два офиса на 2-м (26,2 кв. М.)-22 000,00/мес., и 3-ем этаже( 17 кв. М.)-15 000,00/мес., без с/узлов, здание находится в центральной части города, хорошая транспортная развязка, эксплуатационные расходы частично включены в арендную плату.</t>
+        </is>
+      </c>
+      <c r="H371" s="1" t="n">
+        <v>46043.55563657408</v>
+      </c>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>8194691a491924fcd4601dfb92526190</t>
+        </is>
+      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>Депутатская ул., 32</t>
+        </is>
+      </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>Братск</t>
+        </is>
+      </c>
+      <c r="M371" t="inlineStr"/>
+      <c r="N371" t="inlineStr"/>
+      <c r="O371" t="inlineStr"/>
+      <c r="P371" t="inlineStr"/>
+      <c r="Q371" t="inlineStr"/>
+      <c r="R371" t="inlineStr"/>
+      <c r="S371" t="inlineStr">
+        <is>
+          <t>56.155423;101.636056</t>
+        </is>
+      </c>
+      <c r="T371" t="inlineStr">
+        <is>
+          <t>https://50.img.avito.st/image/1/1.c90ijLa-3zRUIh07SN0x4mct3TKQO9s0kFy-Ppzv0PaZL90.xnwEU5FunK8gWB2hsMvLMAn8Th8lDMdQtyK8Fjs9_5w;https://00.img.avito.st/image/1/1.dxgne7a-2_FR1Rn-RR5XIGLa2feVzN_xlau6-5kY1DOc2Nk.hhPXjsDanBMm6bA_hlSU9geSvYy-2rAGe9fue8fk1A8?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://80.img.avito.st/image/1/1.BpJwiLa-qnsGJmh0cPBQqjUpqH3CP657wljLcc7rpbnLK6g.jzZgXB9WXhd2pp7bd3RD5NlmFiJk6CRtZ2JYVpVyk74;https://40.img.avito.st/image/1/1.AncEZLa-rp5yymyRDAA8T0HFrJi206qetrTPlLoHoVy_x6w.YdbBqmdr4siXFzbLpXJ7bj-8x4Sk81J1EBZ9PXZMFTU;https://40.img.avito.st/image/1/1.iM5ozra-JCceYOYodMTL8S1vJiHaeSAn2h5FLdatK-XTbSY.LrJZNNIz0H1HhHd_ce-mA2LC1IsNOb0H3_sYHhns1SU;https://50.img.avito.st/image/1/1.bA1kJra-wOQSiALrMHcuMiGHwuLWkcTk1vah7tpFzybfhcI.JGwal_ev9tYLf8VXbXfrajSsjxHvZqwIZXX0W-Q2QY0</t>
+        </is>
+      </c>
+      <c r="U371" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V371" t="inlineStr"/>
+      <c r="W371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>7729257249</v>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Свободного назначения</t>
+        </is>
+      </c>
+      <c r="D372" t="n">
+        <v>25000</v>
+      </c>
+      <c r="E372" t="inlineStr"/>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/svobodnogo_naznacheniya_7729257249?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJCTnpnYkZzVzlCQkoyVVQ1Ijt9PsRFqT8AAAA</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>Сдам офисное помещение общая площадь 26.2 кв. М. 4 этаж (эскалатор).
+На длительный срок.
+Лучшая инфраструктура (все в шаговой доступности.).
+Включены все эксплуатационные расходы.</t>
+        </is>
+      </c>
+      <c r="H372" s="1" t="n">
+        <v>46044.89615740741</v>
+      </c>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>i92953300</t>
+        </is>
+      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>пр. Ербанова, 6</t>
+        </is>
+      </c>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M372" t="inlineStr"/>
+      <c r="N372" t="inlineStr"/>
+      <c r="O372" t="inlineStr"/>
+      <c r="P372" t="inlineStr"/>
+      <c r="Q372" t="inlineStr"/>
+      <c r="R372" t="inlineStr"/>
+      <c r="S372" t="inlineStr">
+        <is>
+          <t>52.26466491183853;104.31493642311125</t>
+        </is>
+      </c>
+      <c r="T372" t="inlineStr">
+        <is>
+          <t>https://70.img.avito.st/image/1/1.j8nLmra-IyC9NOEv2bThpJI7ISZ5LScgeUpCKnX5LOJwOSE.gJJMWH1YG70dsrmn-7FEO6xvzdAJQHPKD5YRBQ42PD4;https://40.img.avito.st/image/1/1.G8cFMba-ty5zn3UhP3F3qlyQtSi3hrMut-HWJLtSuOy-krU._7DOe95iC1J1drcvDAWZ4KUE4OR505qVWwyOoqAEuyE;https://00.img.avito.st/image/1/1.CSX50La-pcyPfmfD55gZSKBxp8pLZ6HMSwDExkezqg5Cc6c.OdewnqwQ_3kwXDp0Mm-4V__vCISa0LeqQd6gnLY4-y4?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://40.img.avito.st/image/1/1.IaXz-ba-jUyFV09Dvf0TyapYj0pBTolMQSnsRk2ago5IWo8.5-1JRELOjWwutPaziqZbt-N-zO_id9LiPUkvJfyV8QI;https://30.img.avito.st/image/1/1.qMwexLa-BCVoasYqQpa6oUdlBiOscwAlrBRlL6CnC-elZwY.fFPHYDpPmisIhYV-Z4DYcAyErWV6NlN0JBv4nN6LtC0?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://50.img.avito.st/image/1/1.kZR45ra-PX0OSP9yVsyh-CFHP3vKUTl9yjZcd8aFMr_DRT8.UC7BlQb7Z2r5FddRVmvhGCeKrWD3v7oBviwNitPLlz8;https://90.img.avito.st/image/1/1.izwlMLa-J9VTnuXaPxaZUXyRJdOXhyPVl-BG35tTKBeekyU.9KF6yzaz6Hb2-VpDHyr4bCeRVeLYla510wxsyhOdoUE;https://50.img.avito.st/image/1/1.dJnzLba-2HCFgxp_l3QY9KqM2nZBmtxwQf25ek1O17JIjto.AZm81MzFJ9hKJiq_GvD3MF4NhRxWU8diWvmmKr5X6ZE;https://30.img.avito.st/image/1/1.02SZMLa-f43vnr2Csxf_B8CRfYsrh3uNK-AehydTcE8ik30.lD90CPWCATcrqN1wjoq5ZkQB9IHAzXZbxCS6w2E2gmU?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://00.img.avito.st/image/1/1.mawhbba-NUVXw_dKHweHwHjMN0OT2jFFk71UT58OOoeazjc.4GScKdM-R9lPjttusqRC178yWybLi-02xJLiBc-vxX0?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://90.img.avito.st/image/1/1.W2SDULa-9431_jWCuTlxB9rx9Ysx5_ONMYCWhz0z-E848_U.g5PhQgXZxSFsOjSJr4h9fNAzQc6CD-K0wKp9Zp8sFxg;https://00.img.avito.st/image/1/1.vJ3HQ7a-EHSx7dJ7s2Gb_p7iEnJ19BR0dZNxfnkgH7Z84BI.FX0182lgNQiFMDIEO4VOhwcoCE5MS6sTTUQwas9clYs?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U372" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V372" t="inlineStr"/>
+      <c r="W372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>7828153665</v>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Свободного назначения, 10 м²</t>
+        </is>
+      </c>
+      <c r="D373" t="n">
+        <v>16000</v>
+      </c>
+      <c r="E373" t="inlineStr"/>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//shelehov/kommercheskaya_nedvizhimost/svobodnogo_naznacheniya_10_m_7828153665?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJCTnpnYkZzVzlCQkoyVVQ1Ijt9PsRFqT8AAAA</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>Сдается помещение свободного назначения, отдельный вход, санузел отдельный, складское помещение, приоритетно под массажный кабинет или бьюти услуги.</t>
+        </is>
+      </c>
+      <c r="H373" s="1" t="n">
+        <v>46044.80815972222</v>
+      </c>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>i9356631</t>
+        </is>
+      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>Трудовая ул., 5В</t>
+        </is>
+      </c>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>Шелехов</t>
+        </is>
+      </c>
+      <c r="M373" t="inlineStr"/>
+      <c r="N373" t="inlineStr"/>
+      <c r="O373" t="inlineStr"/>
+      <c r="P373" t="inlineStr"/>
+      <c r="Q373" t="inlineStr"/>
+      <c r="R373" t="inlineStr"/>
+      <c r="S373" t="inlineStr">
+        <is>
+          <t>52.256584;104.127839</t>
+        </is>
+      </c>
+      <c r="T373" t="inlineStr">
+        <is>
+          <t>https://20.img.avito.st/image/1/1.iC17x7a-JMQNaebLZ_33UDdmJsLJcCDEyRdFzsWkKwbAZCY.GOO7bWmWVyMzUvDiWDCSAcnCRgQ9U6KYFmyfEtvxCzA?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://10.img.avito.st/image/1/1.z4Acsba-Y2lqH6FmDsKA-VAQYW-uBmdprmECY6LSbKunEmE.rAH1XrXfYBV3PUSTZVMQYFdcHudafCeVTjYvh__c19c?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://30.img.avito.st/image/1/1.UXosara-_ZNaxD-cAjMvB2DL_5We3fmTnrqcmZIJ8lGXyf8.xGYLR1zb2hRtz26nIo9qUQIDDI9cmlzjH0INlRAbUMQ?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://10.img.avito.st/image/1/1.ZVaPDra-yb_5oAuwyUc_KcOvy7k9uc2_Pd6otTFtxn00rcs.IaQq6v62IPPfYa1hb7QNCtCLKurgoFOCr3nPZkzo3xc?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U373" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V373" t="inlineStr"/>
+      <c r="W373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>7859104561</v>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Свободного назначения, 70 м²</t>
+        </is>
+      </c>
+      <c r="D374" t="n">
+        <v>80000</v>
+      </c>
+      <c r="E374" t="inlineStr"/>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/svobodnogo_naznacheniya_70_m_7859104561?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJCTnpnYkZzVzlCQkoyVVQ1Ijt9PsRFqT8AAAA</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>Сдаю помещение, 70 кв м., в здании Фитнес клуба «Весна», вход отдельный ( с улицы), хорошая транспортная развязка, большой поток машин и людей. Рядом находится набережная, Конный остров и остров Юность, большая бесплатная парковка.
+Договориться о показе (будние дни), задать вопросы можно по телефону:</t>
+        </is>
+      </c>
+      <c r="H374" s="1" t="n">
+        <v>46044.59332175926</v>
+      </c>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>i169150742</t>
+        </is>
+      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>ул. Кожова, 10</t>
+        </is>
+      </c>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M374" t="inlineStr"/>
+      <c r="N374" t="inlineStr"/>
+      <c r="O374" t="inlineStr"/>
+      <c r="P374" t="inlineStr"/>
+      <c r="Q374" t="inlineStr"/>
+      <c r="R374" t="inlineStr"/>
+      <c r="S374" t="inlineStr">
+        <is>
+          <t>52.270706;104.28623</t>
+        </is>
+      </c>
+      <c r="T374" t="inlineStr">
+        <is>
+          <t>https://10.img.avito.st/image/1/1.LZz8s7a-gXWKHUN6qsM9mL4Sg3NOBIV1TmPgf0LQjrdHEIM.ifjuPcymSwOtttl5qzjmsFKXirogmkuX3NOI23HL3Oc?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://30.img.avito.st/image/1/1.a1r1Kra-x7ODhAW8rw9cJraLxbVHncOzR_qmuUtJyHFOicU.mjnXqOT__1NZr1unbZXTYPxHua9JugwihkIp_HIk_vU?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U374" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V374" t="inlineStr"/>
+      <c r="W374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>1944423655</v>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Свободного назначения, 100 м²</t>
+        </is>
+      </c>
+      <c r="D375" t="n">
+        <v>53000</v>
+      </c>
+      <c r="E375" t="inlineStr"/>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/svobodnogo_naznacheniya_100_m_1944423655?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJCTnpnYkZzVzlCQkoyVVQ1Ijt9PsRFqT8AAAA</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>Сдается в аренду выставочный зал, офис, склад.
+2 этаж.
+В здании расположены предприятия строительного и ремонтного профиля (например «Сантехника Мауро», напольные покрытия, натяжные потолки, входные и межкомнатные двери и тд.).
+Подъездные пути, просторная парковка, на территории и в здании ведется видеонаблюдение, круглосуточная охрана.
+Санузел на этаже, рядом лестница к грузовому входу.
+Павильон 11м2 1 этаж.
+Возможность арендных каникул!
+Смотреть в рабочие дни с 10-17.
+Вопросы по телефону.</t>
+        </is>
+      </c>
+      <c r="H375" s="1" t="n">
+        <v>46044.66346064815</v>
+      </c>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>i145549914</t>
+        </is>
+      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>ул. Лыткина, 75А</t>
+        </is>
+      </c>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M375" t="inlineStr"/>
+      <c r="N375" t="inlineStr"/>
+      <c r="O375" t="inlineStr"/>
+      <c r="P375" t="inlineStr"/>
+      <c r="Q375" t="inlineStr"/>
+      <c r="R375" t="inlineStr"/>
+      <c r="S375" t="inlineStr">
+        <is>
+          <t>52.270799;104.327813</t>
+        </is>
+      </c>
+      <c r="T375" t="inlineStr">
+        <is>
+          <t>https://20.img.avito.st/image/1/1.2PNk8La_dBoSXrYVWJf144JTchzGVXQcoTB-EBJethXSUw.L9J04kUTTiBJHPyFqjxqgb3XW0V4UeCOcqeNXp_Ldx8?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://80.img.avito.st/image/1/1.ScIspLa-5StaCickMr1cpmAF5y2eE-ErnnSEIZLH6umXB-c.U9u9VB6dO-TgZ6VbS94VTJNNDj8RpO4ogXo4UkKpsio;https://20.img.avito.st/image/1/1.6VoSBLa_RbNkqoe8TG_ESvSnQ7WwoUW118RPuWSqh7ykpw.nx9IcvH81asmpLHxNn0LS_YesB-c8ravEAUDJuWZ1zc?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://00.img.avito.st/image/1/1.rtxGmLa-AjUwNsA6FqLIhwo5ADP0LwY19EhjP_j7Dff9OwA.9H-z1MD64AJDZdFUzJK6lDyt0t1EALJiB2V4XyuR-MQ?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://10.img.avito.st/image/1/1.xv3clba-ahSqO6gb3OqSuJA0aBJuIm4UbkULHmL2ZdZnNmg.Q5GcW8gUd6TWZUKCbxOVUAPv9zNElguge-mLY33VDgM?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://10.img.avito.st/image/1/1.6XBOtLa-RZk4GoeWEN-PKwIVR5_8A0GZ_GQkk_DXSlv1F0c.mrVeN1PLQBEOe5Q5vmu4TvJyfqbjs7nboY2ktuw8q3w?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://70.img.avito.st/image/1/1.F4HZQra-u2iv7Hln-0J12pXjuW5r9b9oa5LaYmchtKpi4bk.phC7thAFIEzb7zC0PibuorVBLY0QotLl-r1DFI5j8Go;https://70.img.avito.st/image/1/1.JdoJK7a-iTN_hUs8T2dKgUWKizW7nI0zu_voObdIhvGyiIs.DhTMG6WDF5Gj67s_lSMHz-_eHHJbGpVW-d4ljli5h7o;https://60.img.avito.st/image/1/1.LIqae7a-gGPs1UJszgMJz9bagmUozIRjKKvhaSQYj6Eh2II.Ac61p46XoCbArS-PQDm0yhA3L9j10iKUqgWYbVbT4ko;https://90.img.avito.st/image/1/1.vRoGeba-EfNw19P8cFeAX0rYE_W0zhXztKlw-bgaHjG92hM._sIyRXaqZBjcALYY8UIBcUuhmJvbZU_OmI4RrmQ-IR0;https://00.img.avito.st/image/1/1.IfC9jba-jRnLI08W86l0tfEsjx8POokZD13sEwPugtsGLo8.yJPTqOPI-_oq0BzCPjL_VNorYIfqj_Wd13S3kGbiATg?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://20.img.avito.st/image/1/1.qy445ba-B8dOS8XIYvuvaHREBcGKUgPHijVmzYaGCAWDRgU.lyi6Ow416X0AwfDHUAp4PMkg7MDhfOpssb8_Ha61moU?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://90.img.avito.st/image/1/1.pYaPEra-CW_5vMtgyVivwMOzC2k9pQ1vPcJoZTFxBq00sQs.SrIVNNahEwegysZWr7opo0bq4851ZM0Mt7YftOLk0Nk;https://80.img.avito.st/image/1/1.fz_alba-09asOxHZqOhDepY00dBoItfWaEWy3GT23BRhNtE.Sh8b0Achc4MU0F7M1Y0ks-ovFx-KVHDatLl4bZ_YpKI;https://20.img.avito.st/image/1/1.4BeBLra-TP73gI7xzQGBTM2PTvgzmUj-M_4t9D9NQzw6jU4.i6WIvgctg0BOKqMDVPJSX2AeplUy1kF1nOrM1PAA_1Y?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U375" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V375" t="inlineStr"/>
+      <c r="W375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>7609300175</v>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Срочная сдача помещения в аренду</t>
+        </is>
+      </c>
+      <c r="D376" t="n">
+        <v>75000</v>
+      </c>
+      <c r="E376" t="inlineStr"/>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/srochnaya_sdacha_pomescheniya_v_arendu_7609300175?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJCTnpnYkZzVzlCQkoyVVQ1Ijt9PsRFqT8AAAA</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>Коммерческое Помещение В Активной Локации.
+Первая линия, отдельный вход, отличная видимость.
+Напротив — Росреестр, рядом рынок «Южный» и ТЦ «Версаль». Район густонаселённый, стабильный поток пешеходного и автомобильного трафика.
+Парковка на 10 машин.
+2 больших витринных окна.
+Площадь с открытой планировкой.
+Потолки 3.5 м.
+Готовый ремонт — заезжай и работай.
+Цокольный этаж.
+Локация.
+Отдельный вход с гаражного кооператива.
+Рядом остановки: Южная, Приморский.
+Интенсивный пешеходный и автомобильный трафик.
+Отличная просматриваемость с улицы Академическая.
+Характеристики.
+Разрешение на размещение наружной рекламы на фасаде.
+Электрическая мощность — 15 квт.
+Открытая планировка на основном этаже.
+В цокольном этаже: санузел + открытая планировка.
+Витринное остекление.
+Санузел в помещении.
+Септик — 4 куба.
+Отделка.
+Пол на первом этаже — линолеум, в цоколе плитка керамогранит 60x60, бежевая, в отличном состоянии.
+Освещение — диодные лампы.
+Стены — кирпич + стеновые панели.
+Дополнительные Возможности.
+Помещение универсального назначения:
+подойдёт для торговли, офиса, сферы услуг, медицинской деятельности, общепита.
+Дополнительные фото и видео пришлём по запросу.
+Возможна перепланировка, рассматриваем встречные предложения.</t>
+        </is>
+      </c>
+      <c r="H376" s="1" t="n">
+        <v>46044.64456018519</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>Академическая ул., 68</t>
+        </is>
+      </c>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M376" t="inlineStr"/>
+      <c r="N376" t="inlineStr"/>
+      <c r="O376" t="inlineStr"/>
+      <c r="P376" t="inlineStr"/>
+      <c r="Q376" t="inlineStr"/>
+      <c r="R376" t="inlineStr"/>
+      <c r="S376" t="inlineStr">
+        <is>
+          <t>52.2323494;104.3021317</t>
+        </is>
+      </c>
+      <c r="T376" t="inlineStr">
+        <is>
+          <t>https://00.img.avito.st/image/1/1.lkKORra-Oqv46PikrnC4PNjnOK088T6rPJZboTAlNWk15Tg.oogRAbRFUMiy56__GqMXfDVHlluXnN-JDFhDyB3cF20?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://10.img.avito.st/image/1/1.JOem9La-iA7QWkoB4qxtgsxViggUQ4wOFCTpBBiXh8wdV4o.DHW_oL6vz7N9fkIkrytxJkxF6ZliPLbE1hs8PSSXR28?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://70.img.avito.st/image/1/1.A2u7Y7a-r4LNzW2NsQ9nD9HCrYQJ1KuCCbPOiAUAoEAAwK0.z5VEaFVL45dX_80CyNuovwdDR_sD0ofEpZAGrNTnp6U;https://40.img.avito.st/image/1/1.XcqyS7a-8SPE5TMshGo-rNjq8yUA_PUjAJuQKQwo_uEJ6PM.g-bv44hUZqdl1ckT64vDUc13qJGL1_mGLCH4gCWx28U;https://60.img.avito.st/image/1/1.AqlzY7a-rkAFzWxPe0cHzxnCrEbB1KpAwbPPSs0AoYLIwKw.hF_tSIbIm-72wzqa7O8HtHwsEd_KmPY6O_OTJR-i_vA;https://60.img.avito.st/image/1/1.nPqCr7a-MBP0AfIctvWTmugOMhUwGDQTMH9RGTzMP9E5DDI.1_qhCuWCUuyzWrQlLe83cw68UQVIqvLm956pvfVAVls;https://90.img.avito.st/image/1/1.DoWytra-omzEGGBjotpC4NgXoGoAAaZsAGbDZgzVra4JFaA.dQcA9U2t7xy5dDVHgs_ngH9xp7mfeL0ZaWQ-IX7X544;https://30.img.avito.st/image/1/1.R9u-iLa-6zLIJik9vL0MvtQp6TQMP-8yDFiKOADr5PAFK-k.yfXni-yyCvMpeEDSwd8QzEkKFXX3kcfQwRTfvYPbM8c?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://70.img.avito.st/image/1/1.MrZ24ra-nl8ATFxQHsZ70xxDnFnEVZpfxDL_VciBkZ3NQZw.1jzbDqrY6d7CTvhYMLrZzYYcGdvqa_l46pB75NZx2UQ;https://80.img.avito.st/image/1/1.f1e-ora-077IDBGxzI8eM9QD0bgMFde-DHKytADB3HwFAdE.8Jp8HcNB5mLDChvSPnNlkph0he8_VZnVDIO3zK-FKjs;https://40.img.avito.st/image/1/1.1u-3dba-egbB27gJl3q_i93UeAAFwn4GBaUbDAkWdcQM1ng.0dQ4W5NHQEHCI77scCu-aeSfhTCjIqCi4FLMCeaMfPA;https://30.img.avito.st/image/1/1.DXuX0ra-oZLhfGOdgc4bHf1zo5QlZaWSJQLAmCmxrlAscaM.fZ9Wn-PraQELRyxCLX87BroobxA-g67YS9JVBONqVW8?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://20.img.avito.st/image/1/1.fLem_7a-0F7QURJR0vYj0sxe0lgUSNReFC-xVBic35wdXNI.h6gSrkpapsyGG9GOMBDa1RDKTTJbK2kiTbA97K1F0uw?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U376" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V376" t="inlineStr"/>
+      <c r="W376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>7927531889</v>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Офис, 26.9 м²</t>
+        </is>
+      </c>
+      <c r="D377" t="n">
+        <v>29000</v>
+      </c>
+      <c r="E377" t="inlineStr"/>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/ofis_26.9_m_7927531889?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJCTnpnYkZzVzlCQkoyVVQ1Ijt9PsRFqT8AAAA</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>Помещение с отдельным входом и санузлом. Место под организацию мини кухни. Основное помещение 20 метров. Режим использование 24\7. Свежий ремонт. Может быть дооборудовано мебелью. Сдается на длительный срок.</t>
+        </is>
+      </c>
+      <c r="H377" s="1" t="n">
+        <v>46034.64881944445</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>Депутатская ул., 48</t>
+        </is>
+      </c>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M377" t="inlineStr"/>
+      <c r="N377" t="inlineStr"/>
+      <c r="O377" t="inlineStr"/>
+      <c r="P377" t="inlineStr"/>
+      <c r="Q377" t="inlineStr"/>
+      <c r="R377" t="inlineStr"/>
+      <c r="S377" t="inlineStr">
+        <is>
+          <t>52.270992;104.322055</t>
+        </is>
+      </c>
+      <c r="T377" t="inlineStr">
+        <is>
+          <t>https://40.img.avito.st/image/1/1.qZTkh7a-BX2SKcdyusG7v6cmB3tWMAF9Vldkd1rkCr9fJAc.-DVCLPuTWCV2EkPLHVNFQR7anZF0QGr5sY7RwFXL13Q;https://30.img.avito.st/image/1/1.lrk967a-OlBLRfhfHZHlmH5KOFaPXD5QjztbWoOINZKGSDg.Cz2kQDhDx92NV3b5WftKTH2skbzHrLiNeVKXUhWnx7k?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://50.img.avito.st/image/1/1.6yKopLa-R8veCoXE8ouNCesFRc0aE0PLGnQmwRbHSAkTB0U.UlahEoBzmRTwRmge9Eei2ahdZqUA0_Ph2lOLiZKlNgY;https://70.img.avito.st/image/1/1.6PmgDba-RBDWo4Yf_Dra2OOsRhYSukAQEt0lGh5uS9IbrkY.Dn8AVj1wQZIj3T0TlJ6BD5QeFBkgrcwZ-cK_1LXxZqU;https://70.img.avito.st/image/1/1.gPmJFba-LBD_u-4fhSOR0sq0LhY7oigQO8VNGjd2I9Iyti4.--Q1ZqVfbAVNWhlgO9BGnULuH3McZi4Gpn7FaW1tilg;https://20.img.avito.st/image/1/1.0m6St7a-fofkGbyIuuSnT9EWfIEgAHqHIGcfjSzUcUUpFHw.P5s9N4tlwV_w3TF6yZ0MvHFSCQ6X-0QQeVG5_8TSnQs?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://40.img.avito.st/image/1/1.aXZxhra-xZ8HKAeQL-tSYTInx5nDMcGfw1aklc_lyl3KJcc.-zkhprHwydvvvDpP7aNffyms0xt2wVJK9I5HanUXaSo;https://00.img.avito.st/image/1/1.VKF_gra--EgJLDpHW58mgDwj-k7NNfxIzVKZQsHh94rEIfo.wAX9jg23uUOsg9xvuPIRVUDFcyfmQSgSiQQCqZtQYAQ?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://90.img.avito.st/image/1/1.64K84ba-R2vKT4Vk5vqco_9ARW0OVkNrDjEmYQKCSKkHQkU.FU_LMh3twDtKrCS6OFr_05xlZC2SymPL28i3KLBGkZ8;https://40.img.avito.st/image/1/1.P3pVQba-k5Mj71GcJ1FXURbgkZXn9peT55HymesinFHu4pE.5zvq756bdDe2-j9_w3n-9l81fBSLKV0KPfEfnxxS9BI;https://00.img.avito.st/image/1/1.M6O_qba-n0rJB11F1f1GgvwInUwNHptKDXn-QAHKkIgECp0.Zgs6tdkyqMnb3aq9SFUUpht-cN2fYhJm4INXM-tUcqg?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://30.img.avito.st/image/1/1.jnjS6La-IpGkRuCewq7yZZFJIJdgXyaRYDhDm2yLLVNpSyA.gVlI36Yok0k2YvkvyPFAeKkVx1PLp1uZMhkwiYa5qUc?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://60.img.avito.st/image/1/1.vVHqMra-EbicnNO3nDjLTKmTE75YhRW4WOJwslRRHnpRkRM.MR9c4cfakG8jHyJk2DKancCRVut8CfY1N79_YIXgmIo;https://50.img.avito.st/image/1/1.KYwS3La-hWVkckdqTLQ4p1F9h2Oga4FloAzkb6y_iqepf4c.F3CE0hNkVH3VErcIGrNZ3dtuDNXFO5j9TUwrUy-hBk8;https://60.img.avito.st/image/1/1.gLl4era-LFAO1O5fdDi8rjvbLlbKzShQyqpNWsYZI5LD2S4.VvumUvMzMsVxiWZ-Y23xuHZ5yRcozm4wVwO0jke4YIA;https://30.img.avito.st/image/1/1.2U5_VLa-dacJ-reoQT-hUzz1d6HN43GnzYQUrcE3emXE93c.lijlX-_BoDk6ImUINCIM1fN8lEPWFAjPjwHv30LNTyk?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://60.img.avito.st/image/1/1.ZWYE_7a-yY9yUQuAQvIPe0dey4m2SM2Pti-ohbqcxk2_XMs.DlJLmfhSuZb7MPbjrd5v8vPHSRC581vuJmeeZg6Cbs0;https://10.img.avito.st/image/1/1.8j8FKba-XtZzh5zZbUrQKEaIXNC3nlrWt_k_3LtKURS-ilw.vqq9kpXE-S1vwJRrwdfk1MgaiIcr3ZU0EQFDs3Fj3bQ?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://50.img.avito.st/image/1/1.70smCba-Q6JQp4GtdB6iamWoQaSUvkeilNkiqJhqTGCdqkE.AgRfCArhNiF-OsSxeyVp6Z22y4byh6f0hDKbIOAfi_0</t>
+        </is>
+      </c>
+      <c r="U377" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V377" t="inlineStr"/>
+      <c r="W377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>7596044291</v>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Офис</t>
+        </is>
+      </c>
+      <c r="D378" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E378" t="inlineStr"/>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//slyudyanka/kommercheskaya_nedvizhimost/ofis_7596044291?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJCTnpnYkZzVzlCQkoyVVQ1Ijt9PsRFqT8AAAA</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>В долгосрочную аренду сдается офис, находящийся по адресу Ленина 19, 30 кВ, на этаже есть раковина, туалет.
+Офис на федеральной трассе, первая линия, в одном здании с такими арендаторами, как «светофор» «империя», большой пешеходный трафик, так и автомобильный, бесплатная большая парковка.
+Звоните по мск времени.</t>
+        </is>
+      </c>
+      <c r="H378" s="1" t="n">
+        <v>46044.62894675926</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>ул. Ленина, 19</t>
+        </is>
+      </c>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>Слюдянка</t>
+        </is>
+      </c>
+      <c r="M378" t="inlineStr"/>
+      <c r="N378" t="inlineStr"/>
+      <c r="O378" t="inlineStr"/>
+      <c r="P378" t="inlineStr"/>
+      <c r="Q378" t="inlineStr"/>
+      <c r="R378" t="inlineStr"/>
+      <c r="S378" t="inlineStr">
+        <is>
+          <t>51.66372299;103.6995468</t>
+        </is>
+      </c>
+      <c r="T378" t="inlineStr">
+        <is>
+          <t>https://20.img.avito.st/image/1/1.5gIn4La-SutRTojkZ7uLP3BBSO2VV07rlTAr4ZmDRSmcQ0g.ILVuWCLzquU5hXR0N_34ZohPcpl6_3zUkFKGeBGEjT4?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://00.img.avito.st/image/1/1.sThIV7a-HdE--d_eJnXpBh_2H9f64BnR-od82_Y0EhPz9B8.42vGBJq6nf0LX3VOhjaK_Kv6RFLX7vTop-GpWa-Ge20?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://80.img.avito.st/image/1/1.7vFfBLa-QhgpqoAXDzuxzwilQB7ts0YY7dQjEuFnTdrkp0A.LGWsfvmqIwdX7TRtKtWop2MkXmc7fDUYiUDZ6f87JSo;https://20.img.avito.st/image/1/1.QJHSwLa-7Hikbi533qErrIVh7n5gd-h4YBCNcmyj47ppY-4.QJ9TehhiXmOz00pCKC4mSjsDqxFghKyz2ucNeULp73Q?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://10.img.avito.st/image/1/1.1gIoeba-eute17jkCEbHP3_YeO2azn7rmqkb4ZYadSmT2ng.Q4mfbgvnib9OJt26jSIw9mRIxrbqP3xDOen6siTZm6E?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U378" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V378" t="inlineStr"/>
+      <c r="W378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>843204186</v>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Офис, 69 м²</t>
+        </is>
+      </c>
+      <c r="D379" t="n">
+        <v>27000</v>
+      </c>
+      <c r="E379" t="inlineStr"/>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//bratsk/kommercheskaya_nedvizhimost/ofis_69_m_843204186?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiJCTnpnYkZzVzlCQkoyVVQ1Ijt9PsRFqT8AAAA</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>Предлагаем Офисное помещение площадью 69м2 3 комнаты и сан узел в здании Бизнесс Центра Берлога.</t>
+        </is>
+      </c>
+      <c r="H379" s="1" t="n">
+        <v>46044.57409722222</v>
+      </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>0e7ce4856bd6e67b7fb1a0fd06abe687</t>
+        </is>
+      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>жилой район Центральный, Южная ул., 8</t>
+        </is>
+      </c>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>Братск</t>
+        </is>
+      </c>
+      <c r="M379" t="inlineStr"/>
+      <c r="N379" t="inlineStr"/>
+      <c r="O379" t="inlineStr"/>
+      <c r="P379" t="inlineStr"/>
+      <c r="Q379" t="inlineStr"/>
+      <c r="R379" t="inlineStr"/>
+      <c r="S379" t="inlineStr">
+        <is>
+          <t>56.147937;101.607615</t>
+        </is>
+      </c>
+      <c r="T379" t="inlineStr">
+        <is>
+          <t>https://50.img.avito.st/image/1/1.q2FAZba-B4g2y8WHGmvxAAzEBY7y0gOI8rVmgv4GCEr7xgU.LoQXbutfYrU8wA9ky6FOOFG0HNZxTYjh9boXrW8DpA4;https://80.img.avito.st/image/1/1.6007_La-R6RNUoWrYd_bL3ddRaKJS0OkiSwmroWfSGaAX0U.uVGS6mdOVr6RHQlrV-wHfVuLdm2u4akXEBd6GMFDYgs;https://10.img.avito.st/image/1/1.o7OQLra-D1rmgM1V2nyS0dyPDVwimQtaIv5uUC5NAJgrjQ0.iNrjW_DHXH93G4yU4J55qhZdBqgrXTCFH2sx-l4laN4?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U379" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V379" t="inlineStr"/>
+      <c r="W379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>7732780430</v>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Офис, 14 м²</t>
+        </is>
+      </c>
+      <c r="D380" t="n">
+        <v>14000</v>
+      </c>
+      <c r="E380" t="inlineStr"/>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/ofis_14_m_7732780430?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>Сдаются помещения свободного назначения.
+В Центре города.
+Свободные площади:
+Первый этаж.
+115 — 61 м2 — 122 000 Р (арендные каникулы 3 месяца) мокрая точка/канализация отдельный вход.
+Второй этаж.
+204.1 — 26.1 м2 — 26 100 Р (мокра точка).
+205 — 37.7 м2 — 40 000 Р (мокрая точка).
+Четвертый этаж.
+400 — 33,8 м2 — 38 800 Р (мокрая точка).
+402 — 34,5 м2 — 34 500 (мокрая точка, сплит-система).
+409 — 14 м2 — 14 000 (сплит-система).
+Пятый этаж.
+507 — 21 м2 — 16 800 Р (мокрая точка).
+Цокольный этаж.
+006 — 30,4 м2 — 16 720 (склад).
+Не агентство! Без комиссий! Сдача от собственника!
+Работаем 25 Лет на рынке коммерческой недвижимости в Иркутске!
+Круглосуточная охрана.
+Видеонаблюдение внутри здания и снаружи.</t>
+        </is>
+      </c>
+      <c r="H380" s="1" t="n">
+        <v>46048.49037037037</v>
+      </c>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>i92485143</t>
+        </is>
+      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>ул. Декабрьских Событий, 55</t>
+        </is>
+      </c>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M380" t="inlineStr"/>
+      <c r="N380" t="inlineStr"/>
+      <c r="O380" t="inlineStr"/>
+      <c r="P380" t="inlineStr"/>
+      <c r="Q380" t="inlineStr"/>
+      <c r="R380" t="inlineStr"/>
+      <c r="S380" t="inlineStr">
+        <is>
+          <t>52.287891;104.300477</t>
+        </is>
+      </c>
+      <c r="T380" t="inlineStr">
+        <is>
+          <t>https://00.img.avito.st/image/1/1.BnVToLa-qpwlDmiTU_hJPwoBqJrhF66c4XDLlu3DpV7oA6g.7u-1gmyzKooPqcvW3H36TYfG5WeG5ncmZfNcg7LvWm4?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://30.img.avito.st/image/1/1.iVF50ba-JbgPf-e3Z9PFGyBwJ77LZiG4ywFEsseyKnrCcic.6bH5TsE-g3epO_JFNiwL1YyKMUPfr_FdGzzS7Gf7Oko?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://50.img.avito.st/image/1/1.Vtcjyra--j5VZDgxA8tV4GRr-DiRff4-kRqbNJ2p9fyYafg.Lc9mY3LPlCMP_3tFC2e_2yEnJuQo5mMOCi79ucaH4ew;https://80.img.avito.st/image/1/1.cE95b7a-3KYPwR6pFUYOQjXO3qDL2Nimy7-9rMcM02TCzN4.m7qTJtDY_NJnJWLHCtS19IegSSgzqNV5vqIc-L9JHkI;https://40.img.avito.st/image/1/1.eGcXCLa-1I5hphaBa2Uqa1up1oilv9COpdi1hKlr20ysq9Y.fxtnXHWjtp3cCgVc4CRkjlmm5WvVpctLrml-tFX4Rh0;https://00.img.avito.st/image/1/1.dX_tqra-2ZabBBuZi_tJc6EL25BfHd2WX3q4nFPJ1lRWCds.Yq3rvbqKwjB4Qy3ivZcIMf4jlIMT5J3VlzXS8xDNthQ?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://00.img.avito.st/image/1/1.sZ78bLa-HXeKwt94km6C1KXNH3FO2xl3Trx8fUIPErVHzx8.oaoLousXw0qzpYB7LQB11PcYtrygAmXnth6rGC8WSSc?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://80.img.avito.st/image/1/1.h3yLbba-K5X9w-maiRfaNtLMKZM52i-VOb1KnzUOJFcwzik.o9uLBEOFRVfbuULmPuPFLYqYKqEnIR94hjq4K-wfQoo;https://20.img.avito.st/image/1/1.-Up51ba-VaMPe5esB470ACB0V6XLYlGjywU0qce2WmHCdlc.XQkKwrVEQ3JfKQFWYGa3PNEE6BZ80GrWH5tL3NtvGj8?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U380" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V380" t="inlineStr"/>
+      <c r="W380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>7450666785</v>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Офис</t>
+        </is>
+      </c>
+      <c r="D381" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E381" t="inlineStr"/>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutskaya_oblast_homutovo/kommercheskaya_nedvizhimost/ofis_7450666785?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>Сдам помещение 19 м² на Кудинском Подворье! Все вопросы по телефону.
+Первая линия.</t>
+        </is>
+      </c>
+      <c r="H381" s="1" t="n">
+        <v>46025.64502314815</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>ул. Ленина, 1/4</t>
+        </is>
+      </c>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>Хомутово</t>
+        </is>
+      </c>
+      <c r="M381" t="inlineStr"/>
+      <c r="N381" t="inlineStr"/>
+      <c r="O381" t="inlineStr"/>
+      <c r="P381" t="inlineStr"/>
+      <c r="Q381" t="inlineStr"/>
+      <c r="R381" t="inlineStr"/>
+      <c r="S381" t="inlineStr">
+        <is>
+          <t>52.43602753;104.3900681</t>
+        </is>
+      </c>
+      <c r="T381" t="inlineStr">
+        <is>
+          <t>https://80.img.avito.st/image/1/1.UnOfGra-_prptDyVt0d5bua7_JwtrfqaLcqfkCF58Vgkufw.NUvvzyF8BnNlLRzH_0JLTk1MnO16xxenyCJbwszLsYQ;https://60.img.avito.st/image/1/1.E8_vb7a-vyaZwX0pxT8Hx4HOvSBd2LsmXb_eLFEMsORUzL0.KCD5P7EKchVVdDbbJiv-LHQlw5bi9C9fWAKixfi-Zf4</t>
+        </is>
+      </c>
+      <c r="U381" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V381" t="inlineStr"/>
+      <c r="W381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>3495941112</v>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Офис, 12 м²</t>
+        </is>
+      </c>
+      <c r="D382" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E382" t="inlineStr"/>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//usole-sibirskoe/kommercheskaya_nedvizhimost/ofis_12_m_3495941112?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>Сдам кабинет на 2 этаже ТД "Зодиак, чистый, светлый, панорамные окна. Туалет на этаже, здание в ночное время стоит под охраной, охраняемая территория, парковка.</t>
+        </is>
+      </c>
+      <c r="H382" s="1" t="n">
+        <v>46026.6580787037</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>Интернациональная ул., 77</t>
+        </is>
+      </c>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>Усолье-Сибирское</t>
+        </is>
+      </c>
+      <c r="M382" t="inlineStr"/>
+      <c r="N382" t="inlineStr"/>
+      <c r="O382" t="inlineStr"/>
+      <c r="P382" t="inlineStr"/>
+      <c r="Q382" t="inlineStr"/>
+      <c r="R382" t="inlineStr"/>
+      <c r="S382" t="inlineStr">
+        <is>
+          <t>52.752844;103.657697</t>
+        </is>
+      </c>
+      <c r="T382" t="inlineStr">
+        <is>
+          <t>https://80.img.avito.st/image/1/1.7DKHBba-QNvxq4LU0wrGUISnQt01skTbNdUh0TlmTxk8pkI.VHukekdk3feJNuG8C4AD-7-MYhQ8zpOoX6xQfVIQ5HQ;https://70.img.avito.st/image/1/1.M91_Lra-nzQJgF07FSIZv3yMnTLNmZs0zf7-PsFNkPbEjZ0.YmC1QCrFzd7dDwiZ242eNEDqyhPCrZ3NtoeqIgDsF40;https://80.img.avito.st/image/1/1.GIfluba-tG6TF3Zh2aky5eYbtmhXDrBuV2nVZFvau6xeGrY.6sN_lBhAPiwbeviMyjZC_HOWZ9w4vP1bw269NG4sEtA;https://50.img.avito.st/image/1/1.t3Nlw7a-G5oTbdmVB9WdEWZhGZzXdB-a1xN6kNugFFjeYBk.OK0SozrkEhHn2WtZDnLoP_CoQSf-3xA9BK4-Stb31z0</t>
+        </is>
+      </c>
+      <c r="U382" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V382" t="inlineStr"/>
+      <c r="W382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>718204169</v>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Офисные и складские помещения</t>
+        </is>
+      </c>
+      <c r="D383" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E383" t="inlineStr"/>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/ofisnye_i_skladskie_pomescheniya_718204169?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>Деловой центр «Ангара» сдает в аренду офисные и складские помещения от 24кв. М и более. Территория здания под круглосуточной охраной. Коммунальные услуги включены в стоимость. Свободно производственно-складское помещение 500кв. М. С возможностью выделить нужную вам площадь.</t>
+        </is>
+      </c>
+      <c r="H383" s="1" t="n">
+        <v>46034.44599537037</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>ул. Марии Ульяновой</t>
+        </is>
+      </c>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M383" t="inlineStr"/>
+      <c r="N383" t="inlineStr"/>
+      <c r="O383" t="inlineStr"/>
+      <c r="P383" t="inlineStr"/>
+      <c r="Q383" t="inlineStr"/>
+      <c r="R383" t="inlineStr"/>
+      <c r="S383" t="inlineStr">
+        <is>
+          <t>52.342719;104.228576</t>
+        </is>
+      </c>
+      <c r="T383" t="inlineStr">
+        <is>
+          <t>https://50.img.avito.st/image/1/1.Y1Go9La_z7jeWg234uFqXjxXyb4KUc--bTTFst5aDbceVw.kA1u_vng6wEF1qI1u8I4t_dpiNU_eeA3K6GiRSmMAfU;https://20.img.avito.st/image/1/1.IuSdfra_jg3r0EwC1Wor6wndiAs_244LWL6EB-vQTAIr3Q.BxJfwveRbmfkYLek8mfbrhcwanQCA--oIC5CHmjD-k0?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://60.img.avito.st/image/1/1.8BcZ17a_XP5veZ7xdcz5GI10Wvi7clz43BdW9G95nvGvdA.VfelmSco2LLasWdBADDiK3Go_g5T1ISKJONnkmDZfNM;https://50.img.avito.st/image/1/1.WsBrnLa_9ikdMjQmU4VTz_8_8C_JOfYvrlz8Ix0yNCbdPw.rLprubBeBbmKtsBMEOr4fmLdt3lltwCz9yBX_AAr3wA;https://10.img.avito.st/image/1/1.YQJP_ba_zes5Uw_kAeRoDdtey-3tWM3tij3H4TlTD-T5Xg.Vz8MY_SbBKujUxRbgdDtbrKv91TEKqeHwJMFFPhXxSA?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://70.img.avito.st/image/1/1.IBcZ17a_jP5veU7xVc8pGI10ivi7coz43BeG9G95TvGvdA.77gWevIvcHYBvLLUyPWmqxS9CR8TKZUjIfHxo-aK3qY;https://10.img.avito.st/image/1/1._QUhNra_UexXmJPjVyn0CrWVV-qDk1Hq5PZb5leYk-OXlQ.S0f5TAYW1GSfMXkFyJ_0mkmQiOtBWcGoMeX_CB39Qf0?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U383" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V383" t="inlineStr"/>
+      <c r="W383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>4659783390</v>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Свободного назначения, 14 м²</t>
+        </is>
+      </c>
+      <c r="D384" t="n">
+        <v>11500</v>
+      </c>
+      <c r="E384" t="inlineStr"/>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//angarsk/kommercheskaya_nedvizhimost/svobodnogo_naznacheniya_14_m_4659783390?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>Сдам В Аренду Кабинеты.
+Кабинет с окном.
+Подойдёт для мастера маникюра, педикюра.
+Массажиста и косметолога.
+Чистый, светлый кабинет.
+11 500.
+Аренда Кресла место для Парикмахера.
+Чистая уютная студия красоты, с дружелюбным коллективом.
+7000.
+Также требуется мастера маникюра.
+На аренду или процент.
+Парикмахер универсал %.
+Доступ 24/7.</t>
+        </is>
+      </c>
+      <c r="H384" s="1" t="n">
+        <v>46032.58478009259</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>192-й квартал, 23</t>
+        </is>
+      </c>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>Ангарск</t>
+        </is>
+      </c>
+      <c r="M384" t="inlineStr"/>
+      <c r="N384" t="inlineStr"/>
+      <c r="O384" t="inlineStr"/>
+      <c r="P384" t="inlineStr"/>
+      <c r="Q384" t="inlineStr"/>
+      <c r="R384" t="inlineStr"/>
+      <c r="S384" t="inlineStr">
+        <is>
+          <t>52.50630951;103.8399811</t>
+        </is>
+      </c>
+      <c r="T384" t="inlineStr">
+        <is>
+          <t>https://40.img.avito.st/image/1/1.PpfgW7a-kn6W9VBxkG9u9qX6kHhS7JZ-UovzdF44nbxb-JA.ROFYhKYfb0QlZhSeN32EmctVlW-Gcl5po14utArrvoo;https://20.img.avito.st/image/1/1.RRBUILa-6fkijiv2UgkhcRGB6__ml-355vCI8-pD5jvvg-s.oZX_hC-WwTaQ3avwdg96qelwYkFQzYzsQafw6O6wBr4?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://20.img.avito.st/image/1/1.XQkGWLa-8eBw9jPvMHEKaEP58-a07_XgtIiQ6rg7_iK9-_M._7iU0aMRfpXBJf7MPN6PDlsnIqdhZn3m64_DDKKGbJk?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://40.img.avito.st/image/1/1.wVeIgba-bb7-L6-xhraNN80gb7g6Nmm-OlEMtDbiYnwzIm8.UUuaZ8BIHqDjBqGRoMPKXqRU8u2gizONa-V-qk8t-4Q;https://50.img.avito.st/image/1/1.NODHUra-mAmx_FoGo3ZFgILzmg915ZwJdYL5A3kxl8t88Zo.rgWcwcduarzYVcF3srgFvPmjorKNuttL2HTIExx2PPc;https://60.img.avito.st/image/1/1.prvs37a-ClKacchdrOHD2ql-CFReaA5SXg9rWFK8BZBXfAg.B-evMFNrgxFEmNpAj3Y2e996PaXyNDy3PfkfgpRiI9A;https://00.img.avito.st/image/1/1.8mxyi7a-XoUEJZyKGvyBDDcqXIPAPFqFwFs_j8zoUUfJKFw.HxlAeRFzBfEPr1GijiXwKJ_iBy3q-ZdeQJvdti_UZ8o?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://00.img.avito.st/image/1/1.4gErS7a-Tuhd5YznY2TLT3DqTO6Z_EromZsv4pUoQSqQ6Ew.KDbOCxHP_i3MwMPsZWbR1r6ZKcH49RFbDWR5aNdMOwM?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://60.img.avito.st/image/1/1.CAgFT7a-pOFz4WbuGVcSQF7upue3-KDht5_F67ssqyO-7KY.Ddfzw2SL8SttgAqs-1gxBMOY1u7IsNTJ9Xn5dRTIG-Y;https://40.img.avito.st/image/1/1.VGxgaba--IUWxzqKRGg8YnzI-oPS3vyF0rmZj94K90fbyvo.ZH5CDHI4cRzVryHVnY1QuZsxJuds_E38gLxIy8FIdT0;https://00.img.avito.st/image/1/1.gazirba-LUWUA-9K7Ium4rkML0NQGilFUH1MT1zOIodZDi8.RfyIsJn4vHa_hUfboBOCLrsTS2SB8hqwRz-EH9rNxt0?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://70.img.avito.st/image/1/1.6TLmPLa-RduQkofUuBeHPPqdR91Ui0HbVOwk0VhfShldn0c.mxFu2MMUvD2DyMiGLiByg3eXYB9ZbkIbzrP9uBC0-ys;https://10.img.avito.st/image/1/1.BmUk17a-qoxSeWiDJNNyKH92qIqWYK6MlgfLhpq0pU6fdKg.Dh-5A0bnpBKoWgvWFHD5go7okfdvW_JNZvzevs54XFk?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://90.img.avito.st/image/1/1.fswlg7a-0iVTLRAqVcoY2j0i0COXNNYll1OzL5vg3eeeINA.6BEqW5Womzmt0DCl1smLcD3WjER_7x4NA2fcI_rYlRs;https://10.img.avito.st/image/1/1.mCOPB7a-NMr5qfbFs0n4NZemNsw9sDDKPddVwDFkOwg0pDY.76Jy3VuZlDEi5fouKkF4h-DipQNqwROs1OGWGj3vCQE?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://00.img.avito.st/image/1/1.RLmMMLa-6FD6nipfiDUF99eR6lY-h-xQPuCJWjJT55I3k-o.q-WKki9_QkmNyzyoBCA4XU9nTw9qNQ6prGdNHyji7QY?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://90.img.avito.st/image/1/1.YyERbra-z8hnwA3HW292Y1zPzc6j2cvIo76uwq8NwAqqzc0.K0_G3hudRmWCF2QnCzgNPHc2B0CPfZS0tAlfMppZAGU;https://30.img.avito.st/image/1/1.scyrvLa-HSXdEt8qxYKnjOYdHyMZCxklGWx8LxXfEucQHx8.OOUjfIcNFZZZ90rXFuScCA-MBN1hVJiIuLLU7wIFmnk?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U384" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V384" t="inlineStr"/>
+      <c r="W384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>7576580197</v>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Офисы свободного назначения от 12 м² до 67 м²</t>
+        </is>
+      </c>
+      <c r="D385" t="n">
+        <v>39600</v>
+      </c>
+      <c r="E385" t="inlineStr"/>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/ofisy_svobodnogo_naznacheniya_ot_12_m_do_67_m_7576580197?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>Добpый день.
+Сдаются в аренду офисные помещения свободного назначения современном бизнес-центре «Собрaниe». Бизнес-центр pacположeн в cамом центpе г. Иpкутскa, нa ул. Kapла Мapксa д. 40, и оснaщeн большой и удoбной паpкoвкoй и удобными пoдъeздными путями.
+Пpямая apeнда от собственника.
+Кабинетная нарезка.
+Большие помещения с возможность перепланировки.
+Офисы площадью от 12 кв. М до 67 кв. М.
+Арендная ставка от 990 рублей за кв. М.
+Заявки принимаются:
+по номеру телефона, указанному в объявление.
+В личные сообщения.</t>
+        </is>
+      </c>
+      <c r="H385" s="1" t="n">
+        <v>46034.68392361111</v>
+      </c>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>d07211af1dee96b075ff3c2ff9af02c2</t>
+        </is>
+      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>ул. Октябрьской Революции, 1</t>
+        </is>
+      </c>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M385" t="inlineStr"/>
+      <c r="N385" t="inlineStr"/>
+      <c r="O385" t="inlineStr"/>
+      <c r="P385" t="inlineStr"/>
+      <c r="Q385" t="inlineStr"/>
+      <c r="R385" t="inlineStr"/>
+      <c r="S385" t="inlineStr">
+        <is>
+          <t>52.291372;104.297099</t>
+        </is>
+      </c>
+      <c r="T385" t="inlineStr">
+        <is>
+          <t>https://60.img.avito.st/image/1/1.Ood8gLa-lm4KLlRhBNw4zxAhlGjON5JuzlD3ZMLjmazHI5Q.HGWFz3E3Eq3YrVdAGryvfyJiLvsHpA9ZSU06JiexNrY;https://50.img.avito.st/image/1/1.9Dtt5La-WNIbSprdCeOccgFFWtTfU1zS3zQ52NOHVxDWR1o.1TSClATQWPyNyiK2A3Volp0Tv0covmRsWeR6Ef_Trsk;https://90.img.avito.st/image/1/1.WFwALra-9LV2gDa6PBNJFWyP9rOymfC1sv6Vv75N-3e7jfY.ixOkkacITc8EOMhdj370bv2i-9FSlazAuyGWV5wte94;https://30.img.avito.st/image/1/1.tt1m9La-GjQQWtg7Bv7TlApVGDLUQx401CR7PtiXFfbdVxg.isKRaS9lBLxEYpohYOzyMG3eQM4C1SDxwl7E8YA9ZM8?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://50.img.avito.st/image/1/1.-iO1z7a-VsrDYZTFzZj5a9luVMwHeFLKBx83wAusWQgObFQ.P2t_d4iPV9tl-bE6n2SPJ0THl8oQtyciVTff2Li5tRc;https://20.img.avito.st/image/1/1.RrOKEba-6lr8vyhViiQz3Mew6Fw4pu5aOMGLUDRy5Zgxsug.Sx-cuKgOPdX-l6ZM0GnjKQo6TLy8Y5AQBro8Ogs4kuM?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://90.img.avito.st/image/1/1.-omFb7a-VmDzwZRv_TSs4cjOVGY32FJgN783ajsMWaI-zFQ.OJol35UezdgNeuOVdGfZvFFi5oUZcZqR_-m8mo-4jOQ;https://00.img.avito.st/image/1/1._3y-2ra-U5XIdJGazJ3EFPN7UZMMbVeVDAoynwC5XFcFeVE.Cz8LkCiGfB2NUjvvSuPST_VXtbJyYrcECE8mWtw-H-U?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://30.img.avito.st/image/1/1.tVwB6ra-GbV3RNu6Z5jlF21LG7OzXR21szp4v7-JFne6SRs.S5PA8I3r1kYjkKdC0_3BIB_CJ0crSqDAOaxfY8p0asY?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://90.img.avito.st/image/1/1.ZE4aeLa-yKds1gqoXgFIBHbZyqGoz8ynqKipraQbx2Wh28o.L9UG_dN6NGTNUM_QCmUvd3Zs-ekrWxVMNnxpmzuzztM;https://80.img.avito.st/image/1/1.THyyeLa-4JXE1iKapikFNt7Z4pMAz-SVAKiBnwwb71cJ2-I.MUT2IDnyQNOsmyKdcW5BrIuEf-QVGLy0TdAxldRhbj0;https://70.img.avito.st/image/1/1.1t1nrLa-ejQRArg7R8e5lAsNeDLVG3401XwbPtnPdfbcD3g.F4px5SNZdm3qemMrdaloZkOTYy80pBXAjpp3Rv5__bA;https://10.img.avito.st/image/1/1.HyAczra-s8lqYHHGLs5WanBvsc-uebfJrh7Sw6KtvAunbbE.Lronia4yPJMoNVDJqF8dxaOXu7P5_qS8pFkmSGzhOfI?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://00.img.avito.st/image/1/1.mFjB7ra-NLG3QPa-_cyREK1PNrdzWTCxcz5Vu3-NO3N6TTY.jkbEMoqG3CgXGWHkisg4pfbbG171yunYkMuYj6XTMUY?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://90.img.avito.st/image/1/1.piZdlba-Cs8rO8jAHe-ubjE0CMnvIg7P70VrxeP2BQ3mNgg.qNjloSZkFL70IWSQ1jTt-InERzJtR9mjbNoXPBSSIbk;https://90.img.avito.st/image/1/1.u01vBLa-F6QZqtWrFSa1BQOlFaLdsxOk3dR2rtFnGGbUpxU.l3rCfAk2kVYQyJLMb4aXu3tvusaSYdN-Opo_BdlsWEA;https://80.img.avito.st/image/1/1.5DCdR7a-SNnr6YrW2XTUePHmSt8v8EzZL5cp0yMkRxsm5Eo.bk6Gdxcg46BhIhqO9q8Q6MMnhA3FkK9JleaRSWzpuWI;https://80.img.avito.st/image/1/1.GVwt17a-tbVbeXe6E781FkF2t7OfYLG1nwfUv5O0uneWdLc.dfGuy_wWiZYw5oosSh91jSfqQi4EJDvAIFZhMXKdab0;https://50.img.avito.st/image/1/1.ijeVz7a-Jt7jYeTRjZGDf_luJNgneCLeJx9H1CusKRwubCQ.DwGRQM-52tXGRqACTIq9PDZRZPvJjmO5m-Lgyh9Hlfg</t>
+        </is>
+      </c>
+      <c r="U385" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V385" t="inlineStr"/>
+      <c r="W385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>817761893</v>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Офисное помещение, 20 м²</t>
+        </is>
+      </c>
+      <c r="D386" t="n">
+        <v>27300</v>
+      </c>
+      <c r="E386" t="inlineStr"/>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/ofisnoe_pomeschenie_20_m_817761893?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>Представляем вам уникальную возможность: в самом сердце Иркутска сдается в аренду современный офис в бизнес-центре «Максим» по адресу улица Горького, 36Б. Этот уютный офис площадью 20 квадратных метров находится на 5 этаже и готов стать идеальным местом для вашего бизнеса.
+Помещение удобной правильной формы, наполнено естественным светом, что создает атмосферу для продуктивной работы и вдохновения. Современные кондиционеры обеспечивают комфорт в любое время года, а установленная пожарная сигнализация гарантирует вашу безопасность. В офисе предусмотрен отдельный санузел, что добавляет удобства в повседневные дела.
+Вы сможете работать в удобное для вас время, ведь доступ в здание осуществляется круглосуточно. Также для вашего спокойствия предусмотрено видеонаблюдение и охрана, что позволит вам сосредоточиться на важном.
+Бизнес-центр «Максим» оборудован современными лифтами, а наличие подземной парковки избавит вас от проблем с поиском места для автомобиля — это удобно как для вас, так и для ваших клиентов.
+Аренда осуществляется напрямую от собственника без лишних посредников, что делает процесс простым и прозрачным. Стоимость аренды — 27 300 рублей в месяц без учета Ндс. Кроме того, у вас есть возможность арендовать дополнительные площади, если в будущем возникнет такая необходимость.
+Не упустите шанс обеспечить своему бизнесу комфортное и престижное пространство! Запланируйте просмотр уже сегодня и сделайте шаг к успешному будущему вашего дела!</t>
+        </is>
+      </c>
+      <c r="H386" s="1" t="n">
+        <v>46034.55894675926</v>
+      </c>
+      <c r="I386" t="inlineStr">
+        <is>
+          <t>i32676858</t>
+        </is>
+      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>ул. Горького, 36Б</t>
+        </is>
+      </c>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M386" t="inlineStr"/>
+      <c r="N386" t="inlineStr"/>
+      <c r="O386" t="inlineStr"/>
+      <c r="P386" t="inlineStr"/>
+      <c r="Q386" t="inlineStr"/>
+      <c r="R386" t="inlineStr"/>
+      <c r="S386" t="inlineStr">
+        <is>
+          <t>52.284514;104.286302</t>
+        </is>
+      </c>
+      <c r="T386" t="inlineStr">
+        <is>
+          <t>https://20.img.avito.st/image/1/1.yEFrdra-ZKgd2Kand330DyvXZq7ZwWCo2aYFotUVa2rQ1WY.yTL5LQP4KV1rwSU65PrzuuZH_QCbS3wUM73UvcpvblQ?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://40.img.avito.st/image/1/1.jlEV9ba-IrhjW-C3Ba-8HlVUIL6nQia4pyVDsquWLXquViA.LUOJdYFjfHQ7VK79NtGTatqoV7apVFKYT-EbmuKmreY;https://40.img.avito.st/image/1/1.LTT0Fra-gd2CuEPSomIVe7S3g9tGoYXdRsbg10p1jh9PtYM.TXAW3Px6-k9tctNtWrzRs0wUBclul4tFQq4wqVePw8c;https://60.img.avito.st/image/1/1.9ZEA3ra-WXh2cJt3ZrXv2UB_W36yaV14sg44cr69Vrq7fVs.b6TEN0TVS9_aX2UOrlVx8KBlzjLhrdROwwj_AfyvfAA;https://80.img.avito.st/image/1/1.BZSFIba_qX3zj2tygzVRziaCr3snhKl7QOGjd_OPa3Izgg.PvKgXaHkksCmN9ivxkjhDff_vD2eTlWknb4TDPVPiqM;https://80.img.avito.st/image/1/1.PNQvYra_kD1ZzFIyW3ZojozBljuNx5A76qKaN1nMUjKZwQ.k1xKn5PftXtDoqqHnYYCMrY8RuU2V22p0MCOCMjakEA;https://00.img.avito.st/image/1/1.Ldg03La_gTFCckM-Ysh5gpd_hzeWeYE38RyLO0JyQz6Cfw.qSAnGO4-keOuu8k4iDeB0joW__HvF1J2rWXqOIfeWjY?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U386" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V386" t="inlineStr"/>
+      <c r="W386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>7926899737</v>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Сдается помещение с мокрой точкой на лисихе, цокол</t>
+        </is>
+      </c>
+      <c r="D387" t="n">
+        <v>36000</v>
+      </c>
+      <c r="E387" t="inlineStr"/>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/sdaetsya_pomeschenie_s_mokroy_tochkoy_na_lisihe_tsokol_7926899737?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>Лисиха, цоколь, доступ 24/7 есть мокрая точка. Сан узел. 36 т. Р включая коммунальные платежи (43кв)пишите в ватсап или я вам напишу.</t>
+        </is>
+      </c>
+      <c r="H387" s="1" t="n">
+        <v>46033.2034375</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>Байкальская ул., 236Б/2</t>
+        </is>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M387" t="inlineStr"/>
+      <c r="N387" t="inlineStr"/>
+      <c r="O387" t="inlineStr"/>
+      <c r="P387" t="inlineStr"/>
+      <c r="Q387" t="inlineStr"/>
+      <c r="R387" t="inlineStr"/>
+      <c r="S387" t="inlineStr">
+        <is>
+          <t>52.25235405147983;104.32615609872731</t>
+        </is>
+      </c>
+      <c r="T387" t="inlineStr">
+        <is>
+          <t>https://70.img.avito.st/image/1/1.16DaGba-e0mst7lG-DqC35S4eU9orn9JaMkaQ2R6dIthunk.7qbbCRmwx-boasPn1V1bM0GgYFSAd0ci0ALIqn1sKyE;https://10.img.avito.st/image/1/1.y16Uh7a-Z7fiKaW4jpTkINomZbEmMGO3JlcGvSrkaHUvJGU.-mMLQ_dwfYf4qQe6jME64XuRQUI584mNMkgVfii91eU?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://20.img.avito.st/image/1/1.YbIkeLa-zVtS1g9UamEzzWrZz12Wz8lblqisUZobwpmf288.d9GaJh4gjn5dB2AbebFgdgtbaRZJkjBMfxT-4bRFBKk?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://30.img.avito.st/image/1/1.MqLk-ba-nkuSV1xEjPlx3KpYnE1WTppLVin_QVqakYlfWpw.Ce96mU7I7IcE9T5W6ptUt96-2WC8_tbQSeEGqWiuLCI?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://60.img.avito.st/image/1/1.THp-Nba-4JMImyKcaigIBDCU4pXMguSTzOWBmcBW71HFluI.PFfWUz7IbQ67xdhr5TnicGxMUZk9WMx3A7q9GOFSHDQ;https://90.img.avito.st/image/1/1.tce-era-GS7I1Nsh2EDau_DbGygMzR0uDKp4JAAZFuwF2Rs.PXYJgCM3WwrY8lteszsZvNlApsz3L0xSAPnY8uPKz90;https://90.img.avito.st/image/1/1.uGLSVba-FIuk-9aErmvBH5z0Fo1g4hCLYIV1gWw2G0lp9hY.aRecko5TWO-3Abyn_b6XfShx1Ox1bJyemOKf0CyW8jI;https://80.img.avito.st/image/1/1.xZkPj7a-aXB5Iat_CYTQ5UEua3a9OG1wvV8IerHsZrK0LGs._1YzwSHVE8M6xF4QtE6RT4lKa4ZmDmU1lClGmJT5c-M</t>
+        </is>
+      </c>
+      <c r="U387" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V387" t="inlineStr"/>
+      <c r="W387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>7828299451</v>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Офис</t>
+        </is>
+      </c>
+      <c r="D388" t="n">
+        <v>23580</v>
+      </c>
+      <c r="E388" t="inlineStr"/>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/ofis_7828299451?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>Сдается помещение, находящееся в офисном здании напротив аэропорта. У здания имеется закрытая парковка, на офисное помещение бесплатно выделяется одно парковочное место. Рядом со зданием также имеется платная парковка, на которой можно разместить дополнительные автомобили в случае необходимости. Само офисное помещение расположено на 2 этаже, свободно от мебели, теплое и светлое, имеет удобное зонирование на две части. Одну часть можно использовать в качестве кабинета, вторую под архив, мини-кухню, гардеробную, кассу или иное помещение вспомогательного назначения. Здание имеет хорошую транспортную доступность, от него легко можно выехать как в сторону ул. Советсклй, так и в сторону ул. Байкальской, мкр. Солнечный, а также на Байкальский тракт.</t>
+        </is>
+      </c>
+      <c r="H388" s="1" t="n">
+        <v>46044.62866898148</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>ул. Ширямова, 10/7</t>
+        </is>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M388" t="inlineStr"/>
+      <c r="N388" t="inlineStr"/>
+      <c r="O388" t="inlineStr"/>
+      <c r="P388" t="inlineStr"/>
+      <c r="Q388" t="inlineStr"/>
+      <c r="R388" t="inlineStr"/>
+      <c r="S388" t="inlineStr">
+        <is>
+          <t>52.27397523688386;104.35128464147587</t>
+        </is>
+      </c>
+      <c r="T388" t="inlineStr">
+        <is>
+          <t>https://60.img.avito.st/image/1/1.L0yI8La-g6X-XkGq2thUdcdRgaM6R4elOiDirzaTjGczU4E.OHKFnZsL40dKE6qv6mSHkBCVe1JFJRB36WjkS4YrgbA;https://80.img.avito.st/image/1/1.KB7817a-hPeKeUb4oNdRJ7N2hvFOYID3Tgfl_UK0izVHdIY.tCvh7nNZtGJ9DS4CYPH_03iazFNxNFokonxy6pG2ees;https://20.img.avito.st/image/1/1.peH37ba-CQiBQ8sHsZvI2bhMCw5FWg0IRT1oAkmOBspMTgs.rb3J2kMilVXeb7cFPcr2Vw5oaQY9aq8vtV2W5A3LHF0?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://40.img.avito.st/image/1/1.E46BLra-v2f3gH1oq1YXsc6PvWEzmbtnM_7ebT9NsKU6jb0.PEESoKJRQUMKnmduOxCy95uv6mjYHmS_hyBYSsNh_zU;https://60.img.avito.st/image/1/1.Tk0iira-4qRUJCCrMo8dc20r4KKQPeakkFqDrpzp7WaZKeA.fmu95iIz8c1Yl0DMa7mM_oxkC3JIssjbCNW2i24XaiE;https://80.img.avito.st/image/1/1.tsIQ2La-GitmdtgkcOLi_F95GC2ibx4rogh7Ia67Femrexg.rc8TfY45iL2Q2mOEs_qQqrabx4fsoNdnwKPHFbP2WgE;https://00.img.avito.st/image/1/1.YHt8yra-zJIKZA6dMJM1RTNrzpTOfciSzhqtmMKpw1DHac4.4gNffJgfCNrfKHnsPVmQivCrwE7CuSLdoGxFF-DM9mA?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://60.img.avito.st/image/1/1.piUoira-CsxeJMjDaKS1HWcrCMqaPQ7MmlprxpbpBQ6TKQg.dS5Ap7KRGSHBVj-t5mCKGjCUZXSqAqdZSewRA5Uj5VA;https://30.img.avito.st/image/1/1.xKRKBLa-aE08qqpCTi-8nQWlakv4s2xN-NQJR_RnZ4_xp2o.OEmiA9z0lrgEfpDDcUATPdIUJzunVyZPr5JeOsDbYL0?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://80.img.avito.st/image/1/1.IX9fDLa-jZYpok-ZESRcRhCtj5Dtu4mW7dzsnOFvglTkr48.zbUVOgbScLu4zmeIFJ3o9ubHugCndu52F2mcv3tbCVE;https://50.img.avito.st/image/1/1.weQifba-bQ1U068CLFbG223cbwuQymkNkK0MB5weYs-Z3m8.NB50bPXwOUE_6wxFmN2cfabxNEPs8nNjaOofJBO3EAU;https://20.img.avito.st/image/1/1.0nB-Eba-fpkIv7yWVmrRTzGwfJ_MpnqZzMEfk8BycVvFsnw.dSbhhjUoAXiW3jonBqQmcEYT43hFUx-_A34GKM7mNGM?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U388" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V388" t="inlineStr"/>
+      <c r="W388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>505296326</v>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Офис, 16.9 м²</t>
+        </is>
+      </c>
+      <c r="D389" t="n">
+        <v>12900</v>
+      </c>
+      <c r="E389" t="inlineStr"/>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//angarsk/kommercheskaya_nedvizhimost/ofis_16.9_m_505296326?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>Cдaем в аpeнду пoмещение свобoдногo назначения, пoд офис, проведение тренингов, мастер-классов, йоги и дp. ( в нaличии ecть пoмeщeния oт 8 до 46 м. Кв.),
+распoложенное пo адресу 94 квартал, д. 30 (въeзд c ул. Ворoшилoвa или 40 лет Октября).
+Кабинет также может испoльзоваться пoд маccаж, маникюp, пeдикюр, татуаж и др. Услуги кpасoты и здоpовья.
+Чтобы посмотреть кабинет, можно проехать в любой день в здание с 7 утра и до 23ч и вахтер покажет кабинеты.
+Apeнднaя плата помесячно (существует почасовая оплата кабинетов и зала, стоимость 800 руб/час от 2х часов).
+В наличии есть кабинеты от 10 кв. М.
+Собственник. Предоставляем юридический адрес.</t>
+        </is>
+      </c>
+      <c r="H389" s="1" t="n">
+        <v>46036.73974537037</v>
+      </c>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>i39459280</t>
+        </is>
+      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>94-й квартал, 30</t>
+        </is>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>Ангарск</t>
+        </is>
+      </c>
+      <c r="M389" t="inlineStr"/>
+      <c r="N389" t="inlineStr"/>
+      <c r="O389" t="inlineStr"/>
+      <c r="P389" t="inlineStr"/>
+      <c r="Q389" t="inlineStr"/>
+      <c r="R389" t="inlineStr"/>
+      <c r="S389" t="inlineStr">
+        <is>
+          <t>52.526183;103.882527</t>
+        </is>
+      </c>
+      <c r="T389" t="inlineStr">
+        <is>
+          <t>https://80.img.avito.st/image/1/1.Pv5y8ra-khcEXFAYAuJ7hhpTkBHARZYXwCLzHcyRndXJUZA._aoqCMWRURqNbsv5Amt35bS-ddzCttLHvynZw82BCAQ;https://00.img.avito.st/image/1/1.ARnoqba-rfCeB2__5o1DY4AIr_ZaHqnwWnnM-lbKojJTCq8.VvTEOlLuxxtjf-Hq26Rmyp41W2w-VvQjPhUITb3sIG4?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://20.img.avito.st/image/1/1.0vycEba-fhXqv7watGqgz9KwfBMupnoVLsEfHyJycdcnsnw.QqxFL2RwK4Lj0zIA-tk8KjKqc7rO1K-CuZqksYcE-mk?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://10.img.avito.st/image/1/1.pUmvqba-CaDZB8uv6fPgeOEIC6YdHg2gHXloqhHKBmIUCgs.eiXvmZQt_LZgAZJnYEs9QB8ZJNvXrAVhppXzWZ9T7g8?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://20.img.avito.st/image/1/1._f7nqba-UReRB5MYkdaPzqkIUxFVHlUXVXkwHVnKXtVcClM.8V0z-5vRSUwPX4rHdzrinm1G-N1x_vStxUuxfR1vB-0?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U389" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V389" t="inlineStr"/>
+      <c r="W389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>7761883156</v>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Свободного назначения, 65.5 м²</t>
+        </is>
+      </c>
+      <c r="D390" t="n">
+        <v>75000</v>
+      </c>
+      <c r="E390" t="inlineStr"/>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/svobodnogo_naznacheniya_65.5_m_7761883156?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>Сдам в долгосрочную аренду помещение на первом этаже в центре жилого района Союз. Площадь 62,5 м2, высота потолков 3 м. Новый ремонт. Стены под покраску, пол керамогранит, потолок звукоизолирован. За счет собственника будет выгорожен и наполнен сантехникой с\у, установлен счетчик. Размер по согласованию. Стоимость аренды в месяц 75000 руб. Подойдет под салон красоты, магазин, точку общепита, другой малый бизнес. Арендные каникулы 1,5 месяца на время завершения ремонта.</t>
+        </is>
+      </c>
+      <c r="H390" s="1" t="n">
+        <v>46034.533125</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>пр. Юрия Тена, 10</t>
+        </is>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M390" t="inlineStr"/>
+      <c r="N390" t="inlineStr"/>
+      <c r="O390" t="inlineStr"/>
+      <c r="P390" t="inlineStr"/>
+      <c r="Q390" t="inlineStr"/>
+      <c r="R390" t="inlineStr"/>
+      <c r="S390" t="inlineStr">
+        <is>
+          <t>52.253392;104.257511</t>
+        </is>
+      </c>
+      <c r="T390" t="inlineStr">
+        <is>
+          <t>https://60.img.avito.st/image/1/1.6Pd2jra-RB4AIIYRKomK4zIvRhjEOUAexF4lFMjtS9zNLUY.HdElUZ6zXcCVE0kaV07u7rnks6xzfBSHk-c5BJFUBtc;https://50.img.avito.st/image/1/1.tQzdGLa-GeWrttvquxK5Zpi5G-Nvrx3lb8h472N7Fidmuxs.e60C46LNxS9To_nC74LLrrhY8OFUWia5OxYigyKThRA;https://10.img.avito.st/image/1/1.QDSNuba-7N37Fy7SgcBEXsgY7ts_DujdP2mN1zPa4x82Gu4._WoomUFW0SDyXOkwP7gT6LF-mGSMBfGWB7ZCEvs6wu4?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://40.img.avito.st/image/1/1.G1i5Pra-t7HPkHW-gwoQMvyftbcLibOxC-7WuwdduHMCnbU._5nUicGBBbKYSLUoXsV8jMTgiQYT1bXxRMu9eQfkU-M;https://90.img.avito.st/image/1/1.76lPeLa-Q0A51oFPHSvlwwrZQUb9z0dA_agiSvEbTIL020E.WxmHbsnMPwX7Vayj4KR2aRc7Y0N74YipMCWT6kApqXE;https://70.img.avito.st/image/1/1.qCtOP7a-BMI4kcbNEmHQPwqeBsT8iADC_O9lyPBcCwD1nAY.ehMlvp3kGGjIZj6VZ5vaJLjOBhQ7mgW4_SH6f2LRMDs;https://90.img.avito.st/image/1/1.q4vGDba-B2Kwo8VtnE_Qn4KsBWR0ugNidN1maHhuCKB9rgU.Ajcw7mAaPE9CZLAfDYWodsqmZmLXZlkv6iqu-e-cVV8;https://40.img.avito.st/image/1/1.DSguuLa-ocFYFmPOOIxxPGoZo8ecD6XBnGjAy5DbrgOVG6M.fMahuVqLubOFQfMHkkI4b6Mbi-xk7_KyuUX0SnalDbc;https://70.img.avito.st/image/1/1.8px7HLa-XnUNspx6ExfK9T69XHPJq1p1ycw_f8V_UbfAv1w.82Hmk2Ea6mFboSDMm_31KVCFgRajkNQOxaSkDURasJA;https://20.img.avito.st/image/1/1.DwVPXLa-o-w58mHjXVQXbgr9oer966fs_YzC5vE_rC70_6E.8eDtvUhAYHVf40ftTpZvdU3fhtR7RnUi_0uG3Ieoebg?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://90.img.avito.st/image/1/1.C6QrCLa-p01dpmVCMTQGzm6ppUuZv6NNmdjGR5VrqI-Qq6U.ti91hqkImtaw3PMmMsTqtWqAruWfFqN5x9C_p4Sli3U;https://10.img.avito.st/image/1/1.cCs-P7a-3MJIkR7NUmIGP3qe3sSMiNjCjO-9yIBc0wCFnN4.ZmbSETwoDasab0HuYuGPLplE-cHG_oQB3NcEHfQx80Y?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://30.img.avito.st/image/1/1.ciYMJLa-3s96ihzAZFFIT0mF3Mm-k9rPvvS_xbJH0Q23h9w.IynjmPPqYa0yLaLTyXufvDac1nyduWflWG4pDnmaXbg?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://40.img.avito.st/image/1/1.c4v0jba-32KCIx1tnpwEn7As3WRGOttiRl2-aEru0KBPLt0.IUjKd5tiPi53qIFPQYmjNA0Gm_taVO2LOAwaKX7tsT8</t>
+        </is>
+      </c>
+      <c r="U390" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V390" t="inlineStr"/>
+      <c r="W390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>7612374739</v>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Офис, 49.5 м²</t>
+        </is>
+      </c>
+      <c r="D391" t="n">
+        <v>41000</v>
+      </c>
+      <c r="E391" t="inlineStr"/>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/ofis_49.5_m_7612374739?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>Помещение в центре города, в историческом здании, капитальный ремонт здания был в 2023 году, отдельный вход, парковка( под шлагбаум) рядом с входной дверью, светлое, 2 отдельных комнаты и кладовка, рядом ресторан и столовая.</t>
+        </is>
+      </c>
+      <c r="H391" s="1" t="n">
+        <v>46034.72613425926</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>Российская ул., 14А</t>
+        </is>
+      </c>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M391" t="inlineStr"/>
+      <c r="N391" t="inlineStr"/>
+      <c r="O391" t="inlineStr"/>
+      <c r="P391" t="inlineStr"/>
+      <c r="Q391" t="inlineStr"/>
+      <c r="R391" t="inlineStr"/>
+      <c r="S391" t="inlineStr">
+        <is>
+          <t>52.28585815;104.277092</t>
+        </is>
+      </c>
+      <c r="T391" t="inlineStr">
+        <is>
+          <t>https://90.img.avito.st/image/1/1.n-6fb7a-MwfpwfEIrSHf4_XOMQEt2DcHLb9SDSEMPMUkzDE.D1Yx_NsdR99KNEKfHXEQ08Cd0VnNBkDKHNR18WcFJeU;https://00.img.avito.st/image/1/1.71uzjba-Q7LFI4G94bqyVtksQbQBOkeyAV0iuA3uTHAILkE.NQE5moKWcTD-sXUkgi8CZmtv1axlqy-GpHcuh4zs8e4?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://90.img.avito.st/image/1/1.UkxGhLa-_qUwKjyqbq1mTywl_KP0M_ql9FSfr_jn8Wf9J_w._nsCjNKrAaT6ULdguTPflRcA2KFcOilbrxaHVWSxP5w;https://30.img.avito.st/image/1/1.8COLN7a-XMr9mZ7F5yylCMWWXsw5gFjKOec9wDVUUwgwlF4.pUXBR4AqglFbA7aLP5DGAdNrBWoscRtQP7TyeHXacC0?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://40.img.avito.st/image/1/1.oD7-kba-DNeIP87YspOdFrAwDtFMJgjXTEFt3UDyAxVFMg4.PZ2QK_p-K1HO2_2DzK-fGDZeckDGYZmxKstKpJZaCKw;https://80.img.avito.st/image/1/1.c_dAh7a-3x42KR0RKpYp3Q4m3RjyMNse8le-FP7k0Nz7JN0.6xkwuOFH04qIjoBsDB-fyNJHH0vYXJ0c56QcEPJD2gk;https://60.img.avito.st/image/1/1.mYjTs7a-NWGlHfdu7c3IoJ0SN2dhBDFhYWNUa23QOqNoEDc.Aoaqd3OTqPmAms7-38GHRyJ_d2u03FCNYQpr1HaaeLs;https://20.img.avito.st/image/1/1.AuD8sba-rgmKH2wG9OFAz7IQrA9OBqoJTmHPA0LSoctHEqw.GhNkPQOHxSesTrEjFKlZXIELfCk5ONI3VCiMbCwipBU?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://40.img.avito.st/image/1/1.UG_-l7a-_IaIOT6J0oYnRrA2_oBMIPiGTEedjED080RFNP4.Kl1Tq95hnoz17PLQRLRUYyVS_BvGd92L0FV88Pt6J3Q;https://30.img.avito.st/image/1/1.X6ogz7a-80NWYTFMEsJhgm5u8UWSePdDkh-SSZ6s_IGbbPE.M0m4L_q054XPM8ugH3OxWxjTyhCJEVkxAm0qVBCs05A?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://80.img.avito.st/image/1/1.5e2Ecra-SQTy3IsLwk2wxcrTSwI2xU0ENqIoDjoRRsY_0Us.ZfkdmP55gF8CvwdO39YZCczeezyODn4SzD2YU2co4qQ;https://10.img.avito.st/image/1/1.p4A24ra-C2lATMlmdLTur3hDCW-EVQ9phDJqY4iBBKuNQQk.Vd4cTPQ5cmgo1fwTcroZ1uUhADj-KEw8qdqBZpyhOiU?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://00.img.avito.st/image/1/1.Csm947a-piDLTWQvpb9N5vNCpCYPVKIgDzPHKgOAqeIGQKQ.V9QbOR1-ai7CH3y9bvT_ASieKRl_7qzwyh6M2ets4PY?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U391" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V391" t="inlineStr"/>
+      <c r="W391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>4197192048</v>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Офис, 11 м²</t>
+        </is>
+      </c>
+      <c r="D392" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E392" t="inlineStr"/>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//bratsk/kommercheskaya_nedvizhimost/ofis_11_m_4197192048?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>Офис 11кв. М.-11000₽, автостоянка, пожарная и охранная сигнализация, видеонаблюдение, коммунальные услуги включены, район автостанции-хорошая транспортная развязка(мебели в офисе нет)мокрая точка находится не далеко от кабинета, возможна аренда на двоих в эту же стоимость, можно подключить.
+Интернет.</t>
+        </is>
+      </c>
+      <c r="H392" s="1" t="n">
+        <v>46028.98362268518</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>Центральный район, Южная ул., 19</t>
+        </is>
+      </c>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>Братск</t>
+        </is>
+      </c>
+      <c r="M392" t="inlineStr"/>
+      <c r="N392" t="inlineStr"/>
+      <c r="O392" t="inlineStr"/>
+      <c r="P392" t="inlineStr"/>
+      <c r="Q392" t="inlineStr"/>
+      <c r="R392" t="inlineStr"/>
+      <c r="S392" t="inlineStr">
+        <is>
+          <t>56.14840698;101.6110306</t>
+        </is>
+      </c>
+      <c r="T392" t="inlineStr">
+        <is>
+          <t>https://30.img.avito.st/image/1/1.drdui7a-2l4YJRhRDv5Q3i8q2FjcPN5e3Fu7VNDo1ZzVKNg.VGk45NbzQ_CMpnJGZY009tA7UoD1mqZl2xhKfKU2hxY?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://90.img.avito.st/image/1/1.GYKY0La-tWvufndkpsxI6Nlxt20qZ7FrKgDUYSazuqkjc7c.neldP-d7mlsY2j1x0_kzykMzEt2o9GsVMVv9p1e_CVU;https://10.img.avito.st/image/1/1.4ieftra-Ts7pGIzB16WRT94XTMgtAUrOLWYvxCHVQQwkFUw.AJJmgELOmT3qLGaUghWtY9g8QHoLZfJMToXeapgHIsc?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U392" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V392" t="inlineStr"/>
+      <c r="W392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>7332227862</v>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Свободного назначения, 44.3 м²</t>
+        </is>
+      </c>
+      <c r="D393" t="n">
+        <v>26000</v>
+      </c>
+      <c r="E393" t="inlineStr"/>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/svobodnogo_naznacheniya_44.3_m_7332227862?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>Сдается помещение, по адресу: г. Иркутск, ул. Партизанская, д.73 (центр города).
+Цоколь, без окон.
+Высокий, а/м и пешеходный трафик.
+В арендную плату включены все коммунальные платежи.
+Дополнительно оплачивается только электроэнергия (по счетчику).
+Просмотр возможен в любое удобное для Вас время по предварительной договоренности.
+Ваш эксперт по недвижимости Фомина Татьяна Евгеньевна (Фте).</t>
+        </is>
+      </c>
+      <c r="H393" s="1" t="n">
+        <v>46035.45822916667</v>
+      </c>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>i77916423</t>
+        </is>
+      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>Партизанская ул., 73</t>
+        </is>
+      </c>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M393" t="inlineStr"/>
+      <c r="N393" t="inlineStr"/>
+      <c r="O393" t="inlineStr"/>
+      <c r="P393" t="inlineStr"/>
+      <c r="Q393" t="inlineStr"/>
+      <c r="R393" t="inlineStr"/>
+      <c r="S393" t="inlineStr">
+        <is>
+          <t>52.278299;104.305912</t>
+        </is>
+      </c>
+      <c r="T393" t="inlineStr">
+        <is>
+          <t>https://20.img.avito.st/image/1/1.vldlNLa-Er4TmtCxFRLkShWVELjXgxa-1-RztNtXHXzelxA.DPrnmjQUG0WAXWz_p7JKdK7q5p2jrU2h7m-L6LL1uNw?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://30.img.avito.st/image/1/1.WtIq3ra-9jtccDQ0Epdzz1p_9D2YafI7mA6XMZS9-fmRffQ.xdTcDupCezOvhOOIIuFH32OHKsIO9cz18hG7yZVH0wI?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://60.img.avito.st/image/1/1.OtOz3ra-ljrFcFQ1y9Zfz8N_lDwBaZI6AQ73MA29mfgIfZQ.iXJHbedtiFKUu3yAwDN-O3BpygyYoZG897f3zu27juU;https://20.img.avito.st/image/1/1.VOqR7ba--APnQzoMtZwx9uFM-gUjWvwDIz2ZCS-O98EqTvo.FgBI1YE-36aB9dCyvNoZXc0qQSX1zR0mYEqadC9QTD4?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://00.img.avito.st/image/1/1.sSd7Sra-Hc4N5N_BFXCaOgvrH8jJ_RnOyZp8xMUpEgzA6R8.NvCC4Ain5q3_AxYNwE_cZNiC5rmPw5Z_v_QMqHaUHhg?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://10.img.avito.st/image/1/1.6QJ6-La-ResMVofkJPPLHwpZR-3IT0HryCgk4cSbSinBW0c.g35CA0hLkYTzgGtrQulfA7A6d-q0PweAT6Np9wSN3N4?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://10.img.avito.st/image/1/1.5KW22La-SEzAdopD8veDucZ5SkoEb0xMBAgpRgi7R44Ne0o.nqvo-rLzkeptQo9BKMXMfhsc8F1zEInnncx4Oi19b3U?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://60.img.avito.st/image/1/1._-vzBLa-UwKFqpENgVuZ94OlUQRBs1cCQdQyCE1nXMBIp1E.ooR52ibmkRf0jxhAGPPos3_CispisXwAB72oRx3J-Ik</t>
+        </is>
+      </c>
+      <c r="U393" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V393" t="inlineStr"/>
+      <c r="W393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>7845983742</v>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Свободного назначения (офис) в аренду, 12.4 м²</t>
+        </is>
+      </c>
+      <c r="D394" t="n">
+        <v>14880</v>
+      </c>
+      <c r="E394" t="inlineStr"/>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/svobodnogo_naznacheniya_ofis_v_arendu_12.4_m_7845983742?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>Сдается помещение 12.4 м² на 2 этаже в центре Иркутска | Под офис, услуги, пункт выдачи | От собственника.
+Сдается помещение свободного назначения 12.4 кв. М на 2 этаже в самом центре Иркутска. Прямая аренда от собственника — без комиссий.
+Идеальное расположение:
+Центр Иркутска — престижно и удобно.
+Высокая проходимость — ваш бизнес будут замечать.
+Рядом остановки общественного транспорта, школы, клиники, торговые центры, Центральный рынок. Все необходимое — в шаговой доступности.
+Отлично подойдет для:
+Офиса.
+Пункта выдачи заказов.
+Оказания услуг: бьюти сфера, репетиторство, швейная мастерская и другие виды бытовых услуг.
+Небольшого магазина или шоу-рума.
+Кабинета психолога, логопеда и тд.
+Преимущества и готовность:
+Правильная форма — легко организовать пространство.
+Работающие соседи (магазин «Игрушки», хостел, офисы).
+Круглосуточное видеонаблюдение и охрана — безопасность для вас и клиентов.
+Все необходимые коммуникации.
+Условия:
+Прямой договор с собственником. Честно и прозрачно.
+Гибкий подход к условиям и срокам. Обсудим ваши задачи!
+Привлекательная ставка для центра города.
+Не переплачивайте за лишние квадратные метры! Оптимальное решение для старта или развития малого бизнеса в лучшем районе.
+Звоните сегодня, чтобы договориться на просмотр!</t>
+        </is>
+      </c>
+      <c r="H394" s="1" t="n">
+        <v>46034.85902777778</v>
+      </c>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>kn38</t>
+        </is>
+      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>ул. Тимирязева, 18</t>
+        </is>
+      </c>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M394" t="inlineStr"/>
+      <c r="N394" t="inlineStr"/>
+      <c r="O394" t="inlineStr"/>
+      <c r="P394" t="inlineStr"/>
+      <c r="Q394" t="inlineStr"/>
+      <c r="R394" t="inlineStr"/>
+      <c r="S394" t="inlineStr">
+        <is>
+          <t>52.280167;104.295959</t>
+        </is>
+      </c>
+      <c r="T394" t="inlineStr">
+        <is>
+          <t>https://50.img.avito.st/image/1/1.0A_Eqra-fOayBL7p6N25UooLfuB2HXjmdnod7HrJcyR_CX4.02cEfT1Gt-IDZdHmSfeRSWUyvupS8S6WIa6zeezBBDo;https://90.img.avito.st/image/1/1.ey9Esba-18YyHxXJPrwYcgoQ1cD2BtPG9mG2zPrS2AT_EtU.eqShrWVL3uJciWd7G_0KEmK3OGAWcWSkLn9jZptCz78;https://40.img.avito.st/image/1/1.MJc_R7a-nH5J6V5xU1tYynHmnniN8Jh-jZf9dIEkk7yE5J4.tViXo3ZuCNiOH5T5xk2AmSklrrcFl0e7WniiFGANMwo;https://00.img.avito.st/image/1/1.ySOEMLa-ZcrynqfFmnOtfsqRZ8w2h2HKNuAEwDpTagg_k2c.__XHDQ8YUzWSyNpYol8trSzWYifoK1Ad9BFrOxkXKag?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://50.img.avito.st/image/1/1.0xxfZ7a-f_Upyb36dQjOQxHGffPt0Hv17bce_-EEcDfkxH0.lQvshm3xXzTWryjZE4a8YI6xNNAK7LadEi5HgL5M7F0</t>
+        </is>
+      </c>
+      <c r="U394" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V394" t="inlineStr"/>
+      <c r="W394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>7829542128</v>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Свободного назначения, 50 м²</t>
+        </is>
+      </c>
+      <c r="D395" t="n">
+        <v>45000</v>
+      </c>
+      <c r="E395" t="inlineStr"/>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/svobodnogo_naznacheniya_50_m_7829542128?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>Помещение общ. Пл. 50 кв. М. С холлом, основным большим помещением с двумя окнами, кабинетом без окна, санузлом. Использовалось под учебный класс. До этого была парикматерская, есть подвод воды и канализации в основное помещение. (старые фото). Отдельный вход на второй этаж. Подойдёт под офис, салон красоты, стоматологию. Помещение освобождается в начале февраля.</t>
+        </is>
+      </c>
+      <c r="H395" s="1" t="n">
+        <v>46027.61400462963</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>ул. Баумана, 235/8</t>
+        </is>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M395" t="inlineStr"/>
+      <c r="N395" t="inlineStr"/>
+      <c r="O395" t="inlineStr"/>
+      <c r="P395" t="inlineStr"/>
+      <c r="Q395" t="inlineStr"/>
+      <c r="R395" t="inlineStr"/>
+      <c r="S395" t="inlineStr">
+        <is>
+          <t>52.349431;104.150333</t>
+        </is>
+      </c>
+      <c r="T395" t="inlineStr">
+        <is>
+          <t>https://20.img.avito.st/image/1/1.nrMEmba-MlpyN_BVNKfonEU4MFy2LjZatklTULr6PZi_OjA.uofvwDH2aaeBjio0Ve0aalYfYnoe3LMNyQembE_7NOI?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://20.img.avito.st/image/1/1.KYeawba-hW7sb0dhxPVor9tgh2godoFuKBHkZCSiiqwhYoc.Nyw4aNNUY-XzdqfCLT_Uowq6WsaEmoCfCcYHaKcqdOw?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://60.img.avito.st/image/1/1.LJUTwba-gHxlb0JzR7E2uFJggnqhdoR8oRHhdq2ij76oYoI.cqcsFIjUPAc4_VUlhncTabE3dsIm18a0RkfsIyU-Ss4;https://60.img.avito.st/image/1/1.K6Wdtba-h0zrG0VDx6VfitwUhUovAoNML2XmRiPWiI4mFoU.TaSnhLHF0-pOqTOkG6YjH0gC_QOMzA3MS45fb8JtEfI;https://00.img.avito.st/image/1/1.NRAcZ7a-mflqyVv2emcpPV3Gm_-u0J35rrf486IEljunxJs.JjK_aOJttKFljpxMoTIjiuoXBpfJ4AJvCKDzXpwXrBY?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://20.img.avito.st/image/1/1.c_Ji6La-3xsURh0UCLVh2iNJ3R3QX9sb0Di-EdyL0NnZS90.74ozt2nmjND9K4OYnGdlC1-dFnImjE6cAyu50ueOM1A?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://40.img.avito.st/image/1/1.dIikEra-2GHSvBpuwHc2oOWz2mcWpdxhFsK5axpx16Mfsdo.idPfEpPieLZMxfxdCE9diBCdTV-mWo63_B2uYUOdC8s;https://20.img.avito.st/image/1/1.UbWa-ra-_VzsVD9TtN8jmttb_1ooTflcKCqcViSZ8p4hWf8._4N1Kz6tiGDX8mflEL9NwrC4UJGI_9q9V7ltI_EvVjk?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://30.img.avito.st/image/1/1.OmfJ1ra-lo6_eFSBsd5iT4h3lIh7YZKOewb3hHe1mUxydZQ.D6MB4priu2IibAfJGMXSJIvgHUNMXnzXCK8bOD218xw?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://00.img.avito.st/image/1/1.b1o4Sba-w7NO5wG8akgzcnnowbWK_sezipmiuYYqzHGD6sE.e4k9vdZ-U8S5ikp_RLIyrxy0qM7uiFcJWSmT3HmkCWk?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://70.img.avito.st/image/1/1.uL2Hoba-FFTxD9Zb-9P_lcYAFlI1FhBUNXF1XjnCG5Y8AhY.VkKlEIduTuAZaCHlyEqpjNbPIUiW6x2YdtFu5ZHO2s0;https://50.img.avito.st/image/1/1.kX-a-ba-PZbsV_-ZtI_fUNtYP5AoTjmWKClcnCSaMlQhWj8.kqEGXUgHHtdx0gv9OcjeOrl1cToI4JsPsTMR15zBpIU;https://60.img.avito.st/image/1/1.8UfSeLa-Xa6k1p-hvHPbb5PZX6hgz1muYKg8pGwbUmxp218.kf3jCvungvpCwMVRnem3G2agjzTrpQaA_e0DTkIoEXw;https://70.img.avito.st/image/1/1.-l-zLLa-VrbFgpS5y3vHdPKNVLABm1K2Afw3vA1PWXQIj1Q.MALy7n6Kz-hG4NJuwIyRJyyiOt2mQpSu1Oz_X6IdPpM;https://30.img.avito.st/image/1/1.D78H4ra-o1ZxTGFZFZ5tkUZDoVC1VadWtTLCXLmBrJS8QaE.CkswaTNH80NvIZ5Oldcnlgxkv9IrwNhBlxuDb1OYlC8?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U395" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V395" t="inlineStr"/>
+      <c r="W395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>7826992267</v>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Торговая площадь</t>
+        </is>
+      </c>
+      <c r="D396" t="n">
+        <v>26000</v>
+      </c>
+      <c r="E396" t="inlineStr"/>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/torgovaya_ploschad_7826992267?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>Сдаю в аренду помещение на длительный срок, отдельный вход. Мокрая точка. Обеспечительный платёж 26 тр. Электричество не входит в стоимость аренды.</t>
+        </is>
+      </c>
+      <c r="H396" s="1" t="n">
+        <v>46038.9591087963</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>Театральная ул., 17/1</t>
+        </is>
+      </c>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M396" t="inlineStr"/>
+      <c r="N396" t="inlineStr"/>
+      <c r="O396" t="inlineStr"/>
+      <c r="P396" t="inlineStr"/>
+      <c r="Q396" t="inlineStr"/>
+      <c r="R396" t="inlineStr"/>
+      <c r="S396" t="inlineStr">
+        <is>
+          <t>52.22780609;104.3128433</t>
+        </is>
+      </c>
+      <c r="T396" t="inlineStr">
+        <is>
+          <t>https://90.img.avito.st/image/1/1.AgUDJba-rux1i2zjCxE_T0SErOqxkqrssfXP5r1GoS64hqw.Ac-XBRi8aRVLeJo3MIuC0au01r5MkWFSEk8o6EZAkYU;https://20.img.avito.st/image/1/1.edzIf7a-1TW-0Rc6tkpzl4_e1zN6yNE1eq-0P3Yc2vdz3Nc.VD2lw63--hNqqPbp4ENChGdsfavZ-zZyQIZWXw62d0s?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://70.img.avito.st/image/1/1.OjqGlba-ltPwO1Tc_s1FT8E0lNU0IpLTNEX32Tj2mRE9NpQ.idR9Ts5sRLIuC0EPVVY1iug1pxitEqY-gSx3kVsG_Nc;https://00.img.avito.st/image/1/1.nZztiLa-MXWbJvN628qh1qopM3NfPzV1X1hQf1PrPrdWKzM.7FCz-Y4lK37yytBlIJISirRh5_bCw9gjZRdz1youAEs?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://00.img.avito.st/image/1/1.fYDe3ba-0WmocxNmqLxk9Jl8029satVpbA2wY2C-3qtlftM.wvJ2pR2kNA96WM-01n93Citi8WBB7fMeriIxbUkVEFE?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U396" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V396" t="inlineStr"/>
+      <c r="W396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>7839209606</v>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Свободного назначения</t>
+        </is>
+      </c>
+      <c r="D397" t="n">
+        <v>22000</v>
+      </c>
+      <c r="E397" t="inlineStr"/>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/svobodnogo_naznacheniya_7839209606?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>Сдаются помещения в сам центре Березовый 1/2/3 этажы. С мокрой точкой.</t>
+        </is>
+      </c>
+      <c r="H397" s="1" t="n">
+        <v>46018.99142361111</v>
+      </c>
+      <c r="I397" t="inlineStr">
+        <is>
+          <t>i169224706</t>
+        </is>
+      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>мкр-н Ново-Ленино, мкр-н Берёзовый, 118</t>
+        </is>
+      </c>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M397" t="inlineStr"/>
+      <c r="N397" t="inlineStr"/>
+      <c r="O397" t="inlineStr"/>
+      <c r="P397" t="inlineStr"/>
+      <c r="Q397" t="inlineStr"/>
+      <c r="R397" t="inlineStr"/>
+      <c r="S397" t="inlineStr">
+        <is>
+          <t>52.35765029566324;104.13305458774349</t>
+        </is>
+      </c>
+      <c r="T397" t="inlineStr">
+        <is>
+          <t>https://40.img.avito.st/image/1/1.jfjt3La-IRGbcuMe-6b5oqp9IxdfayURXwxAG1O_LtNWfyM.vgLS4NqR99F2BLRtmLOdWU8ut0JEABWqlFFicEU2QHY;https://30.img.avito.st/image/1/1.-c4BRba-VSd365cofz78lkbkVyGz8lEns5U0Lb8mWuW65lc.PUn0Ty2dH4L2BwfCG7k52sdZKHxrzed1dUl2mjkmYSQ?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://60.img.avito.st/image/1/1.h99pALa-KzYfruk5az7shi6hKTDbty8229BKPNdjJPTSoyk.OCwqLKAl-6Qq4SIwZMe1Bb2XZKgyQlNq5FhsdYuAX_Q;https://50.img.avito.st/image/1/1.yhauZba-Zv_Yy6TwtgKhT-nEZPkc0mL_HLUH9RAGaT0VxmQ.x7ovZ5um5XWDwmfx0DVA2BuySSM7H3zVeGDszTRnsoE;https://50.img.avito.st/image/1/1.Qv1Ncba-7hQ73ywbRSBMogrQ7BL_xuoU_6GPHvMS4db20uw.tE2Kt1xz-MvxOs9koB70flZ3ezJKOjSOfXPwkuvi0a0;https://50.img.avito.st/image/1/1.u8beWra-Fy-o9NUgpCji1pn7FSls7RMvbIp2JWA5GO1l-RU.HGdmmXaR7N4_h5EVxV1qrrBss13ojLammVqDIqboT9c;https://00.img.avito.st/image/1/1.IV4SDba-jbdko0-4XC0MTlWsj7Gguom3oN3svaxugnWpro8.YUMkTwnr7SgAztw1Xr1yRSDrbm2J0RuMlDNjQ6-ZQBs?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U397" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V397" t="inlineStr"/>
+      <c r="W397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>3566295144</v>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Свободного назначения, 20 м²</t>
+        </is>
+      </c>
+      <c r="D398" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E398" t="inlineStr"/>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/svobodnogo_naznacheniya_20_m_3566295144?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>Предлагаем к аренде площади от 20 до 270 кв. М.
+Всё Включено ( отопление, водоснабжение, канализация).
+Стихийный трафик — д. Карлук, ул Трактовая 25.
+Подъездные пути и парковка перед зданием.
+Коммуникации — автономные. Ремонт — чистовое исполнение. В помещении предусмотрен сан. Узел и мокрая точка. Рядом работают: супермаркет Экономия, Пвз Вайлдберриз, магазин разливных напитков, кафе, магазин автозапчастей.
+Рассмотрим все предложения.
+Ставка — 1000 руб. /кв. М. Электроэнергия оплачиваются отдельно по индивидуальному прибору учёта, отопление от котельной входит в стоимость аренды.</t>
+        </is>
+      </c>
+      <c r="H398" s="1" t="n">
+        <v>46031.05230324074</v>
+      </c>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>9fa21e238a145d35faa6be1477c00c4e</t>
+        </is>
+      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>Трактовая ул., 25</t>
+        </is>
+      </c>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M398" t="inlineStr"/>
+      <c r="N398" t="inlineStr"/>
+      <c r="O398" t="inlineStr"/>
+      <c r="P398" t="inlineStr"/>
+      <c r="Q398" t="inlineStr"/>
+      <c r="R398" t="inlineStr"/>
+      <c r="S398" t="inlineStr">
+        <is>
+          <t>52.4101944;104.3192978</t>
+        </is>
+      </c>
+      <c r="T398" t="inlineStr">
+        <is>
+          <t>https://60.img.avito.st/image/1/1.6p-a9ba-RnbsW4R5wr6ml9hURHAoQkJ2KCUnfCSWSbQhVkQ.It6p3tKjX6kTv36SITxuzB01oHSoOk8tFwhHzMlwhYs;https://40.img.avito.st/image/1/1.DbBk5La-oVkSSmNWcpwtsCFFo1_WU6VZ1jTAU9qHrpvfR6M.dZEQaqm0awPhxqPvPrOt-Qq-Eq-weK2IJMPCq1HoANY;https://20.img.avito.st/image/1/1.UXQXwba-_Z1hbz-SOegffFVg_5uldvmdpRGcl6mi8l-sYv8.73fFyn2v0IUhSSs5yY_xtOjdZ-W4u9vDB_ch6iy_HNw?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://60.img.avito.st/image/1/1.9k30E7a-WqSCvZirlFyUQrayWKJGpF6kRsM7rkpwVWZPsFg.Yw-pd6TtlZbNhk5FA7PCS7juqT8eLnXtNI4lpusOwE4</t>
+        </is>
+      </c>
+      <c r="U398" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V398" t="inlineStr"/>
+      <c r="W398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>2006440561</v>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Офис, 15 м²</t>
+        </is>
+      </c>
+      <c r="D399" t="n">
+        <v>14640</v>
+      </c>
+      <c r="E399" t="inlineStr"/>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/ofis_15_m_2006440561?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>АО «Бму Гэм» предлагает в аренду офисные помещения, расположенное по адресу: г. Иркутск, ул. Дорожная, д. 1. Удобное расположение, в шаговой доступности от остановки наземного транспорта, 5-6 минут пешком.
+Офисные помещения от 15 до 900 м2, можно снимать частями необходимое пространство. Удобные подъездные пути. На прилегающей к зданию территории осуществляется круглосуточная охрана, расположена круглосуточно охраняемая парковка (стоимость одного парковочного места — 1200 рублей в месяц с учетом Ндс (20%)), а также есть гостевая парковка. В зданиях на прилегающей территории есть возможность арендовать складское помещение или место под контейнер.
+Стоимость арендной платы в месяц составляет от 800 рублей за 1 кв. М.</t>
+        </is>
+      </c>
+      <c r="H399" s="1" t="n">
+        <v>46034.72255787037</v>
+      </c>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>i182899992</t>
+        </is>
+      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>Дорожная ул., 1</t>
+        </is>
+      </c>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M399" t="inlineStr"/>
+      <c r="N399" t="inlineStr"/>
+      <c r="O399" t="inlineStr"/>
+      <c r="P399" t="inlineStr"/>
+      <c r="Q399" t="inlineStr"/>
+      <c r="R399" t="inlineStr"/>
+      <c r="S399" t="inlineStr">
+        <is>
+          <t>52.279693;104.35779</t>
+        </is>
+      </c>
+      <c r="T399" t="inlineStr">
+        <is>
+          <t>https://80.img.avito.st/image/1/1.M7jl3La-n1GTcl1ej-AAo7x9nVdXa5tRVwz-W1u_kJNef50.IOoWamEf8pH2Xc2C4uJ__hDxkjI_oHgLbBV96yMgKLo;https://30.img.avito.st/image/1/1.yJtX-ra-ZHIhVKZ9S7mz4xFbZnTlTWBy5SoFeOmZa7DsWWY.X2hEOyqnSjP42xaEDpNKKRPtuE5nmyanzxXTmP1HCXc?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://50.img.avito.st/image/1/1.-XoEfLa-VZNy0peceifnBULdV5W2y1GTtqw0mbofWlG_31c.yFXJq8zmHuDijDLJ0tE5ZosQ4WDixezgTNmCfsDXgCg;https://40.img.avito.st/image/1/1.KRD7Xba-hfmN80f2pVEhC6L8h_9J6oH5SY3k80U-ijtA_oc._WxQOM8iBFOgpmsFWlagp9Vhy0IVaqdMrqunnJk6KGA;https://30.img.avito.st/image/1/1.QLLZnba-7FuvMy5U1axAzZ887l1rKuhba02NUWf-45liPu4.4sysdlacHfEkgH842NTV8RrvbdbMIUV3-ZD0hSyEqjk?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://00.img.avito.st/image/1/1.yISGOra-ZG3wlKZimmXJ-8CbZms0jWBtNOoFZzhZa689mWY.c1N9TLPAi1UMRLrys7-te7OTLZxVI38DKDO-_QlKy-0?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://80.img.avito.st/image/1/1.KxI6FLa-h_tMukX0YHAybXy1hf2Io4P7iMTm8YR3iDmBt4U.LpaU_59KXLgNtM-J2HZ7U4p7ruW1QjUraaNjFkrDOFY;https://40.img.avito.st/image/1/1.ii-A-La-Jsb2VuTJmKKPUMZZJMAyTyLGMihHzD6bKQQ7WyQ.XYTxT6sispidBTM8hyoku62Xq0PllpCTkgPZEpdJNrs</t>
+        </is>
+      </c>
+      <c r="U399" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V399" t="inlineStr"/>
+      <c r="W399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>2310077690</v>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Офис, 16 м²</t>
+        </is>
+      </c>
+      <c r="D400" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E400" t="inlineStr"/>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/ofis_16_m_2310077690?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>Сдаю в аренду офисное помещение. Офис в удобном месте — отлично подойдёт для небольшой компании или стартапа. Рядом остановки и парковка.</t>
+        </is>
+      </c>
+      <c r="H400" s="1" t="n">
+        <v>46031.37939814815</v>
+      </c>
+      <c r="I400" t="inlineStr">
+        <is>
+          <t>i22565128</t>
+        </is>
+      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>ул. Лермонтова, 142</t>
+        </is>
+      </c>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M400" t="inlineStr"/>
+      <c r="N400" t="inlineStr"/>
+      <c r="O400" t="inlineStr"/>
+      <c r="P400" t="inlineStr"/>
+      <c r="Q400" t="inlineStr"/>
+      <c r="R400" t="inlineStr"/>
+      <c r="S400" t="inlineStr">
+        <is>
+          <t>52.236183;104.281361</t>
+        </is>
+      </c>
+      <c r="T400" t="inlineStr">
+        <is>
+          <t>https://30.img.avito.st/image/1/1.Po8zpra-kmZFCFBpQ-Zx43UHkGCBEZZmgXbzbI3FnaSIBZA.vbI5P5sV5huy19sVEzMBEJ1inQhk6cbo5i6qHbX2CDo?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://80.img.avito.st/image/1/1.P97OTra-kze44FE4vEI70ZfvkTF8-Zc3fJ7yPXAtnPV17ZE.v4v8CiX-wyhwt8ZQD5CwZeHE4dAZomTyGS8MgGWqDcY;https://50.img.avito.st/image/1/1.m7wtsLa-N1VbHvVaF4aas3QRNVOfBzNVn2BWX5PTOJeWEzU.u9z6mLZ-ycHRk24RKJlRXXO9aRMv9dZCVAk9vrO-FXc;https://50.img.avito.st/image/1/1.O3-jL7a-l5bVgVWZ2UtZEeWOlZARmJOWEf_2nB1MmFQYjJU.EgyRmBxwVMl53sDgijtoq28Na76KpxzYDMCIsRWSg2Q</t>
+        </is>
+      </c>
+      <c r="U400" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V400" t="inlineStr"/>
+      <c r="W400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>3676682721</v>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Торговая площадь, 25 м²</t>
+        </is>
+      </c>
+      <c r="D401" t="n">
+        <v>17000</v>
+      </c>
+      <c r="E401" t="inlineStr"/>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//bratsk/kommercheskaya_nedvizhimost/torgovaya_ploschad_25_m_3676682721?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>Сдам в аренду помещение под.
+- Ozon, Wildberries (по документам площадь позволяет 30м2). По карте размещения есть (оранжевая зона).
+-продовольственную (магазин, продукты, разливное пиво, кофейня, пекарня, шаурма и пр.).
+-непродовольственную группу товаров(скупка, магазин и пр.), а также для предоставления услуг в центре города по адресу: Комсомольская 45(первая линия).
+Высокий трафик. Рядом остановка, ТЦ Формула, спортивный центр Таежный, городской суд, Пенсионный фонд, школа, общежития, офисные центры.
+1. Коммуникации-электричество 3-х фазное)380в.
+2. Вода привозная. Туалет рядом в здании общежития(20 метров).
+3. Помещение без перегородок (свободная планировка). Требуется косметический ремонт.
+Видео пришлю по запросу в Воцап.
+Готовы дать арендные каникулы. Сдаем на максимально длительный сроки от 1 года и более.</t>
+        </is>
+      </c>
+      <c r="H401" s="1" t="n">
+        <v>45958.13752314815</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>Комсомольская ул., 45/1</t>
+        </is>
+      </c>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>Братск</t>
+        </is>
+      </c>
+      <c r="M401" t="inlineStr"/>
+      <c r="N401" t="inlineStr"/>
+      <c r="O401" t="inlineStr"/>
+      <c r="P401" t="inlineStr"/>
+      <c r="Q401" t="inlineStr"/>
+      <c r="R401" t="inlineStr"/>
+      <c r="S401" t="inlineStr">
+        <is>
+          <t>56.15976228235577;101.61531285657207</t>
+        </is>
+      </c>
+      <c r="T401" t="inlineStr">
+        <is>
+          <t>https://80.img.avito.st/image/1/1.TezTf7a-4QWl0SMKxRot8I7e4wNhyOUFYa-AD20c7sdo3OM.rSBsHTzDeQaWS6ihBwei3Von--PTyBdlGpZlg82S280;https://20.img.avito.st/image/1/1.3u7oara-cgeexLAI2CnxpunIcAFa3XYHWroTDVYJfcVTyXA.3DoWzVt46M4DmjVTSLBBUHa4NA82mAk9OznOdTMdjIs?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U401" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V401" t="inlineStr"/>
+      <c r="W401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>2340588645</v>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>Офис, 25 м²</t>
+        </is>
+      </c>
+      <c r="D402" t="n">
+        <v>12500</v>
+      </c>
+      <c r="E402" t="inlineStr"/>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//shelehov/kommercheskaya_nedvizhimost/ofis_25_m_2340588645?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>Сдаем в аренду офисные помещения на производственной базе. Помещения различной площади от 15-40 кв. М. Охраняемая территория, имеются помещения под склады.</t>
+        </is>
+      </c>
+      <c r="H402" s="1" t="n">
+        <v>46037.81086805555</v>
+      </c>
+      <c r="I402" t="inlineStr">
+        <is>
+          <t>2a6c3483ca74ee66c86877644ab22e89</t>
+        </is>
+      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>Вокзальная ул., 2</t>
+        </is>
+      </c>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>Шелехов</t>
+        </is>
+      </c>
+      <c r="M402" t="inlineStr"/>
+      <c r="N402" t="inlineStr"/>
+      <c r="O402" t="inlineStr"/>
+      <c r="P402" t="inlineStr"/>
+      <c r="Q402" t="inlineStr"/>
+      <c r="R402" t="inlineStr"/>
+      <c r="S402" t="inlineStr">
+        <is>
+          <t>52.20681;104.104447</t>
+        </is>
+      </c>
+      <c r="T402" t="inlineStr">
+        <is>
+          <t>https://50.img.avito.st/image/1/1.uZ4MEba_FXd6v9d4clf1jduyE3GutBVxydEffXq_13i6sg.xu1ogmy2VtoZq-4zKIQeF2Js9ZT6smG6wpzWwZmQTAU;https://50.img.avito.st/image/1/1.PEZjALa_kK8VrlKgF3RwVbSjlqnBpZCppsCapRWuUqDVow.xdXLoDlxYeT4NHRlB-2q6dqSswK7cZOaLCxGlyu9A4U;https://80.img.avito.st/image/1/1.4Dbu2ba_TN-Yd47QooqsJTl6StlMfEzZKxlG1Zh3jtBYeg.lnmK0vgJsbbEO_MRjw5uqq4d7HlkOWR3pcpXeyfijso;https://00.img.avito.st/image/1/1.rz1cZra_A9QqyMHbDjjjLovFBdL-wwPSmaYJ3irIwdvqxQ.ctLRA_QMIr1U2VwCgGTv5Q50DW87fEfQ5c_fixL-3F4?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U402" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V402" t="inlineStr"/>
+      <c r="W402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>7836986857</v>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Свободного назначения</t>
+        </is>
+      </c>
+      <c r="D403" t="n">
+        <v>45000</v>
+      </c>
+      <c r="E403" t="inlineStr"/>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/svobodnogo_naznacheniya_7836986857?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>Объявление.
+Сдается помещение свободного назначения от собственника.
+Адрес: г. Иркутск, ул. Некрасова, д. 10.
+Общая площадь помещения составляет 90 м².
+Расположение на 2 этаже, отдельный вход, доступ круглосуточно!
+Отдельностоящее здание.
+Удобная планировка подходит для организации офиса, салона красоты, предоставления любых коммерческих услуг и прочих видов бизнеса.
+Прекрасная транспортная доступность, удобное расположение в историческом центре города.
+Подключены все необходимые инженерные коммуникации.
+Идеально подойдет под любую коммерческую деятельность.
+Возможны арендные каникулы. Сдаем на длительный срок.
+Оплата коммунальных платежей производится отдельно.
+Звоните прямо сейчас и договоритесь о просмотре помещения!</t>
+        </is>
+      </c>
+      <c r="H403" s="1" t="n">
+        <v>46037.37671296296</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>ул. Некрасова, 10</t>
+        </is>
+      </c>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M403" t="inlineStr"/>
+      <c r="N403" t="inlineStr"/>
+      <c r="O403" t="inlineStr"/>
+      <c r="P403" t="inlineStr"/>
+      <c r="Q403" t="inlineStr"/>
+      <c r="R403" t="inlineStr"/>
+      <c r="S403" t="inlineStr">
+        <is>
+          <t>52.28974152;104.2865448</t>
+        </is>
+      </c>
+      <c r="T403" t="inlineStr">
+        <is>
+          <t>https://10.img.avito.st/image/1/1._pUkgba-UnxSL5BzVJ7tlmogUHqWNlZ8llEzdpriXb6fIlA.thduryTPzdJDrypzs2YKpt1cbo96bE-G1io83hWlWCY?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://70.img.avito.st/image/1/1._pXHgba-UnyxL5Bzt5LqlokgUHp1NlZ8dVEzdnniXb58IlA.1671g_1tcBT9TcMB4nSsBo8Cyfeg5d0ZcssRPzWXIX0;https://70.img.avito.st/image/1/1.5677Uba-S0eN_4lIuWK3oLXwSUFJ5k9HSYEqTUUyRIVA8kk.qESIM1s9KqqY0701Qx4GZdir1tTrkx4zgY3p8TeDZew;https://00.img.avito.st/image/1/1.tfhBGra-GRE3tNseJxCl-w-7GxfzrR0R88p4G_95FtP6uRs.kKF_d7gXcQwIyGwe1E139zdl3xuWXv3cjBijrd7dQDk?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://80.img.avito.st/image/1/1.w2hS8ba-b4EkX62OWNqEZRxQbYfgRmuB4CEOi-ySYEPpUm0.V-iBgVR3sLO0JBCRoGF-PhHtp8wNxtcdOq8Kgin4UK4;https://90.img.avito.st/image/1/1.Ug0UhLa-_uRiKjzrPPlGDlol_OKmM_rkplSf7qrn8SavJ_w.OGojEn56rgp_dsg3z8-Fp4V_lxHMvN3IH15hY_k64CE;https://80.img.avito.st/image/1/1.CKMfNra-pEppmGZFAzZdrVGXpkytgaBKrebFQKFVq4iklaY.e8QU8PQLIPLT_tz_sWASpEzHRbSKGv5lw5IRuKJvGgk;https://60.img.avito.st/image/1/1.abivsra-xVHZHAde8a8_tuETx1cdBcFRHWKkWxHRypMUEcc.h83Cvbnpu_ZKpqAHnhZBM7FU50adwOSUXdptkZKqslI;https://60.img.avito.st/image/1/1.NkMPgba-mqp5L1ilb7EUTUEgmKy9Np6qvVH7oLHilWi0Ipg.fsOT5K8RyBlh5Js9rus4iX32jb33X4iiFBMBQmlVgwk;https://60.img.avito.st/image/1/1.x-9M5ra-awY6SKkJTsWz4wJHaQD-UW8G_jYKDPKFZMT3RWk.Z-Tr_lrc67q9G0F5-AFjoX8LH6QawSN75zD-dyFYDco;https://30.img.avito.st/image/1/1.OHQn67a-lJ1RRVaSW6std2lKlpuVXJCdlTv1l5mIm1-cSJY.2xLxUBkbIk7LMRPEICOt5GJr4fwEz-Yp5-gkAG_ud98?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://60.img.avito.st/image/1/1.tf7xUra-GReH_NsYl3yV8L_zGxFD5R0XQ4J4HU8xFtVK8Rs.I-XdzqvbU4q_fINyXGh5kXEmqYvPl7c1p0ChmICcV7c;https://90.img.avito.st/image/1/1.zsk1Lra-YiBDgKAvJU21xXuPYCaHmWYgh_4DKotNbeKOjWA.UiWb0Xu6zLlWSITBxU5x7q12SpYXyrkAXXKrT_Pnxr0</t>
+        </is>
+      </c>
+      <c r="U403" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V403" t="inlineStr"/>
+      <c r="W403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>7784683696</v>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Свободного назначения</t>
+        </is>
+      </c>
+      <c r="D404" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E404" t="inlineStr"/>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//angarsk/kommercheskaya_nedvizhimost/svobodnogo_naznacheniya_7784683696?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>Кабинеты свободного назначения, разной площади. И, разной ценовой категории, во многих кабинетах есть мокрая точка. Время работы 24/7, звоните узнавайте о наличии кабинетов. Заключаем договор. (Гарантийный денежная сумма 5.000).</t>
+        </is>
+      </c>
+      <c r="H404" s="1" t="n">
+        <v>46029.25509259259</v>
+      </c>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>7b7eec7a461132e321226fbd1100b0c1</t>
+        </is>
+      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>205-й квартал, 15</t>
+        </is>
+      </c>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>Ангарск</t>
+        </is>
+      </c>
+      <c r="M404" t="inlineStr"/>
+      <c r="N404" t="inlineStr"/>
+      <c r="O404" t="inlineStr"/>
+      <c r="P404" t="inlineStr"/>
+      <c r="Q404" t="inlineStr"/>
+      <c r="R404" t="inlineStr"/>
+      <c r="S404" t="inlineStr">
+        <is>
+          <t>52.50198746;103.8354187</t>
+        </is>
+      </c>
+      <c r="T404" t="inlineStr">
+        <is>
+          <t>https://70.img.avito.st/image/1/1.MhkzNra-nvBFmFz_W0IsKHKXnPaBgZrwgeb_-o1VkTKIlZw.zkmta3iJRAduaElG7ccOjgZWXAxcsNQXEYLgVY66u_8;https://60.img.avito.st/image/1/1.aKXD9ba-xEy1WwZDn_RBkoJUxkpxQsBMcSWlRn2Wy454VsY.Gb9Qv87irHE3oYiCXKLHS_qAEGQDAEjE4Vnz3ZOlmvI;https://10.img.avito.st/image/1/1.eH0xj7a-1JRHIRabTZJ6eHAu1pKDONCUg1-1no_s21aKLNY.2UddOCdAI-X5PJJ3UP17XL5uPm1iSCEWb-016Z01wZ4?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://40.img.avito.st/image/1/1.rIM2Yra-AGpAzMJlYnTKhXfDAmyE1QRqhLJhYIgBD6iNwQI.996wRsjnJd4Lt3DVezM_zTDK2mtDV76gi6tnRWEFtRU;https://50.img.avito.st/image/1/1.3HbZfra-cJ-v0LKQ7TWAbZjfcplryXSfa64RlWcdf11i3XI.kHs4tuD8wJbTtLZCDKFqOB4-FJd9dz5cUXcIZS48_m4;https://60.img.avito.st/image/1/1.g4DykLa-L2mEPu1m-KrohrMxLW9AJytpQEBOY0zzIKtJMy0.8lTNAPW6-kl8fDp5VpVtoxOW_mGWKFh6efS2GQlkzLw;https://10.img.avito.st/image/1/1.OlQxZra-lr1HyFSySUIeT3DHlLuD0ZK9g7b3t48FmX-KxZQ.8wRcI2Z5UjCxJZSzJEiyHUL9VM4-hRm6x4UeUX38nQE?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://30.img.avito.st/image/1/1.R88C8La-6yZ0XikpAO1syUNR6SCwR-8msCCKLLyT5OS5U-k.r8zAVVEeOIX_wk4Nn7SzkETKo_NvJ3bzJSU_P5Q5cnU?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://80.img.avito.st/image/1/1.i2Hd4La-J4irTuWHx_qOZJxBJY5vVyOIbzBGgmODKEpmQyU.w0WCzVO_mKEneokRZj_DJsjQvQ96i-ATnfV0HQ6YUrQ;https://40.img.avito.st/image/1/1.qe72jra-BQeAIMcIqNia6rcvBwFEOQEHRF5kDUjtCsVNLQc.fHAswHPvn7BM0RC-VulQ0Yj_DdPmrn7gP8kS7IsEphQ;https://00.img.avito.st/image/1/1.DKreJ7a-oEOoiWJMyjNjrJ-GokVskKRDbPfBSWBEr4FlhKI.TKvATLf5paTWmRbW5AI17RadOIov61Ao-Qg6Cv8VTPU?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U404" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V404" t="inlineStr"/>
+      <c r="W404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>2586551893</v>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Офис, 72 м²</t>
+        </is>
+      </c>
+      <c r="D405" t="n">
+        <v>61200</v>
+      </c>
+      <c r="E405" t="inlineStr"/>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/ofis_72_m_2586551893?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>Сдам хорошее офисное помещение с тремя отдельными кабинетами. Недавно сделан ремонт. Электрические жалюзи, отдельный вход. Сдаётся без мебели. Я собственник. Никаких комиссий.</t>
+        </is>
+      </c>
+      <c r="H405" s="1" t="n">
+        <v>46029.38825231481</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>ул. Ширямова, 7</t>
+        </is>
+      </c>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M405" t="inlineStr"/>
+      <c r="N405" t="inlineStr"/>
+      <c r="O405" t="inlineStr"/>
+      <c r="P405" t="inlineStr"/>
+      <c r="Q405" t="inlineStr"/>
+      <c r="R405" t="inlineStr"/>
+      <c r="S405" t="inlineStr">
+        <is>
+          <t>52.276741;104.35672</t>
+        </is>
+      </c>
+      <c r="T405" t="inlineStr">
+        <is>
+          <t>https://60.img.avito.st/image/1/1.zym7a7a_Y8DNxaHPqSyfHX3IZcYZzmPGfqtpys3Foc8NyA.Mhay5GTDVi5H4iMr7yEnevximHd_03utp1saZ1PMW_I;https://10.img.avito.st/image/1/1.Bym7aba_q8DNx2nPuSlXHX3KrcYZzKvGfqmhys3Hac8Nyg.Cj2dRPrp7NB85yRmSGQQZSDxu7IWZ8WRZlKwksLsNUg?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://50.img.avito.st/image/1/1.sKoPu7a_HEN5Fd5MY_3gnskYGkWtHhxFynsWSXkV3ky5GA.FUqQ3x_9Ld6Ufj6xy8oOp_shb5t81CBY35m-GVOc7cE;https://50.img.avito.st/image/1/1.E2eWf7a_v47g0X2BvDtDU1DcuYg02r-IU7-1hODRfYEg3A.oT3_OqveY0f6W8aWr1z_L-osl9oCO7TFByYfQWoLvfY;https://40.img.avito.st/image/1/1.9HYyuLa_WJ9EFpqQVvOkQvQbXpmQHViZ93hSlUQWmpCEGw.aF0N8y8CB-rmTdZVAf22J7y-MN1RZrK9RXQ5-z5bk9E;https://40.img.avito.st/image/1/1.VdyNq7a_-TX7BTs6q-IF6EsI_zMvDvkzSGvzP_sFOzo7CA.G-d4pbimFzTVNPsJgUUsk4YzTVI9mOxqpr4evHsMzuE;https://20.img.avito.st/image/1/1.fdi-lLa_0THIOhM-yNkt7Hg31zccMdE3e1TbO8g6Ez4INw.R90C3-Yn2tvei0PyeJPZmWomIK062zwigQPHU6SOkxc?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://20.img.avito.st/image/1/1.1oqwQra_emPG7LhskBGGvnbhfGUS53pldYJwacbsuGwG4Q.Z9tT0LyCU5ckPwxmAGbb_qbKcPoLOFwUWSyNeGa7bMc?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://90.img.avito.st/image/1/1.qVlOj7a-BbA4Ice_EJnhay8uB7b8OAGw_F9kuvDsCnL1LAc.JIL8ZOZMGX0wrRyEY7igBfEY5EouT0k-wsYII_aL0nQ</t>
+        </is>
+      </c>
+      <c r="U405" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V405" t="inlineStr"/>
+      <c r="W405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>7544865061</v>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Свободного назначения</t>
+        </is>
+      </c>
+      <c r="D406" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E406" t="inlineStr"/>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/svobodnogo_naznacheniya_7544865061?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>Сдам помещение в жк Предмеместье рядом с Магазином, Народный '' отдельный вход сбоку. Под пункт выдачи, Аптеку, Общепит, Офис, услуги, пункт выдачи.</t>
+        </is>
+      </c>
+      <c r="H406" s="1" t="n">
+        <v>46034.93480324074</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>ул. Баррикад, 62/10</t>
+        </is>
+      </c>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M406" t="inlineStr"/>
+      <c r="N406" t="inlineStr"/>
+      <c r="O406" t="inlineStr"/>
+      <c r="P406" t="inlineStr"/>
+      <c r="Q406" t="inlineStr"/>
+      <c r="R406" t="inlineStr"/>
+      <c r="S406" t="inlineStr">
+        <is>
+          <t>52.29011513985194;104.34189846065219</t>
+        </is>
+      </c>
+      <c r="T406" t="inlineStr">
+        <is>
+          <t>https://40.img.avito.st/image/1/1.QUcGvba-7a5wEy-hCJwndWcc76i0CumutG2MpLje4my9Hu8.tkGgMpUUzD34WbOYBXEr6TJ6fcFIRxco9_uaoONwavA;https://30.img.avito.st/image/1/1.oPR_rra-DB0JAM4SM4TkkxEPDhvNGQgdzX5tF8HNA9_EDQ4.IPLiDWEphwv9fMGvv-GuiGHM1xDTSusRYW-tUp41S64?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U406" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V406" t="inlineStr"/>
+      <c r="W406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>7875612966</v>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Центр, 1я линия, 1й эт, отдельный вход, паркинг</t>
+        </is>
+      </c>
+      <c r="D407" t="n">
+        <v>47000</v>
+      </c>
+      <c r="E407" t="inlineStr"/>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/tsentr_1ya_liniya_1y_et_otdelnyy_vhod_parking_7875612966?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>Сдается офис в центре города (напротив Стомцентра, через дорогу от пересечения главных улиц города К. Маркса и Ленина), 1й линия, 1й этаж, кирпичное историческое здание, отдельный вход.
+Перед зданием своя парковка за автоматическим шлагбаумом!
+Обстановка: 3 больших окна (под окнами в нишах радиаторы, снаружи оснащены жалюзи), все окна выходят во двор с зелеными насаждениями.
+Офис расположен в кирпичном историческом здании, с толстыми кирпичными стенами в 3,5 кирпича (до революции в здании размещалась одна из центральных гостиниц города Иркутска «Метрополь») отличная изоляция: очень комфортная обстановка для работы сотрудников и посетителей, тепло зимой и прохладно летом (кондиционер не нужен), тихо, свежий воздух при проветривании.
+Планировка: прихожая, санузел, большой зал + отдельный кабинет.
+Последний год помещение использовалось как тату-салон, до этого 5 лет как салон красоты (были организованы дополнительные выводы воды в зал и кабинет), до этого 10 лет использовалось как офис для работы сотрудников с возможностью удобного приема посетителей через свой отдельный вход в центре города, с собственной парковкой (на фотографиях оба варианта использования — текущий салон красоты, и предыдущий офисный вариант).
+Соседнее помещение со отдельным входом магазин брэндовой одежды «Форсита».
+Оснащение: дизайнерский ремонт, 3 встроенных в стены шкафа — дополнительное место для рабочих документов и принадлежностей, не отнимающее офисное пространство.
+2 встроенных с стены автономных сейфа (в большом зале и кабинете), санузел.
+* Мебель на фотографиях от арендаторов.</t>
+        </is>
+      </c>
+      <c r="H407" s="1" t="n">
+        <v>46029.97534722222</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>ул. Марата, 68А</t>
+        </is>
+      </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M407" t="inlineStr"/>
+      <c r="N407" t="inlineStr"/>
+      <c r="O407" t="inlineStr"/>
+      <c r="P407" t="inlineStr"/>
+      <c r="Q407" t="inlineStr"/>
+      <c r="R407" t="inlineStr"/>
+      <c r="S407" t="inlineStr">
+        <is>
+          <t>52.27987212750665;104.2809749732583</t>
+        </is>
+      </c>
+      <c r="T407" t="inlineStr">
+        <is>
+          <t>https://20.img.avito.st/image/1/1.QD0Uf7a-7NRi0S7bGGZ8MVXe7tKmyOjUpq-N3qoc4xav3O4.HXvc0vqGgE_naxNW6GbzU3LP4hmfQy8zIF8B3gNjFeA?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://10.img.avito.st/image/1/1.sE0i9ba-HKRUW96rTueFQGNUHqKQQhikkCV9rpyWE2aZVh4.hxfesps88RcyfQl70rmAYEV9wWoBu8ATtSrCRZNrqSg?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://40.img.avito.st/image/1/1.0Eqvdba-fKPZ276sgz6URu7UfqUdwnijHaUdqREWc2EU1n4.b8GuVRo44K_RYUONv54iJONTIeDhfd1fcv4_saamHLc;https://20.img.avito.st/image/1/1.v70D_ba-E1R1U9FbcYehs0JcEVKxShdUsS1yXr2eHJa4XhE.n7i_ivqQiERyhs7RIqwY4pWkD8FPF5LK8lzdfZ91IHY?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://40.img.avito.st/image/1/1.klQTCra-Pr1lpPyyOzSqWVKrPLuhvTq9odpft61pMX-oqTw.6H8r08VTjpv2YyZ-Tss1e1pZR-xVAAFUPdt2F_I4600;https://30.img.avito.st/image/1/1.NkSJ-ba-mq3_V1ii6dEoSshYmKs7Tp6tOyn7pzealW8yWpg.x8GEGpxk4nxayvg7-OKxap2p0C9Wsg4fUe4l8NiBxRA?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://40.img.avito.st/image/1/1.q6Q6SLa-B01M5sVCYAKvp3vpBUuI_wNNiJhmR4QrCI-B6wU.KRiVe6srn5NRz57W4HukFwJwtFsy6XRu3lgYX5YwsyE;https://20.img.avito.st/image/1/1.6cby5ba-RS-ES4cgrILKyrNERylAUkEvQDUkJUyGSu1JRkc._1vTKDM2wtQHb_eEbXCsVvRQnDhkQQqfB2VUJtqTJGQ?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://00.img.avito.st/image/1/1.dT_xaba-2daHxxvZl1hVM7DI29BD3t3WQ7m43E8K1hRKyts.7SrD_5HYQR7S9QKU5KMqDXAn2p_asMkHoSc9ewPIpY4?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://20.img.avito.st/image/1/1.eL0Xera-1FRh1BZbazsksVbb1lKlzdBUpaq1XqkZ25as2dY.aqBDy2Nfr1kLFxAIp0mp6APP7MQ2KQyjgFIZZe94utQ?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://10.img.avito.st/image/1/1.1T-RQba-edbn77vZt2aVM9Dge9Aj9n3WI5EY3C8idhQq4ns.3kv5fF-vfHaKavKenoO6uohQ0JubNWedPDJonoKPXO4?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://40.img.avito.st/image/1/1.XThPcba-8dE53zPeeUxDOw7Q89f9xvXR_aGQ2_ES_hP00vM.F-FgCMdDQ8RqoaVaQwTDSIP89xO5rce8mUqzTzWZMAQ;https://70.img.avito.st/image/1/1.UWib4La-_YHtTj-Ota0OZNpB_4cpV_mBKTCciyWD8kMgQ_8.1epFHYboP27YvbpQnXQoqWwviNj3k6coNcFGMQqBPRk;https://80.img.avito.st/image/1/1.MOjgAba-nAGWr14OjGEX5KGgngdStpgBUtH9C15ik8Nbop4.abkqQw76cUlADNJ1_56jzy9feuucVGYxAifHubRDTqY;https://60.img.avito.st/image/1/1.AHTL9ba-rJ29W26Sx_UId4pUrpt5QqideSXNl3WWo19wVq4.qiwPnEkXLpNO9bDY_XXz6gbFU1AYUWhOwwYDsgYIZcI;https://60.img.avito.st/image/1/1.ab35jra-xVSPIAdbp6Nqs7gvx1JLOcFUS16kXkftypZCLcc.RNbOlP_-oDRLUb51UdtvlYCF7ByQ183mthMrGgE78_U;https://10.img.avito.st/image/1/1.kkqDCra-PqP1pPysqxClR8KrPKUxvTqjMdpfqT1pMWE4qTw.GR2ofHm1CMJPghNFd7FBxXChTIaqTns1Yj27guY5ZPs?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://60.img.avito.st/image/1/1.O7jZiLa-l1GvJlVeo7gHtZgplVdrP5NRa1j2W2frmJNiK5U.km-Mjh3x8Sqkyd6v3eNb-yBsAEjSgJrvOVcrxn0vlTM;https://50.img.avito.st/image/1/1.9nrs37a-WpOacZicjMz1ea1-WJVeaF6TXg87mVK8VVFXfFg.qMviXsRcQuKPPYVgaeyobqXbWRZBFXsCbzt1WyVV-dw;https://10.img.avito.st/image/1/1.uUbg1La-Fa-Wetegnr65SKF1F6lSYxGvUgR0pV63Gm1bdxc.K8jXTF_GTxU3SKiuj0iXD1dLBu-wdAEPKDt19XHak64?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://60.img.avito.st/image/1/1.uj4RZra-FtdnyNTYaUS_PVDHFNGj0RLXo7Z33a8FGRWqxRQ.VOxAt5e3rPZovraYkZOi7WeN_cPIDHcZXB0BFO7xnTc;https://90.img.avito.st/image/1/1.UiYjBLa-_s9VqjzACzVTJWKl_MmRs_rPkdSfxZ1n8Q2Yp_w.1TDxMvGYptnp04INOsXNbKsQlIyYqmGBzunG5qIarrg</t>
+        </is>
+      </c>
+      <c r="U407" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V407" t="inlineStr"/>
+      <c r="W407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>7713155386</v>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Офис, 61 м²</t>
+        </is>
+      </c>
+      <c r="D408" t="n">
+        <v>55000</v>
+      </c>
+      <c r="E408" t="inlineStr"/>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/ofis_61_m_7713155386?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>При заключении договора до конца января скидка 10.000.
+Сдаётся в долгосрочную аренду нежилое помещение в центре города, с современным, дизайнерским ремонтом, расположеное в новом здании.
+Подойдет для офиса, под салон красоты и иной деятельности. Физическая круглосуточная охрана. Имеется Парковка. Помещение абсолютно свободно от мебели, заходи и пользуйся. Из мебели имеются встроенные шкафы. Также имеется система теплых полов с подогревом. Сдаётся от собственника.</t>
+        </is>
+      </c>
+      <c r="H408" s="1" t="n">
+        <v>46034.37420138889</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>Пионерский пер., 11</t>
+        </is>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M408" t="inlineStr"/>
+      <c r="N408" t="inlineStr"/>
+      <c r="O408" t="inlineStr"/>
+      <c r="P408" t="inlineStr"/>
+      <c r="Q408" t="inlineStr"/>
+      <c r="R408" t="inlineStr"/>
+      <c r="S408" t="inlineStr">
+        <is>
+          <t>52.28244781;104.2888641</t>
+        </is>
+      </c>
+      <c r="T408" t="inlineStr">
+        <is>
+          <t>https://40.img.avito.st/image/1/1.Qj91G7a-7tYDtSzZfXp5WDa67NDHrOrWx8uP3Mt44RTOuOw.CiIJ4rPDyNLHtkPC9fxAINf4pqxoUP35Kyea7xBx3tg;https://40.img.avito.st/image/1/1.b3PuJba-w5qYiwGVvHxqFa2EwZxckseaXPWikFBGzFhVhsE.ecUHVg_RtdU_LoCfqECaifj_YqjDCG-PQVJFOUnMaNA;https://70.img.avito.st/image/1/1.WEWm1ra-9KzQeDajmod9CvZ39qoUYfCsFAaVphi1-24ddfY.4TI2v8n82QnkaHKL4f9b60jdAgZApFad2zGeRkT47o0;https://60.img.avito.st/image/1/1.6PkTH7a-RBBlsYYfTwi49FC-RhahqEAQoc8lGq18S9KovEY.i9-yamfoKUH-Dz-FYyE7Afq_d1IaEc-4n7-aZIUdzeQ;https://70.img.avito.st/image/1/1.8j91L7a-XtYDgZzZHUzTWDaOXNDHmFrWx_8_3MtMURTOjFw.iDGd69W6WtuA4JummeGGPWvroG8LD3Cueus0MDmCd6g;https://30.img.avito.st/image/1/1.G-u_Ira-twLJjHUNhXY8j_yDtQQNlbMCDfLWCAFBuMAEgbU.HmRlbpvFCTPToIh82yH3IeEb80qG1J3rJ-hCscur7uo?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://40.img.avito.st/image/1/1.aE4fcba-xKdp3waoQzg6Q1zQxqGtxsCnraGlraESy2Wk0sY.y9ZbiT9Xy1CmK9KCYiK4oEi6L1fvSFscM2viznSnVTA;https://40.img.avito.st/image/1/1.YXeT57a-zZ7lSQ-R3dJPe9BGz5ghUMmeITeslC2EwlwoRM8.PZGtQ-LAKgpvQ9EUfDDCGLPUiLilwaIAKcMFp4HR0iY;https://10.img.avito.st/image/1/1.TMmnkLa-4CDRPiIvs9VvoeQx4iYVJ-QgFUCBKhnz7-IcM-I.T3g_zRmS9s0zCXGl4pKaqIqPtVJGqYPQz-JZ5353OU4?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://40.img.avito.st/image/1/1.OfZthba-lR8bK1cQE4kDkS4klxnfMpEf31X0FdPmmt3WJpc.QkZCFRG6FGgqehnyXujG3Pk57R5aK3euAGT5HL0Dg64;https://40.img.avito.st/image/1/1.8m8ePra-XoZokJyJdgnbY12fXICsiVqGrO4_jKBdUUSlnVw.YrG6sxo-O2Y8GNgHo88x5Vvfu3YcTpDRG9IKrz1YXCs;https://10.img.avito.st/image/1/1.JF7cu7a-iLeqFUq4mNtyUp0airFuDIy3bmvpvWLYh3VnGIo.zBYu-AyTzZRXapMCXFS8BzxSpXa1AWxvGk_w2gMwXCA?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://50.img.avito.st/image/1/1.drHJera-2li_1BhXqUtvsojb2F57zd5Ye6q7UncZ1Zpy2dg.URRo7Np3zHwE4cnjG2odPw7MEYY5s-FGMbAtn1Ho6ec;https://30.img.avito.st/image/1/1.DNLcu7a-oDuqFWI0yNdb3p0aoj1uDKQ7bmvBMWLYr_lnGKI.uH_F8fcOJYVR5sVgkgK6hZ4wssSPBSnR20zcUlnsOiI?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://90.img.avito.st/image/1/1.jnF5-ba-IpgPV-CXaZO_fDhYIJ7LTiaYyylDkseaLVrCWiA.z8aYCR-6aWiUZOivQlBFXjv6_iU38ym2jftShn20at8;https://60.img.avito.st/image/1/1._SLscLa-Ucua3pPEmgvTIa3RU81ex1XLXqAwwVITXglX01M.6bv6zgE1JJG8oYicJ1UfFVKRn70Q1obi6wdzL_CMBrY;https://60.img.avito.st/image/1/1.gOIcFba-LAtqu-4EECOxrFK0Lg2uoigLrsVNAaJ2I8mnti4.V5nNs9ZCPZKIe7KlUCHfmcIkL3OENBxo0eqZixl7GlY;https://70.img.avito.st/image/1/1.fquQOra-0kLmlBBN4G9T5t6b0EQijdZCIuqzSC5Z3YArmdA.6o1yy2cvq2lA27B6jPD50tbyEMjmWhMogA2HHPZE5Ws;https://80.img.avito.st/image/1/1.faqDTba-0UP14xNM9Th05c3s00Ux-tVDMZ2wST0u3oE47tM.B4JH0ImHirT-T9jM3ee_DSJ5nZR2UHTgMXB2RovfoBw</t>
+        </is>
+      </c>
+      <c r="U408" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V408" t="inlineStr"/>
+      <c r="W408" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>7669848351</v>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>Офис, 19.3 м²</t>
+        </is>
+      </c>
+      <c r="D409" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E409" t="inlineStr"/>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/ofis_19.3_m_7669848351?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>Сдам офисные помещения с новым ремонтом в цоколе (без окон).
+Иркутск, Маршала Конева 38/2 цоколь.
+· Офис: 19.3 м² = 15000 руб первый месяц без окна, далее по 19000 в месяц, включая коммунальные платежи.
+Офис 19.5 = 10000 руб первый месяц без окна, далее по 15000 в месяц включая коммунальные платежи.
+· Что имеем:
+· Свежий современный ремонт.
+· Туалет в общем коридоре.
+· Круглосуточный доступ по эл замку.
+· Что важно: Помещения без окон, в цокольном этаже.
+. коммунальные платежи включены.
+Идеально для бьюти индустрии, бухгалтера, репетитора и пр.
+Звоните.</t>
+        </is>
+      </c>
+      <c r="H409" s="1" t="n">
+        <v>46035.00185185186</v>
+      </c>
+      <c r="I409" t="inlineStr">
+        <is>
+          <t>0089235e004bc872c9499b2fdf1a8918</t>
+        </is>
+      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>ул. Маршала Конева, 38/2</t>
+        </is>
+      </c>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M409" t="inlineStr"/>
+      <c r="N409" t="inlineStr"/>
+      <c r="O409" t="inlineStr"/>
+      <c r="P409" t="inlineStr"/>
+      <c r="Q409" t="inlineStr"/>
+      <c r="R409" t="inlineStr"/>
+      <c r="S409" t="inlineStr">
+        <is>
+          <t>52.25880051;104.2047272</t>
+        </is>
+      </c>
+      <c r="T409" t="inlineStr">
+        <is>
+          <t>https://80.img.avito.st/image/1/1.swpMura-H-M6FN3sJqyqXh8bHeX-DRvj_mp-6fLZECH3GR0._AAWIWSfCiF95Dtk1Lf5_EpwRSrs0aadG_0Ee9UYbUY;https://10.img.avito.st/image/1/1.-9uvQba-VzLZ75U91RaQjvzgVTQd9lMyHZE2OBEiWPAU4lU.yIw_3wsRgMqEqaEcVlmI4lxfouDtRtx-3JfGFNWS8NY?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://50.img.avito.st/image/1/1.NWPo27a-mYqedVuFjqNaNrt6m4xabJ2KWgv4gFa4lkhTeJs.f4Msxs5GgKwcXX1I0289h5BJVPs-aChj2ZXASyLMHkA;https://90.img.avito.st/image/1/1.j7hXPba-I1Ehk-FeRSun7gScIVfliidR5e1CW-leLJPsniE.En_oBf9OkF7pIrvgoW02WbBSWOjW9jNcAqFoMO0Je7k;https://00.img.avito.st/image/1/1.huqR2La-KgPndugMkYq5ud95KAUjby4DIwhLCS-7JcEqeyg.lDWdzMzyOsKfMWDTIVmIqaXMN1O7_aukmBvKRDDUias?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://40.img.avito.st/image/1/1.pDlCPra-CNA0kMrfBhzmagyfCtbwiQzQ8O5p2vxdBxL5nQo.46IEgo43UKHwltKWOwBlgJqE3yaE7i-MzcmEgaDHN4Y;https://20.img.avito.st/image/1/1.nsw9DLa-MiVLovAqDWakkHOtMCOPuzYlj9xTL4NvPeeGrzA.tPNizn2JaksGVCQrYDF3m3YRSpGGlpYfDzXisB70Cis?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://70.img.avito.st/image/1/1.w1VyULa-b7wE_q2zeF_LCDzxbbrA52u8wIAOtswzYH7J820.t-MDSrXyiYeiBEjYerlLjN-Cj4_wgV5fTH44f4U77dA</t>
+        </is>
+      </c>
+      <c r="U409" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V409" t="inlineStr"/>
+      <c r="W409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>1415427425</v>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>Помещение магазина (офис) 78.2 м²</t>
+        </is>
+      </c>
+      <c r="D410" t="n">
+        <v>65000</v>
+      </c>
+      <c r="E410" t="inlineStr"/>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/pomeschenie_magazina_ofis_78.2_m_1415427425?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>Сдается в аренду помещение под действующий магазин (сейчас Янта), можно использовать под офис.
+В помещении выполнен косметический ремонт.
+Перегородка в помещении 5 демонтирована. Можно восстановить или изменить планировку как угодно.
+Первый этаж, отдельный вход, парковка.
+Возможна продажа помещения.</t>
+        </is>
+      </c>
+      <c r="H410" s="1" t="n">
+        <v>46036.54571759259</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>пер. Пугачёва, 3</t>
+        </is>
+      </c>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M410" t="inlineStr"/>
+      <c r="N410" t="inlineStr"/>
+      <c r="O410" t="inlineStr"/>
+      <c r="P410" t="inlineStr"/>
+      <c r="Q410" t="inlineStr"/>
+      <c r="R410" t="inlineStr"/>
+      <c r="S410" t="inlineStr">
+        <is>
+          <t>52.290174;104.290913</t>
+        </is>
+      </c>
+      <c r="T410" t="inlineStr">
+        <is>
+          <t>https://10.img.avito.st/image/1/1.hr2O8La_KlT4Xuhbjv77nANTLFIsVSpSSzAgXvhe6Fs4Uw.eY69Z4ffrg9vsE-egQpQj9nfWZvwP9l02_fVWMI2gWo?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://70.img.avito.st/image/1/1.0zBY2La_f9kudr3WcsPPecl7ed_6fX_fnRh10y52vdbuew.DeTwNEcnkFdvxUarTraEMlfiyxhmErckF8oE0V73Gww;https://30.img.avito.st/image/1/1.a42_pLa_x2TJCgVr5dEOmjIHwWIdAcdiemTNbskKBWsJBw.bc_k57M4rgAS1wZbSlmD1fNTcapmuxZcViyxOAQZReg?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://60.img.avito.st/image/1/1.CfYuh7a_pR9YKWcQMPNs4aMkoxmMIqUZ60evFVgpZxCYJA.wWToKixl1FS7O86tP2uloTziryXQoaWpsHmKtW7TILw;https://30.img.avito.st/image/1/1.btCG67a_wjnwRQA21p4LxwtIxD8kTsI_QyvIM_BFADYwSA.rTnF_E7xo3OsHfG8P9zfhJ5RgQm0Vym4GNAjN7ldtSY?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://00.img.avito.st/image/1/1.ZQPsxra-yeqaaAvlqr9qbK9ny-xecc3qXhao4FKlxihXZcs.PptYBzOiaYDl-qla4oIwsGuALnTJUTp0W-QuuvoWhNk?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://00.img.avito.st/image/1/1.ZjqN77a-ytP7QQjczdYIU85OyNU_WM7TPz-r2TOMxRE2TMg.Ty7LgryiTy04p5BHjTGnJfnub1hE5bDA6aG_mA3tDIc?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://70.img.avito.st/image/1/1.TqMY4La-4kpuTiBFCI1ss1pB4EyqV-ZKqjCDQKaD7YijQ-A.JQgN1wMVywPxzNEe6oDWd_DWI8BAHE93FyvWEb0V44s;https://30.img.avito.st/image/1/1.nfHveba-MRiZ1_MX2UOj4a3YMx5dzjUYXalQElEaPtpU2jM.nZwk4RuGfZcBSrXLxZcmeUNUH8JjFy343v1Owx0REbA?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://70.img.avito.st/image/1/1.xWjcxra-aYGqaKuO2qWhB59na4ducW2BbhYIi2KlZkNnZWs.979aJTKyjsbkf9IyJGNwvAFDTnPXgtOtceeLOjb7BaI;https://30.img.avito.st/image/1/1.bfHnOba-wRiRlwMXsSBb4aWYwx5VjsUYVemgEllaztpcmsM.IvTvv990jDM_corwvRajYgj--I7KNe0b22Xz2FYKOY0?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://80.img.avito.st/image/1/1.O3zIyra-l5W-ZFWastIDE4trlZN6fZOVehr2n3apmFdzaZU.sNImg0D7zoqdNPvCn22Hdf_xOG3DUloaE33KPLc36IQ</t>
+        </is>
+      </c>
+      <c r="U410" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V410" t="inlineStr"/>
+      <c r="W410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>1967224558</v>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>Офис, 26 м²</t>
+        </is>
+      </c>
+      <c r="D411" t="n">
+        <v>36000</v>
+      </c>
+      <c r="E411" t="inlineStr"/>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//bratsk/kommercheskaya_nedvizhimost/ofis_26_m_1967224558?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>Освобождается часть нежилого помещения.
+26 кв. М.
+Помещение расположено недалеко от федеральной трассы, которая соединяет с жилыми районами Падун и Энергетик.
+Успевайте! Помещение в этой локации освобождается крайне редко!
+Удобный подъезд для автомобилей, парковка, крупный рынок «Багульник», оживленный перекресток, троллейбусные и автобусные остановки обеспечивают отличную проходимость в данном месте, что является важнейшим фактором успеха практически в любом бизнесе.</t>
+        </is>
+      </c>
+      <c r="H411" s="1" t="n">
+        <v>46032.63105324074</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>ул. Крупской, 13</t>
+        </is>
+      </c>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>Братск</t>
+        </is>
+      </c>
+      <c r="M411" t="inlineStr"/>
+      <c r="N411" t="inlineStr"/>
+      <c r="O411" t="inlineStr"/>
+      <c r="P411" t="inlineStr"/>
+      <c r="Q411" t="inlineStr"/>
+      <c r="R411" t="inlineStr"/>
+      <c r="S411" t="inlineStr">
+        <is>
+          <t>56.175076;101.605136</t>
+        </is>
+      </c>
+      <c r="T411" t="inlineStr">
+        <is>
+          <t>https://00.img.avito.st/image/1/1.4S4U2ra_TcdidI_IWp3cMuB5S8G2f03B0RpHzWJ0j8iieQ.RIlnXJtMtlQgZ6R_6DBqRhMrqNJVe3YyiI0C1CSKDgw?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://10.img.avito.st/image/1/1.bsB197a-wikDWQAmJfIT2DpWwC_HQMYpxyejI8uUzevOVMA.xktbXk4lg756M6qgjaBsb7QYKqsmKF7kglhGfCgbS34?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://20.img.avito.st/image/1/1.wAL8TLa-bOuK4q7k8A_aHbPtbu1O-2jrTpwN4UIvYylH724.A8Ze3YGnQWSnzIoN3wJRYS7bQrXjhEqTddZpwJ4C1Ck?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://00.img.avito.st/image/1/1.vCsYWLa-EMJu9tLNbE6sNFf5EsSq7xTCqohxyKY7HwCj-xI.esaKrFuU-dgyzSfnxBMS8OJOPbdorfBFtlmR_Ndny7c?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://10.img.avito.st/image/1/1.9xnh-La-W_CXVpn_g8v_B65ZWfZTT1_wUyg6-l-bVDJaW1k.0jH4Mky_4oru-DxLclL_XV53PC2uwpU7NGeItfJUPPA?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://60.img.avito.st/image/1/1.8OFd1ba-XAgre54HMeL5_xJ0Xg7vYlgI7wU9AuO2U8rmdl4.Tpoec0WGPOp3V3WIrAr92EJ0-yJMadNBGZ62YUb8dV8</t>
+        </is>
+      </c>
+      <c r="U411" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V411" t="inlineStr"/>
+      <c r="W411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>7815411129</v>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>Офис, 15 м²</t>
+        </is>
+      </c>
+      <c r="D412" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E412" t="inlineStr"/>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/ofis_15_m_7815411129?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>Собственник!
+Сдам офисные помещения на 3-м этаже. Площадь от 15 до 50м2 (1000 рублей за м2).
+Центральное отопление, вода, с/у.
+Охраняемая закрытая территория бывшего завода «Кедр».
+Удобная транспортная развязка, остановка общественного транспорта сразу за зданием.</t>
+        </is>
+      </c>
+      <c r="H412" s="1" t="n">
+        <v>46038.58378472222</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>ул. Рабочего Штаба, 27/1</t>
+        </is>
+      </c>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M412" t="inlineStr"/>
+      <c r="N412" t="inlineStr"/>
+      <c r="O412" t="inlineStr"/>
+      <c r="P412" t="inlineStr"/>
+      <c r="Q412" t="inlineStr"/>
+      <c r="R412" t="inlineStr"/>
+      <c r="S412" t="inlineStr">
+        <is>
+          <t>52.3059082;104.2977295</t>
+        </is>
+      </c>
+      <c r="T412" t="inlineStr">
+        <is>
+          <t>https://60.img.avito.st/image/1/1.s3dmpra-H54QCN2RDPDgHSkHHZjUERue1HZ-lNjFEFzdBR0.vtkHRob3XSV0Pl8dlHtpo92UFbgTXSUxqX9h9gm_kgo;https://90.img.avito.st/image/1/1.7pGaRba-Qnjs64B3ynq6-9XkQH4o8kZ4KJUjciQmTboh5kA.OF8pbdeBFU1ZBA_P4PDrcrjpZRXEHWAh39hYDXCOhDk;https://20.img.avito.st/image/1/1.6w4sLLa-R-dagoXodgevZ2ONReGem0Pnnvwm7ZJPSCWXj0U.g3GRmc4Lr_SIqmVMy6fVjfJjtGE-z81ckgzRZ0RezeM?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://30.img.avito.st/image/1/1.sZ_jtba-HXaVG995jcuT9awUH3BRAhl2UWV8fF3WErRYFh8.gNbKPZJkb4VH9eVRd5ZsjqcobiXq5_XIQ7YHKsRRUYw?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U412" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V412" t="inlineStr"/>
+      <c r="W412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>7756181997</v>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>Офисы в БЦ Соната</t>
+        </is>
+      </c>
+      <c r="D413" t="n">
+        <v>62400</v>
+      </c>
+      <c r="E413" t="inlineStr"/>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/ofisy_v_bts_sonata_7756181997?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>Сдается офис БЦ Соната.
+Площадь помещения 53 кв. М.
+Первый этаж окна выходят на ул. Байкальская.
+Площадь можно уменьшить.
+Офисы с ремонтом, в стоимость входит вся коммуналка( отопление, обслуживание, охрана, уборка) кроме э/э.
+Более детально узнавайте по телефону.</t>
+        </is>
+      </c>
+      <c r="H413" s="1" t="n">
+        <v>46042.44494212963</v>
+      </c>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>i79253487</t>
+        </is>
+      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>Советская ул., 3Б</t>
+        </is>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M413" t="inlineStr"/>
+      <c r="N413" t="inlineStr"/>
+      <c r="O413" t="inlineStr"/>
+      <c r="P413" t="inlineStr"/>
+      <c r="Q413" t="inlineStr"/>
+      <c r="R413" t="inlineStr"/>
+      <c r="S413" t="inlineStr">
+        <is>
+          <t>52.277252;104.30346</t>
+        </is>
+      </c>
+      <c r="T413" t="inlineStr">
+        <is>
+          <t>https://40.img.avito.st/image/1/1.Nc7Hsra-mSexHFsood53yIkTmyF1BZ0ndWL4LXnRluV8EZs.9yz8ItXw3Pu_4tSGxKDvqo0t--_g8iRcnwaypnKakms;https://20.img.avito.st/image/1/1.kVUKVLa-Pbx8-v-zJHaNb0_1P7q44zm8uIRctrQ3Mn6x9z8.rXFyqpHJu1a65EOKaDn3GfU63SepGhn9z0znbSy5QP0?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://20.img.avito.st/image/1/1.LJ9vRLa-gHYZ6kJ5O0gipirlgnDd84R23ZThfNEnj7TU54I.b4OxlERX9fnZk4r2muXsYwi7jf41gR78T30MYzzmA3M?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://00.img.avito.st/image/1/1.jzs0ULa-I9JC_uHdJgKqAXHxIdSG5yfShoBC2IozLBCP8yE.xJXP-vZdgZ2y3sT1m5vFFl9nmmnhbmCdRhiX07QN2Ws?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://30.img.avito.st/image/1/1.8wSLVba-X-39-53i4V7pPs70Xes54lvtOYU-5zU2UC8w9l0.WIQNr7UjCLOITWCzpeqH-bSwnU8TL6OJ1Gl5r-E0a2Y?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://90.img.avito.st/image/1/1.u8S3JLa-Fy3BitUizRa94PKFFSsFkxMtBfR2JwlHGO8MhxU.AonuJ9Iody_yG0kwTJyG5NNcbk1saI7P-65wK0VrlW8;https://10.img.avito.st/image/1/1.dSTOyLa-2c24ZhvCqKlqHotp28t8f93NfBi4x3Cr1g91a9s.M_dBgKpYynVc0AjOmpF790lf5shRMIPkDjyDZrUjaCQ?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://80.img.avito.st/image/1/1.bAxdyra-wOUrZALqCfddNxhrwuPvfcTl7xqh7-OpzyfmacI.e5XBJtPIOKaUamuoYu2DLUFj_mXsF9em4iDEx_TTqBw;https://00.img.avito.st/image/1/1.hLJRHLa-KFsnsupUVRKdiBS9Kl3jqyxb48xJUe9_J5nqvyo.5iRdAGd6bxSqobvDyE0vmhE4gi2TaKprCd9v9hKTr4Q?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U413" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V413" t="inlineStr"/>
+      <c r="W413" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>2091450927</v>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Офис, 40 м²</t>
+        </is>
+      </c>
+      <c r="D414" t="n">
+        <v>38000</v>
+      </c>
+      <c r="E414" t="inlineStr"/>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/ofis_40_m_2091450927?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>Сдаётся офисное помещение ( 2 отдельные комнаты, туалет). Вход отдельный. Район Лисихи. Не агентство.</t>
+        </is>
+      </c>
+      <c r="H414" s="1" t="n">
+        <v>46036.46552083334</v>
+      </c>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>493630cfec592ae9cdafc8358bb30bd5</t>
+        </is>
+      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>Дальневосточная ул., 160</t>
+        </is>
+      </c>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M414" t="inlineStr"/>
+      <c r="N414" t="inlineStr"/>
+      <c r="O414" t="inlineStr"/>
+      <c r="P414" t="inlineStr"/>
+      <c r="Q414" t="inlineStr"/>
+      <c r="R414" t="inlineStr"/>
+      <c r="S414" t="inlineStr">
+        <is>
+          <t>52.254881;104.319584</t>
+        </is>
+      </c>
+      <c r="T414" t="inlineStr">
+        <is>
+          <t>https://40.img.avito.st/image/1/1.TCLc_ba_4MuqUyLEyMA5fSRe5s1-WODNGT3qwapTIsRqXg.IR88v0etGWAlXWgCPtMcGvXBl745ZV0Nd-jb-wwQldo;https://50.img.avito.st/image/1/1.0AcgRra_fO5W6L7hDH2lWNjleuiC43zo5YZ25FbovuGW5Q.shQaivbpcGMw5jaYHgFbiGlMesvOQkewGvP9GdHTgOQ;https://10.img.avito.st/image/1/1.V48LjLa_-2Z9IjlpKaEi0PMv_WCpKftgzkzxbH0iOWm9Lw.LXwDeRkU2LKA-w_3GxXdv1hAMxCQQphiT442J0KBLd0?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://50.img.avito.st/image/1/1.pXl6Hra_CZAMsMufPCzQJoK9D5bYuwmWv94Dmgywy5_MvQ.ALwWVswZCd-v5q1fJtPruh69IO_C1IxrEas2L49vLgY;https://70.img.avito.st/image/1/1.Ucd9era__S4L1D8hU0skmIXZ-yjf3_0ouLr3JAvUPyHL2Q._MWaeqyFcpe0_VGgqBit3ztav_40YST92YoBHs5amm4;https://30.img.avito.st/image/1/1.8aBvj7a_XUkZIZ9GAbiE_5csW0_NKl1Pqk9XQxkhn0bZLA.sCDhFtJy5kkyxyTg9zf4uo65N5N5xgjt9odBsgg0GlQ?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://60.img.avito.st/image/1/1.cAcghra_3O5WKB7hTLMFWNgl2uiCI9zo5UbW5FYoHuGWJQ.sgfvOLnvEymHyPnhxA2Slcg2RjBmR2JwGmOwbNc2q_U;https://90.img.avito.st/image/1/1.TlntNLa_4rCbmiC__Q07BhWX5LZPkeK2KPToupuaIL9blw.A5jJTWt6gyR9AJnIpJt6_GIvpkKGpPo2sB6uTp-vu_k;https://90.img.avito.st/image/1/1.Gs8f2La_tiZpdnQpJ6RvkOd7sCC9fbYg2hi8LGl2dCmpew.CAReIZwNdxlxhtp7Hkk0z-fDFfSqxCtfBM8YJZuutO4</t>
+        </is>
+      </c>
+      <c r="U414" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V414" t="inlineStr"/>
+      <c r="W414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>4504208476</v>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Свободного назначения, 36 м²</t>
+        </is>
+      </c>
+      <c r="D415" t="n">
+        <v>25000</v>
+      </c>
+      <c r="E415" t="inlineStr"/>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//angarsk/kommercheskaya_nedvizhimost/svobodnogo_naznacheniya_36_m_4504208476?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>Свободное 2 павильона 36 и 54 м. Кв.
+Предлагаем в аренду павильоны от 24 до 60 м. Кв. Свободного назначения с отдельным входом на первой линии по улице Декабристов ( 258 квартал, строение 300/1, корпус 2) под.
+Магазин Автозапчасти или смешанных товаров.
+Офис.
+Пункт выдачи товаров.
+Мастерскую.
+Склад и т. Д.
+Коммуникации — централизованные, санузел.
+Парковка — удобная парковка для грузового и легкового транспорта.
+Подъездные пути — удобный сквозной заезд и выезд с улицы Декабристов для грузового и легкового транспорта.
+Работаем с физлицами, ИП, организациями.</t>
+        </is>
+      </c>
+      <c r="H415" s="1" t="n">
+        <v>46028.7975</v>
+      </c>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>be3b5424d72bba7b725027dd07c08230</t>
+        </is>
+      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>258-й квартал, 300/1к2</t>
+        </is>
+      </c>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>Ангарск</t>
+        </is>
+      </c>
+      <c r="M415" t="inlineStr"/>
+      <c r="N415" t="inlineStr"/>
+      <c r="O415" t="inlineStr"/>
+      <c r="P415" t="inlineStr"/>
+      <c r="Q415" t="inlineStr"/>
+      <c r="R415" t="inlineStr"/>
+      <c r="S415" t="inlineStr">
+        <is>
+          <t>52.51265302646749;103.88390092703395</t>
+        </is>
+      </c>
+      <c r="T415" t="inlineStr">
+        <is>
+          <t>https://10.img.avito.st/image/1/1.i6a5rLa-J0_PAuVAo9q_hdwNJUkLGyNPC3xGRQfPKI0CDyU.MalrKes2aIcJSQvyMyM87fFkdNu0BARfC8Ku61hjcYw?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://00.img.avito.st/image/1/1.4d9Yn7a-TTYuMY85FrjI_T0-TzDqKEk26k8sPOb8QvTjPE8.eEfI-mI3P-gSsweaOYTF7YPwwAJkYTQQc6Sab1_i_X8?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://00.img.avito.st/image/1/1.TMXjDra-4CyVoCIj9w931aSv4ipRueQsUd6BJl1t7-5YreI.DEyFtD_G4giueQhatNKGcpX13SSRcD6V0m9Ccmpe6mo?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://40.img.avito.st/image/1/1.Odbqn7a-lT-cMVcwlKsL9Y8-lzlYKJE_WE_0NVT8mv1RPJc.kHkBr8xt94nK2AKeq0fE9SOCX5ootgXIaaoOgvk0tb8;https://20.img.avito.st/image/1/1.uQoSs7a-FeNkHdfsbOGfGgASF-WgBBHjoGN06azQGiGpEBc.JahoDbzjiDhVTqnBZ4MxqEdAE0SLYu1yl_heOZJ7qTs?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://90.img.avito.st/image/1/1.ukeCN7a-Fq70mdSh-kmXV5CWFKgwgBKuMOd3pDxUGWw5lBQ.6q55NTAiH_GbOCcJVevh7-uY7Rb5n_B0R6qaEJRbsRs;https://50.img.avito.st/image/1/1.983PALa-WyS5rpkrrRucpOKhWSJ9t18kfdA6LnFjVOZ0o1k.TnK2LWTiTapnjySyxllpBhzJsMJj5o7XMLm_ljATuj4;https://30.img.avito.st/image/1/1.4kNPT7a-Tqo54YylB2D5T1zuTKz9-Eqq_Z8voPEsQWj07Ew.ENSjmqsfz8qpLfBE-yWdi8jUbiKn9mi-xYtxSMK8oAs?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://90.img.avito.st/image/1/1.MEZ5lLa-nK8POl6gFZwiL1Q1nqnLI5ivy0T9pcf3k23CN54.QSIC-xbOQGbYqc8_aC91gMxroBM-ciuZATIK2z8298Q;https://60.img.avito.st/image/1/1.-mw6l7a-VoVMOZSKQqDefCg2VIOIIFKFiEc3j4T0WUeBNFQ.tXuIxE1inMbLW3Mo5mzyFOnJm32ph1wEs-LG6xdu0C0;https://50.img.avito.st/image/1/1.Rc3i3La-6SSUcisr5JldwfF96yJQa-0kUAyILly_5uZZf-s.Dv3YeE8UJvlAn7v0S8_QPFuhFwWHD4wwRXRV90IlKy0;https://80.img.avito.st/image/1/1.knYKl7a-Pp98OfyQIq27Zhg2PJm4IDqfuEdflbT0MV2xNDw.stoUf9SkY4Qs2A7RQ89EJ_OhCGRXLsnqdpYH0jKdFPA;https://00.img.avito.st/image/1/1.q3GcBLa-B5jqqsWXxgbGGLGlBZ4uswOYLtRmkiJnCFonpwU.T0N4aDfTz40ayuC6eRthZ8wLcsCzsvB5emBNKCm5uwU?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U415" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V415" t="inlineStr"/>
+      <c r="W415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>7867070644</v>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Офис, 35 м²</t>
+        </is>
+      </c>
+      <c r="D416" t="n">
+        <v>42000</v>
+      </c>
+      <c r="E416" t="inlineStr"/>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/ofis_35_m_7867070644?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>Субаренда в шоуруме | 70 м² | Для дизайнеров/архитекторов.
+Сдам в субаренду часть помещения в действующем шоуруме натяжных потолков.
+Общая площадь помещения — 70 м². Сдаем часть.
+Ищем смежников: дизайнеров интерьера, архитекторов, мебель на заказ, двери, напольные покрытия, отделочные материалы, электрика/умный дом и т. Д.
+Плюсы:
+Первая линия.
+Действующий шоурум с клиентами.
+Возможность получать заявки и совместные проекты.
+Удобное место для встреч и консультаций.
+Можно разместить рабочее место/стенд/образцы.
+Рядом остановка общественного транспорта.
+Условия: площадь под аренду обсуждается, цена договорная.
+Пишите/звоните — покажем помещение, обсудим формат сотрудничества.</t>
+        </is>
+      </c>
+      <c r="H416" s="1" t="n">
+        <v>46037.86260416666</v>
+      </c>
+      <c r="I416" t="inlineStr">
+        <is>
+          <t>i6683838</t>
+        </is>
+      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>Байкальская ул., 106</t>
+        </is>
+      </c>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M416" t="inlineStr"/>
+      <c r="N416" t="inlineStr"/>
+      <c r="O416" t="inlineStr"/>
+      <c r="P416" t="inlineStr"/>
+      <c r="Q416" t="inlineStr"/>
+      <c r="R416" t="inlineStr"/>
+      <c r="S416" t="inlineStr">
+        <is>
+          <t>52.26656974225183;104.30891928962279</t>
+        </is>
+      </c>
+      <c r="T416" t="inlineStr">
+        <is>
+          <t>https://60.img.avito.st/image/1/1.hHM1Hra-KJpDsOqVMVCYWXu_KpyHqSyah85JkIt9J1iOvSo.iW8qGxhXEI1gpqRWqoUNx8fRs--DEPrgKIHfk4KWCHM;https://80.img.avito.st/image/1/1.qwknB7a-B-BRqcXvfWXoXGmmBeaVsAPglddm6plkCCKcpAU.TstjFGVnxRvNKBbLQbdJgQANrqB0zy4UDnETAecBzmk;https://10.img.avito.st/image/1/1.TLwiP7a-4FVUkSJaNn4E6Wye4lOQiORVkO-BX5xc75eZnOI.sFoIIeAzBaLW9UYnTwOaw-d2qSt5f9L0KEZ0spDjlSE?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U416" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V416" t="inlineStr"/>
+      <c r="W416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>7855368980</v>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Свободного назначения, 47 м²</t>
+        </is>
+      </c>
+      <c r="D417" t="n">
+        <v>65800</v>
+      </c>
+      <c r="E417" t="inlineStr"/>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/svobodnogo_naznacheniya_47_m_7855368980?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>Сдам светлое помещение на 1-м этаже дома по Байкальской, 320/1.
+Отдельный вход, потолки 2,4 м, парковка у входа.
+Основные характеристики.
+Отдельный вход с улицы.
+Потолки 2,4 м.
+Электрическая мощность 15 квт.
+Аренда: субаренда.
+Минимальный срок договора: 11 месяцев.
+Парковка перед зданием (бесплатная, удобный подъезд).
+Возможен Ремонт + Арендные Каникулы.
+Локация и преимущества.
+Октябрьский район, ул. Байкальская, 320/1.
+Рядом продуктовые и сервисные магазины.
+Дополнительный поток клиентов от пункта Ozon.
+Постоянный пешеходный и автомобильный трафик.
+Дополнительно.
+Рассматриваем разные виды деятельности (кроме продажи алкоголя, овощей и фруктов — такие арендаторы уже есть в соседних помещениях).
+Возможен торг по условиям.
+Звоните, отвечу на все вопросы и договоримся о просмотре!</t>
+        </is>
+      </c>
+      <c r="H417" s="1" t="n">
+        <v>46031.48695601852</v>
+      </c>
+      <c r="I417" t="inlineStr">
+        <is>
+          <t>6f6062d4747c8461e8ad9c3352a1cfbf</t>
+        </is>
+      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>Байкальская ул., 320/1</t>
+        </is>
+      </c>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M417" t="inlineStr"/>
+      <c r="N417" t="inlineStr"/>
+      <c r="O417" t="inlineStr"/>
+      <c r="P417" t="inlineStr"/>
+      <c r="Q417" t="inlineStr"/>
+      <c r="R417" t="inlineStr"/>
+      <c r="S417" t="inlineStr">
+        <is>
+          <t>52.24988;104.358221</t>
+        </is>
+      </c>
+      <c r="T417" t="inlineStr">
+        <is>
+          <t>https://00.img.avito.st/image/1/1.vWlsy7a-EYAaZdOPGt2yeS1qE4befBWA3htwitKoHkLXaBM.m0oaH7AVlYgVGy4RuZMXr8RmEdZXqbfdZrZ67k0En-M?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://70.img.avito.st/image/1/1.EyDVCLa-v8mjpn3G_yQeNZSpvc9nv7vJZ9jew2trsAtuq70.5r2n2USHVponz-6JDF8e_XElQ8cE0lDEBkznnlbKfY8;https://20.img.avito.st/image/1/1._OKXzra-UAvhYJIE47mJ8tZvUg0leVQLJR4xASmtX8ksbVI.gumdDuwZsbDYQsCL0B2Vf4VBY8_W04A2c2TjEaOQXOI?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://80.img.avito.st/image/1/1.nTGqQba-Mdjc7_PXnGfmIevgM94Y9jXYGJFQ0hQiPhoR4jM.L45uy932b4KNB0hhIbchFVH7Iv3KOyYcfoFgewRCOwA;https://30.img.avito.st/image/1/1.Nq6m-La-mkfQVlhIxux5vudZmEEUT55HFCj7TRiblYUdW5g.WPzFk4GDLIVDfQCb3w81I5VTZi4sY769v1-8QwYA574?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U417" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V417" t="inlineStr"/>
+      <c r="W417" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>7904448602</v>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Офис, 27.5 м²</t>
+        </is>
+      </c>
+      <c r="D418" t="n">
+        <v>14000</v>
+      </c>
+      <c r="E418" t="inlineStr"/>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/ofis_27.5_m_7904448602?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>Сдается помещение, под офис или свободного назначения. Долгосрочная аренда, туалет на 4 этаже, коммунальные услуги включены, электричество по счетчику.</t>
+        </is>
+      </c>
+      <c r="H418" s="1" t="n">
+        <v>46042.55644675926</v>
+      </c>
+      <c r="I418" t="inlineStr">
+        <is>
+          <t>40bd1909d7dce9d3d3b563ccc510c486</t>
+        </is>
+      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>ул. Розы Люксембург, 182</t>
+        </is>
+      </c>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M418" t="inlineStr"/>
+      <c r="N418" t="inlineStr"/>
+      <c r="O418" t="inlineStr"/>
+      <c r="P418" t="inlineStr"/>
+      <c r="Q418" t="inlineStr"/>
+      <c r="R418" t="inlineStr"/>
+      <c r="S418" t="inlineStr">
+        <is>
+          <t>52.35559845;104.1619034</t>
+        </is>
+      </c>
+      <c r="T418" t="inlineStr">
+        <is>
+          <t>https://30.img.avito.st/image/1/1.qnALYba-Bpl9z8SWU0eTT0TABJ-51gKZubFnk7UCCVuwwgQ.QKOrIz47wcRvoc56KE-NBOZPthW_1DDnEkStHU1W1fU?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://50.img.avito.st/image/1/1.E-whQba-vwVX730KC1UMg2zgvQOT9rsFk5HeD58isMea4r0.3Ryznq262BcXbmoV_tKXHO66Tw7Bz1gu2boNNGg227Q;https://00.img.avito.st/image/1/1.-1aROba-V7_nl5Ww60qzP9yYVbkjjlO_I-k2tS9aWH0qmlU.rDbLq2BoleyJ87YpsnaxNGPeX3tJW2fCxQq83jdAJ38?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://80.img.avito.st/image/1/1.Elh6nra-vrEMMHy-UqZrMDc_vLfIKbqxyE7fu8T9sXPBPbw.Bp1qLD4KilEAAxFZxIv-p1k035FMDbtEBCJrL4Qzte4;https://30.img.avito.st/image/1/1.BBgta7a-qPFbxWr-KXdUcmDKqvef3Kzxn7vJ-5MIpzOWyKo.N9W7rKdbrKYzGwAjghrVwt6iYdtI7RkXKI_OIWxsNps?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U418" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V418" t="inlineStr"/>
+      <c r="W418" t="inlineStr"/>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>7392439195</v>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Свободного назначения, 40.7 м²</t>
+        </is>
+      </c>
+      <c r="D419" t="n">
+        <v>30525</v>
+      </c>
+      <c r="E419" t="inlineStr"/>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/svobodnogo_naznacheniya_40.7_m_7392439195?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>Сдается помещение 40,7 кв. М в самом центре города по ул. Марата,22 в цокольном этаже. Высота потолков 2,435 м. Санузел на этаже. Камеры наружного видеонаблюдения, охранно-пожарная система защиты, интернет, приточно-вытяжная вентиляция, после ремонта. Эксплуатационные платежи включены в аренду. 750 руб за 1м2 в месяц. Без Ндс. Без залога. Собственник.</t>
+        </is>
+      </c>
+      <c r="H419" s="1" t="n">
+        <v>46038.43991898148</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>ул. Марата, 22</t>
+        </is>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M419" t="inlineStr"/>
+      <c r="N419" t="inlineStr"/>
+      <c r="O419" t="inlineStr"/>
+      <c r="P419" t="inlineStr"/>
+      <c r="Q419" t="inlineStr"/>
+      <c r="R419" t="inlineStr"/>
+      <c r="S419" t="inlineStr">
+        <is>
+          <t>52.285583;104.27731</t>
+        </is>
+      </c>
+      <c r="T419" t="inlineStr">
+        <is>
+          <t>https://40.img.avito.st/image/1/1.uIqsWra-FGPa9NZs0BiA6Nb7FmUe7RBjHop1aRI5G6EX-RY.GI7sczD27yanU_xZvowIVhwk-kUlpwHJdoWYmbnXLvY;https://80.img.avito.st/image/1/1.JS-UPba-icbik0vJ0glcTu6ci8Amio3GJu3ozCpehgQvnos.dOXMGkJz1XdvGSvRnP4NtfKlXEDgHinrnY3d9FSfqws;https://90.img.avito.st/image/1/1.7deUYra-QT7izIMxwinLtu7DQzgm1UU-JrIgNCoBTvwvwUM.WhMwPLVD3kgqllMgmB0PTzadqmAnMbMaMtLjOnW1zy0;https://50.img.avito.st/image/1/1.ZqrXJ7a-ykOhiQhMl3YKyq2GyEVlkM5DZferSWlExYFshMg.hcJLghNWzl8aIWHScwrTCSpxAy1HX81dlp3YQ-oP4Yc;https://70.img.avito.st/image/1/1.EMqlA7a-vCPTrX4siVcDqt-iviUXtLgjF9PdKRtgs-EeoL4.8ncTl_mRbJW2I6ljINDxInBa3tJniRWd3IJ6cKrAnjk;https://00.img.avito.st/image/1/1.Cxs9rLa-p_JLAmX9J4QvekcNpfSPG6Pyj3zG-IPPqDCGD6U.y9cqbHwmDLYLuDltVR8ffT2Exs1AJP2TyqavX9uWvB4?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://80.img.avito.st/image/1/1.prOHJ7a-ClrxichVxzWA0v2GCFw1kA5aNfdrUDlEBZg8hAg.XI52ls9YESgrcCOhDROeono8HWm4ZvRfDowSDiPeXM8;https://40.img.avito.st/image/1/1.mcdJ4ba-NS4_T_chd8-xpjNANyj7VjEu-zFUJPeCOuzyQjc.c7Z5ZSJCRlVrvPMFMMQpEwaEv4EveOcLb8CCOQeROho;https://60.img.avito.st/image/1/1.Ser0lra-5QOCOCcM6st-iI435wVGIeEDRkaECUr16sFPNec.015d5HdtdT7I-CWm4Otqvffjt-Hgix2X0M6dBFgx-vI;https://30.img.avito.st/image/1/1.V4tEgra--2IyLDltZrMzpCwj-WT2Nf9i9lKaaPrh9KD_Ifk.oM6bOkyXBzG1sVCA-90TDUTXQ3kHnV7qzJll60MTi9g?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U419" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V419" t="inlineStr"/>
+      <c r="W419" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>7850894193</v>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Офис</t>
+        </is>
+      </c>
+      <c r="D420" t="n">
+        <v>45000</v>
+      </c>
+      <c r="E420" t="inlineStr"/>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//angarsk/kommercheskaya_nedvizhimost/ofis_7850894193?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>Сдаётся в аренду помещение по адресу 178кв-л 11д. (напротив ТД Кудесник).
+Просторный торговый зал и подсобная комната.
+Подходит под любой вид деятельности.</t>
+        </is>
+      </c>
+      <c r="H420" s="1" t="n">
+        <v>46026.26616898148</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>178-й квартал, 11</t>
+        </is>
+      </c>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>Ангарск</t>
+        </is>
+      </c>
+      <c r="M420" t="inlineStr"/>
+      <c r="N420" t="inlineStr"/>
+      <c r="O420" t="inlineStr"/>
+      <c r="P420" t="inlineStr"/>
+      <c r="Q420" t="inlineStr"/>
+      <c r="R420" t="inlineStr"/>
+      <c r="S420" t="inlineStr">
+        <is>
+          <t>52.5091629;103.8418121</t>
+        </is>
+      </c>
+      <c r="T420" t="inlineStr">
+        <is>
+          <t>https://70.img.avito.st/image/1/1.nxXXgba-M_yhL_Hz5ZP8QpIgMfplNjf8ZVFS9mniPD5sIjE.DdURqd5qgbT_BvrYldkXjjFJJLEtOtw4hkuvvLhJOpw;https://90.img.avito.st/image/1/1.bxUyYba-w_xEzwHzYDAbRXfAwfqA1sf8gLGi9owCzD6JwsE.oo9WmaN91ugyYBRb8q6z6sOoVgilvs_vDKX-r2ttcmc;https://80.img.avito.st/image/1/1.tRLKuLa-Gfu8Ftv0rOKuRI8ZG_14Dx37eGh48XTbFjlxGxs.GnY8xgRViXGHT-8YBXRCW9rXOW73s9qlyR9_W0_xmTI;https://70.img.avito.st/image/1/1.zxUrgba-Y_xdL6HzOZLcRW4gYfqZNmf8mVEC9pXibD6QImE.qpqDEyfqx_jyd9GLS-0C29OsMyhGehcuYuVrMak_5xk;https://50.img.avito.st/image/1/1.yhizlLa-ZvHFOqT-q4-vT_Y1ZPcBI2LxAUQH-w33aTMIN2Q.lHsjYSnMxyOuncVj-4lWnzT3jI4qoq-JjB9ng-RuX-E;https://50.img.avito.st/image/1/1.5pSJS7a-Sn3_5YhyyTz-w8zqSHs7_E59O5srdzcoRb8y6Eg.ZPX07hGTjZuk37wooJyFNWkqhND9Y2yJoZD4o3mNmYI</t>
+        </is>
+      </c>
+      <c r="U420" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V420" t="inlineStr"/>
+      <c r="W420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>7579677251</v>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Павильон 15 - 30 м² на 1 линии ул. Розы Люксембург</t>
+        </is>
+      </c>
+      <c r="D421" t="n">
+        <v>32000</v>
+      </c>
+      <c r="E421" t="inlineStr"/>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/pavilon_15_-_30_m_na_1_linii_ul._rozy_lyuksemburg_7579677251?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>Аренда без комиссии.
+Сдается помещение 15м2-30м2 (павильон) под торговлю или офис, на первой линии ул. Розы Люксембург, отдельный вход, большая парковка, круглосуточный доступ под любую деятельность.
+Цена 32т. Р. /мес., + эл-во (за 15м2).</t>
+        </is>
+      </c>
+      <c r="H421" s="1" t="n">
+        <v>46040.94347222222</v>
+      </c>
+      <c r="I421" t="inlineStr">
+        <is>
+          <t>i30351262</t>
+        </is>
+      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>ул. Розы Люксембург, 174А</t>
+        </is>
+      </c>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M421" t="inlineStr"/>
+      <c r="N421" t="inlineStr"/>
+      <c r="O421" t="inlineStr"/>
+      <c r="P421" t="inlineStr"/>
+      <c r="Q421" t="inlineStr"/>
+      <c r="R421" t="inlineStr"/>
+      <c r="S421" t="inlineStr">
+        <is>
+          <t>52.351428;104.174039</t>
+        </is>
+      </c>
+      <c r="T421" t="inlineStr">
+        <is>
+          <t>https://70.img.avito.st/image/1/1.DD4Dmra-oNd1NGLYF5oYTkQ7otGxLaTXsUrB3b35rxW4OaI.y2jS-cSKhG5dOBas1j0-6qRl3yKxqmZUIya3puue9Mc;https://60.img.avito.st/image/1/1.kNGt8La-PDjbXv43gYaQoepRPj4fRzg4HyBdMhOTM_oWUz4.Zuti8UyI2kWETHHQcHUmcFJBr3nRxts7gVhomtLg5lg;https://40.img.avito.st/image/1/1._Y8tyba-UWZbZ5NpW9L-_2poU2CfflVmnxkwbJOqXqSWalM.Ikd2wX4xLeHt-kqivShmJ6CsSM1k5gMv3JuzHlVUwuk;https://90.img.avito.st/image/1/1.yj5jhba-ZtcVK6TYe5rHTyQkZNHRMmLX0VUH3d3maRXYJmQ.g_T65Bmhn7HElwjqAQmKi1fM3zawE6rJHLPTkckSBFA;https://30.img.avito.st/image/1/1.WL9ZOLa-9FYvljZZZRUizh6Z9lDrj_BW6-iVXOdb-5Tim_Y.hl-ho0_nE7PplZ9-0HrTU0kg235d92zwYyC-r9yQsTs?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U421" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V421" t="inlineStr"/>
+      <c r="W421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>7773530082</v>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Офис, 15 м²</t>
+        </is>
+      </c>
+      <c r="D422" t="n">
+        <v>12400</v>
+      </c>
+      <c r="E422" t="inlineStr"/>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//bratsk/kommercheskaya_nedvizhimost/ofis_15_m_7773530082?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>Сдам в аренду небольшой кабинет — 15 квм.
+Большая собственная парковка. Круглосуточные доступ. Консьерж. Видеонаблюдение.
+Имеются Кабинеты различной площади:
+Цоколь — 45,8 м2 по 272 руб. = 12 500 (с ндс — 12 916,67).
+Цоколь — 34,1 м2 по 273 руб = 9 300 (с ндс 9 610).
+1-й этаж: 15,6 м2 по 1300 руб. = 20 280 (с ндс — 20 956) руб. Есть мокрая точка.
+1-й этаж (109) 33,5 м2 по 750 руб. = 25 125 (с ндс 25 962,5) есть мокрая точка.
+3-й этаж: 17,5 м2 по 1 300 руб = 22 750 (с ндс 23 508,32) Есть мокрая точка.
+3-й этаж (306) 29,6 м2 по 700 руб. = 20 720 (с ндс 21 410,67) есть мокрая точка.
+3-й этаж: 131,1 м2 по 700 руб = 91 770 (с ндс — 94 829).
+4-й этаж (401б) 15 м2 по 800 руб =12 000 (с ндс 12 400).</t>
+        </is>
+      </c>
+      <c r="H422" s="1" t="n">
+        <v>46034.81755787037</v>
+      </c>
+      <c r="I422" t="inlineStr">
+        <is>
+          <t>i25858336</t>
+        </is>
+      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>Центральный район, Южная ул., 18А</t>
+        </is>
+      </c>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>Братск</t>
+        </is>
+      </c>
+      <c r="M422" t="inlineStr"/>
+      <c r="N422" t="inlineStr"/>
+      <c r="O422" t="inlineStr"/>
+      <c r="P422" t="inlineStr"/>
+      <c r="Q422" t="inlineStr"/>
+      <c r="R422" t="inlineStr"/>
+      <c r="S422" t="inlineStr">
+        <is>
+          <t>56.14598465;101.6157455</t>
+        </is>
+      </c>
+      <c r="T422" t="inlineStr">
+        <is>
+          <t>https://80.img.avito.st/image/1/1.i4ywwba-J2XGb-Vqqvf1mfxgJWMCdiNlAhFGbw6iKKcLYiU.sI9pBJkGbwy-vbTRqBs55p47j-4dRgaZAVerJvaCAbE;https://20.img.avito.st/image/1/1.dCcqW7a-2M5c9RrBTnYqMWb62siY7NzOmIu5xJQ41wyR-No.yNtQkDEHV8c64-jP8QwaDjvnJEWU319Ytv0Sln36WB8?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://20.img.avito.st/image/1/1.ACvp77a-rMKfQW7N5c9sP6VOrsRbWKjCWz_NyFeMowBSTK4.uG-N5bBtMEy-PnbFvq-GeP7x6F2WeDzRYNA8MWAFw6w?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://30.img.avito.st/image/1/1.O44t5ba-l2dbS1VoV9k6mGFElWGfUpNnnzX2bZOGmKWWRpU.s1SKEQzo1iOngiq4ptspwkcu3h37OTazQD6aDCjY83Y?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://90.img.avito.st/image/1/1.gOd_jba-LA4JI-4Bc7vC8TMsLgjNOigOzV1NBMHuI8zELi4.dqroLqDpcPcsKVM7-NWBrMsYl7zAVDEFtLdFFi2Qe5k;https://50.img.avito.st/image/1/1.Mwvwx7a-n-KGaV3tmptsHbxmneRCcJviQhf-6E6kkCBLZJ0.IfEkefBsg5LXsHpFek_NPYt_d3Xa6MZbHuearjgtkmg;https://20.img.avito.st/image/1/1.2Cd2xba-dM4Aa7bBSv6zMzpkdsjEcnDOxBUVxMimewzNZnY.V066GAH-KiRC6mqCs1xZ7VZKstw7KFIr65ZowmooVQI?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://50.img.avito.st/image/1/1.jsQCkLa-Ii10PuAiEpaU0k4xICuwJyYtsEBDJ7zzLe-5MyA.Po2PHxOCyGFG8PEj6WM-Csq3FvI_ybi8Yb-vRFbuC8s;https://40.img.avito.st/image/1/1.UtS1kra-_j3DPDwynYcqwfkz_DsHJfo9B0KfNwvx8f8OMfw.Eh6vxPiR5HLGWNsvFWFukE59C15ZM3CltNGA2Biw77k;https://10.img.avito.st/image/1/1.MaWvNba-nUzZm19DwREys-OUn0odgplMHeX8RhFWko4Ulp8.u2_LCDuz9aLanzcl50uT-cUgNQQ_Sfv05GAKTskFSKc?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://90.img.avito.st/image/1/1.ZZLPOra-yXu5lAt0iVN7hIOby319jc17feqocXFZxrl0mcs.D_mpnpvygf2Wh_9TeoIdfHIWydnV8daHUkeebSYhGZQ</t>
+        </is>
+      </c>
+      <c r="U422" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V422" t="inlineStr"/>
+      <c r="W422" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>913842117</v>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Офис, 20.2 м²</t>
+        </is>
+      </c>
+      <c r="D423" t="n">
+        <v>25250</v>
+      </c>
+      <c r="E423" t="inlineStr"/>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/ofis_20.2_m_913842117?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>Сдаются помещения в современном бизнес центре «Парковый».
+Сдаются 2 кабинета площадью 20,2 м2 и 32,8 м2 на 4 этаже.
+Здание оснащено:
+- Системой видеонаблюдения;
+- Системой контроля доступа;
+- Охранной сигнализацией;
+- Пожарной сигнализацией;
+- Системой вентиляции;
+- Оптико-волоконными телекоммуникациями;
+- Выделенными линиями Интернета ( провайдер Дси, Ростелеком).
+На территории БЦ «Парковый» есть платная парковка, 1 место- 2500 рублей в месяц.</t>
+        </is>
+      </c>
+      <c r="H423" s="1" t="n">
+        <v>46035.40615740741</v>
+      </c>
+      <c r="I423" t="inlineStr">
+        <is>
+          <t>i75882009</t>
+        </is>
+      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>ул. Седова, 48</t>
+        </is>
+      </c>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M423" t="inlineStr"/>
+      <c r="N423" t="inlineStr"/>
+      <c r="O423" t="inlineStr"/>
+      <c r="P423" t="inlineStr"/>
+      <c r="Q423" t="inlineStr"/>
+      <c r="R423" t="inlineStr"/>
+      <c r="S423" t="inlineStr">
+        <is>
+          <t>52.271797;104.294297</t>
+        </is>
+      </c>
+      <c r="T423" t="inlineStr">
+        <is>
+          <t>https://00.img.avito.st/image/1/1.XslFALa_8iAzrjAvdVkkwuuj9CbnpfImgMD4KjOuMC_zow.pb47Duq7iDjCjqNVbzXnQ88egEpzibP5hszgWMApJ4U?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://20.img.avito.st/image/1/1.gvsyg7a-LhJELewdOtH12zkiLBSANCoSgFNPGIzgIdCJICw.Yt6qnC4oeEoOlDSVXSWzcmzk7WXrCXeIhW8tXBFx4wI?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://10.img.avito.st/image/1/1.voW-4ba-EmzIT9Bjzo_KpbVAEGoMVhZsDDFzZgCCHa4FQhA.QPKkbpPPJWfniFDA08OcfebVF7gLXv_cFQsli96QePU?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://80.img.avito.st/image/1/1.EnsyhLa-vpJEKnydGrRmWzklvJSAM7qSgFTfmIznsVCJJ7w.NJb64aPhBnGmFjn66GT59CFERuTCxj4t8zrdRQHIcos;https://40.img.avito.st/image/1/1.y-DtYra-ZwmbzKUG9036webDZQ9f1WMJX7IGA1MBaMtWwWU.AGo-McsOCR56UZ1uhB3O_CwRBTYu_xEhH7LcAN2SFYQ;https://30.img.avito.st/image/1/1.B_sDqba-qxJ1B2kdAek02ggIqRSxHq8SsXnKGL3KpNC4Cqk.BJJZr4317kKJnS-gXGLkPDaUJmXsyXn1eALrsGHI4OM?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://30.img.avito.st/image/1/1.im_GJ7a-JoawieSJ3m2vT82GJIB0kCKGdPdHjHhEKUR9hCQ.y5nf6S29R4knQD69wOw5fmxgpffGZZgdlhJHInzlcas?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://00.img.avito.st/image/1/1.Mb6yjra-nVfEIF9Y3PIDn7kvn1EAOZlXAF78XQztkpUJLZ8.mOOdFpb9XxNLnr6E0ZQTNDKe0-TK_0hmiFxenK9kQ2Q?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://10.img.avito.st/image/1/1.Jrq-67a-ilPIRUhc_vsDmrVKiFUMXI5TDDvrWQCIhZEFSIg.3cmLQAnBb2Ite_4QP9b3rNbSC4NBRD56MSQ4KzHogIk?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://70.img.avito.st/image/1/1.a-PwYra-xwqGzAUFqm8dw_vDxQxC1cMKQrKmAE4ByMhLwcU.42eiKrvEqPzkMWY-Z2L6o_DuqW5_hRg2c9OC9iI89Xw</t>
+        </is>
+      </c>
+      <c r="U423" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V423" t="inlineStr"/>
+      <c r="W423" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>2178020771</v>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Торговая площадь, 40 м²</t>
+        </is>
+      </c>
+      <c r="D424" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E424" t="inlineStr"/>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//usole-sibirskoe/kommercheskaya_nedvizhimost/torgovaya_ploschad_40_m_2178020771?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>Сдаю в долгосрочную аренду коммерческое помещение площадью 40 м2. Рядом с пвз Вайлдберрис. Большая проходимость. Стоимость 20тыс в месяц 1 этаж. Коммунальные платежи оплачиваются отдельно.</t>
+        </is>
+      </c>
+      <c r="H424" s="1" t="n">
+        <v>46035.84746527778</v>
+      </c>
+      <c r="I424" t="inlineStr">
+        <is>
+          <t>i50270756</t>
+        </is>
+      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>Интернациональная ул., 36</t>
+        </is>
+      </c>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>Усолье-Сибирское</t>
+        </is>
+      </c>
+      <c r="M424" t="inlineStr"/>
+      <c r="N424" t="inlineStr"/>
+      <c r="O424" t="inlineStr"/>
+      <c r="P424" t="inlineStr"/>
+      <c r="Q424" t="inlineStr"/>
+      <c r="R424" t="inlineStr"/>
+      <c r="S424" t="inlineStr">
+        <is>
+          <t>52.751557;103.657077</t>
+        </is>
+      </c>
+      <c r="T424" t="inlineStr">
+        <is>
+          <t>https://30.img.avito.st/image/1/1.2LopMra-dFNfnLZcFXHN-UuTdlWbhXBTm-IVWZdRe5GSkXY.XBYpawCbmncI7AyhBU3gc3uCmgYK58sFYq0zWcxWgPE?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://10.img.avito.st/image/1/1.5xzbuLa-S_WtFon6mdu0A44ZSfNpD0_1aWgq_2XbRDdgG0k.liyz1-PN_l_6TSwJEx4eK1VsuDyJCIgv3CJOi-GcyoU?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://30.img.avito.st/image/1/1.UXhLcLa-_ZE93j-eZTkPZh7R_5f5x_mR-aCcm_UT8lPw0_8.7gBN2CVoxwCGS9CFQW9iaK_mOZiCsk8yshrFj2mEmok?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://40.img.avito.st/image/1/1.lvGnWba-OhjR9_gXh0uh9PL4OB4V7j4YFYlbEhk6Ndoc-jg.M5A2DJff5RBAj_Zt5DNwfQSU5LAazcD8N20nsIAG2yQ;https://40.img.avito.st/image/1/1.S2ZJ17a-548_eSWAU74PeBx25Yn7YOOP-weGhfe06E3ydOU.w8RXO4S5_Y0iJ3LCv1fHPo8FpF-wLtouiVxaztB1A7I</t>
+        </is>
+      </c>
+      <c r="U424" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V424" t="inlineStr"/>
+      <c r="W424" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>2362126403</v>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Офис, 17 м²</t>
+        </is>
+      </c>
+      <c r="D425" t="n">
+        <v>11400</v>
+      </c>
+      <c r="E425" t="inlineStr"/>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//angarsk/kommercheskaya_nedvizhimost/ofis_17_m_2362126403?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>Предлагаем в аренду коммерческую недвижимость (помещения для офисов, складов, торговли). Площадь помещений 17, 19 и 25 м2 высотой до 2,7 м. Ставки за м2 = 600 руб/м2. Кабинеты могут быть обставлены нашей мебелью, есть штатная уборщица. Санузлы — на этажах. На территории есть места для служебного/личного транспорта, удобная транспортная развязка — центральный проспект города, рядом выезд в Иркутск. Разнообразный состав существующих арендаторов (магазин «Хороший», автомастерская и шиномонтаж, офисы и склады, Цветы, офис парк-отель «Китой»). Быстрый Интернет (провадеры — «Бэйс», Рта, Дси), своя охрана, видеонаблюдение. Есть возможность подключения энергоемкого оборудования и работы круглосуточно. Возможны арендные каникулы или снижение ставки на первое время. Низкие ставки по центру Ангарска.</t>
+        </is>
+      </c>
+      <c r="H425" s="1" t="n">
+        <v>46037.57319444444</v>
+      </c>
+      <c r="I425" t="inlineStr">
+        <is>
+          <t>i70626620</t>
+        </is>
+      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>ул. Карла Маркса, 75</t>
+        </is>
+      </c>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>Ангарск</t>
+        </is>
+      </c>
+      <c r="M425" t="inlineStr"/>
+      <c r="N425" t="inlineStr"/>
+      <c r="O425" t="inlineStr"/>
+      <c r="P425" t="inlineStr"/>
+      <c r="Q425" t="inlineStr"/>
+      <c r="R425" t="inlineStr"/>
+      <c r="S425" t="inlineStr">
+        <is>
+          <t>52.524775;103.900179</t>
+        </is>
+      </c>
+      <c r="T425" t="inlineStr">
+        <is>
+          <t>https://80.img.avito.st/image/1/1.L7el1La-g17TekFR96Q4qbh2gVgXY4deFwTiVBu3jJwed4E.D-lPWoaAHr2uOfWMZy8NoYmTL-hQQGaY5uyJ_3TGbK0;https://80.img.avito.st/image/1/1.MyqB1ra-n8P3eF3M66YkNJx0ncUzYZvDMwb-yT-1kAE6dZ0.tsd6SJG02zOAll6o_7HLBTPqKLEKBTdS2Wfxoh9Q3Ps;https://80.img.avito.st/image/1/1.LFOQTba-gLrm40K1xD07TY3vgrwi-oS6Ip3hsC4uj3gr7oI.Df5NbS_B21lLrS_ls1rFxPW5RP-NusX1lgVr8C4fZ68;https://80.img.avito.st/image/1/1.LkW_GLa-gqzJtkCj72g5W6K6gKoNr4asDcjjpgF7jW4Eu4A.EJC1G0SH-pGdEhW802kWcZM6VKrWrIRNnmzAIziD1DY;https://80.img.avito.st/image/1/1.Ke9rdLa-hQYd2kcJNQQ-8XbWhwDZw4EG2aTkDNUXisTQ14c.LN27MM1467mRYS2wIGjiot2TlCI--oOGoIAwF0NZjho</t>
+        </is>
+      </c>
+      <c r="U425" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V425" t="inlineStr"/>
+      <c r="W425" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Avito</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>7866160766</v>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Торговая площадь, 12 м²</t>
+        </is>
+      </c>
+      <c r="D426" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E426" t="inlineStr"/>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru//irkutsk/kommercheskaya_nedvizhimost/torgovaya_ploschad_12_m_7866160766?context=H4sIAAAAAAAA_wE_AMD_YToyOntzOjEzOiJsb2NhbFByaW9yaXR5IjtiOjA7czoxOiJ4IjtzOjE2OiI5aXoxZkZFeUJTRUhuREJtIjt9wPDxfj8AAAA</t>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>Бесконечный поток людей и машин 1-я линия жилой массив очень большой.
+Под общепит не рассматриваем,
+можно открыть фрукты овощи/ белоречка магазин бакалея и тд) Киоск можно поменять! На павильон до 12-15 кв.</t>
+        </is>
+      </c>
+      <c r="H426" s="1" t="n">
+        <v>46032.86403935185</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>Волгоградская ул., 91</t>
+        </is>
+      </c>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>Иркутск</t>
+        </is>
+      </c>
+      <c r="M426" t="inlineStr"/>
+      <c r="N426" t="inlineStr"/>
+      <c r="O426" t="inlineStr"/>
+      <c r="P426" t="inlineStr"/>
+      <c r="Q426" t="inlineStr"/>
+      <c r="R426" t="inlineStr"/>
+      <c r="S426" t="inlineStr">
+        <is>
+          <t>52.34670639;104.2152786</t>
+        </is>
+      </c>
+      <c r="T426" t="inlineStr">
+        <is>
+          <t>https://90.img.avito.st/image/1/1.3zvX8ba-c9KhX7Hd5YbzFZtQcdRlRnfSZSES2GmSfBBsUnE.cw-5biiMMzd1jTKdM97izVHFvSPKoMCC_c3SCFQ8hq4;https://40.img.avito.st/image/1/1.gfP__7a-LRqJUe8V8cnz3rNeLxxNSCkaTS9MEEGcIthEXC8.UyUtEQiFHsEDC4z7AFmg6nEBBq2wubkKCfDP4z0Xg-o;https://00.img.avito.st/image/1/1.x89Cwra-ayY0bKkpQP2z4g5jaSDwdW8m8BIKLPyhZOT5YWk.A7FwAIwNmciKvHLlyMBpWI8rJf8DiDhiV0fvLS17Shc?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://20.img.avito.st/image/1/1.Nc43Jra-mSdBiFsoUTJ34HuHmyGFkZ0nhfb4LYlFluWMhZs.PVs5LyGUuvLBBSi17JZNFdoiEgp-oFBt_bXZlqfXPDg?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==;https://60.img.avito.st/image/1/1.Aux14La-rgUDTmwKfeQEzzlBrAPHV6oFxzDPD8uDocfOQ6w.2wnWTMpDgC0v1W01xAJZRJ_hjEhHbtaztRoipcbWAVo;https://80.img.avito.st/image/1/1.9NN0e7a-WDoC1Zo1EBSj_DjaWjzGzFw6xqs5MMoYV_jP2Fo.0Dcgt1-HMtjf1jUh4cwZZoCSBk-8EvCe5tL1Y-i3Yi4;https://20.img.avito.st/image/1/1.quH7QLa-BgiN7sQHo27rz7fhBA5J9wIISZBnAkUjCcpA4wQ.DtG2wHJM_nUrRW34o-h2u4UCtsCe5yDT4NOb7djm724?cqp=2.U5qO8d4CHIiNW2QBtZw-uX6ewmB-LGaDE3-rkUTl5s3E6YkLER2eWpxBXXm-uAtjIUjyebQ7nSoGxTRjJ3W_erzY_jCAaA==</t>
+        </is>
+      </c>
+      <c r="U426" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="V426" t="inlineStr"/>
+      <c r="W426" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
